--- a/_data/pp_recs_all.xlsx
+++ b/_data/pp_recs_all.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mgrant/Documents/_projects/r/pp_recs/_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5323011-EACB-EB4D-AF5C-B57D6B34F593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B78122B1-7D83-764C-B4E8-76785650C3B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="500" windowWidth="33060" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="500" windowWidth="43700" windowHeight="28160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Guidelines" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1764" uniqueCount="639">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1764" uniqueCount="640">
   <si>
     <t xml:space="preserve">Guideline </t>
   </si>
@@ -1421,15 +1421,6 @@
   </si>
   <si>
     <t>Acute Pain Management in the Perioperative Setting</t>
-  </si>
-  <si>
-    <t>Institutional Policies and Procedures for Providding Perioperative Pain Management</t>
-  </si>
-  <si>
-    <t>Anesthesiologists offering perioperative analgesia services should provide, in collaboration with other healthcare professionals as appropriate, ongoing education and training to ensure that hospital personnel are knowledgeable and skilled with regard to the effective and safe use of the available treatment options within the institution.</t>
-  </si>
-  <si>
-    <t>Educational content should range from basic bedside pain assessment to sophisticated pain management techniques (e.g., epidural analgesia, PCA, and various regional anesthesia techniques) and nonpharmacologic techniques (e.g., relaxation, imagery, hypnotic methods).</t>
   </si>
   <si>
     <t>For optimal pain management, ongoing education and training are essential for new personnel, to maintain skills, and whenever therapeutic approaches are modified.</t>
@@ -1996,6 +1987,20 @@
   </si>
   <si>
     <t>evidence</t>
+  </si>
+  <si>
+    <t>&amp;#9702; &lt;font size = 3&gt;  Educational content should range from basic bedside pain assessment to sophisticated pain management techniques (e.g., epidural analgesia, PCA, and various regional anesthesia techniques) and nonpharmacologic techniques (e.g., relaxation, imagery, hypnotic methods).&lt;/font&gt;</t>
+  </si>
+  <si>
+    <t>subrec</t>
+  </si>
+  <si>
+    <t>Institutional Policies and Procedures for Providing Perioperative Pain Management</t>
+  </si>
+  <si>
+    <t>Anesthesiologists offering perioperative analgesia services should provide, in collaboration with other healthcare professionals as appropriate, ongoing education and training to ensure that hospital personnel are knowledgeable and skilled with regard to the effective and safe use of the available treatment options within the institution.&lt;br/&gt;&lt;br/&gt;
+&amp;#9702; &lt;font size = 3&gt;  Educational content should range from basic bedside pain assessment to sophisticated pain management techniques (e.g., epidural analgesia, PCA, and various regional anesthesia techniques) and nonpharmacologic techniques (e.g., relaxation, imagery, hypnotic methods).&lt;br/&gt;
+&amp;#9702; For optimal pain management, ongoing education and training are essential for new personnel, to maintain skills, and whenever therapeutic approaches are modified.&lt;/font&gt;</t>
   </si>
 </sst>
 </file>
@@ -2108,7 +2113,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2153,7 +2158,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2164,14 +2168,11 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2521,66 +2522,67 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:M485"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A325" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E325" sqref="E325"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6.5" style="20" customWidth="1"/>
-    <col min="2" max="2" width="57" style="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5" style="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.6640625" style="21" customWidth="1"/>
-    <col min="5" max="5" width="87.1640625" style="21" customWidth="1"/>
+    <col min="1" max="1" width="6.5" style="19" customWidth="1"/>
+    <col min="2" max="2" width="57" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.6640625" style="20" customWidth="1"/>
+    <col min="5" max="5" width="87.1640625" style="20" customWidth="1"/>
     <col min="6" max="6" width="21.83203125" style="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.1640625" style="12" customWidth="1"/>
     <col min="8" max="9" width="9.1640625" style="12"/>
-    <col min="10" max="10" width="9.1640625" style="20"/>
+    <col min="10" max="10" width="9.1640625" style="19"/>
     <col min="11" max="16384" width="9.1640625" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
+        <v>630</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>631</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>632</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>633</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>634</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="F1" s="7" t="s">
         <v>635</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>636</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>637</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>638</v>
-      </c>
       <c r="H1" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>624</v>
+      </c>
+      <c r="J1" s="27" t="s">
+        <v>625</v>
+      </c>
+      <c r="K1" s="7" t="s">
         <v>626</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="L1" s="7" t="s">
         <v>627</v>
       </c>
-      <c r="J1" s="31" t="s">
+      <c r="M1" s="7" t="s">
         <v>628</v>
       </c>
-      <c r="K1" s="7" t="s">
-        <v>629</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>630</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="28" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:13" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A2" s="8">
         <v>170</v>
       </c>
@@ -2597,12 +2599,12 @@
         <v>195</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>586</v>
-      </c>
-      <c r="G2" s="28"/>
+        <v>583</v>
+      </c>
+      <c r="G2" s="25"/>
       <c r="J2" s="12"/>
     </row>
-    <row r="3" spans="1:13" ht="42" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A3" s="8">
         <v>171</v>
       </c>
@@ -2619,12 +2621,12 @@
         <v>196</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>586</v>
-      </c>
-      <c r="G3" s="28"/>
+        <v>583</v>
+      </c>
+      <c r="G3" s="25"/>
       <c r="J3" s="12"/>
     </row>
-    <row r="4" spans="1:13" ht="28" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A4" s="8">
         <v>172</v>
       </c>
@@ -2641,12 +2643,12 @@
         <v>197</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>586</v>
-      </c>
-      <c r="G4" s="28"/>
+        <v>583</v>
+      </c>
+      <c r="G4" s="25"/>
       <c r="J4" s="12"/>
     </row>
-    <row r="5" spans="1:13" ht="28" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A5" s="8">
         <v>173</v>
       </c>
@@ -2663,12 +2665,12 @@
         <v>199</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>586</v>
-      </c>
-      <c r="G5" s="28"/>
+        <v>583</v>
+      </c>
+      <c r="G5" s="25"/>
       <c r="J5" s="12"/>
     </row>
-    <row r="6" spans="1:13" ht="28" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A6" s="8">
         <v>174</v>
       </c>
@@ -2685,12 +2687,12 @@
         <v>200</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>569</v>
-      </c>
-      <c r="G6" s="28"/>
+        <v>566</v>
+      </c>
+      <c r="G6" s="25"/>
       <c r="J6" s="12"/>
     </row>
-    <row r="7" spans="1:13" ht="28" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A7" s="8">
         <v>175</v>
       </c>
@@ -2707,12 +2709,12 @@
         <v>201</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>578</v>
-      </c>
-      <c r="G7" s="28"/>
+        <v>575</v>
+      </c>
+      <c r="G7" s="25"/>
       <c r="J7" s="12"/>
     </row>
-    <row r="8" spans="1:13" ht="28" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A8" s="8">
         <v>176</v>
       </c>
@@ -2729,12 +2731,12 @@
         <v>202</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>582</v>
-      </c>
-      <c r="G8" s="28"/>
+        <v>579</v>
+      </c>
+      <c r="G8" s="25"/>
       <c r="J8" s="12"/>
     </row>
-    <row r="9" spans="1:13" ht="28" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A9" s="8">
         <v>177</v>
       </c>
@@ -2751,12 +2753,12 @@
         <v>203</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>582</v>
-      </c>
-      <c r="G9" s="28"/>
+        <v>579</v>
+      </c>
+      <c r="G9" s="25"/>
       <c r="J9" s="12"/>
     </row>
-    <row r="10" spans="1:13" ht="28" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A10" s="8">
         <v>178</v>
       </c>
@@ -2773,12 +2775,12 @@
         <v>204</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>569</v>
-      </c>
-      <c r="G10" s="28"/>
+        <v>566</v>
+      </c>
+      <c r="G10" s="25"/>
       <c r="J10" s="12"/>
     </row>
-    <row r="11" spans="1:13" ht="28" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A11" s="8">
         <v>179</v>
       </c>
@@ -2795,12 +2797,12 @@
         <v>205</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>569</v>
-      </c>
-      <c r="G11" s="28"/>
+        <v>566</v>
+      </c>
+      <c r="G11" s="25"/>
       <c r="J11" s="12"/>
     </row>
-    <row r="12" spans="1:13" ht="28" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A12" s="8">
         <v>180</v>
       </c>
@@ -2817,12 +2819,12 @@
         <v>206</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>569</v>
-      </c>
-      <c r="G12" s="28"/>
+        <v>566</v>
+      </c>
+      <c r="G12" s="25"/>
       <c r="J12" s="12"/>
     </row>
-    <row r="13" spans="1:13" ht="28" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A13" s="8">
         <v>181</v>
       </c>
@@ -2839,14 +2841,14 @@
         <v>207</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="G13" s="28"/>
-      <c r="J13" s="20" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="28" x14ac:dyDescent="0.15">
+        <v>565</v>
+      </c>
+      <c r="G13" s="25"/>
+      <c r="J13" s="19" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A14" s="8">
         <v>182</v>
       </c>
@@ -2863,12 +2865,12 @@
         <v>208</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>569</v>
-      </c>
-      <c r="G14" s="28"/>
+        <v>566</v>
+      </c>
+      <c r="G14" s="25"/>
       <c r="J14" s="12"/>
     </row>
-    <row r="15" spans="1:13" ht="28" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A15" s="8">
         <v>183</v>
       </c>
@@ -2885,14 +2887,14 @@
         <v>209</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>579</v>
-      </c>
-      <c r="G15" s="28"/>
-      <c r="J15" s="20" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="42" x14ac:dyDescent="0.15">
+        <v>576</v>
+      </c>
+      <c r="G15" s="25"/>
+      <c r="J15" s="19" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A16" s="8">
         <v>184</v>
       </c>
@@ -2909,12 +2911,12 @@
         <v>211</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>583</v>
-      </c>
-      <c r="G16" s="28"/>
+        <v>580</v>
+      </c>
+      <c r="G16" s="25"/>
       <c r="J16" s="12"/>
     </row>
-    <row r="17" spans="1:10" ht="42" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A17" s="8">
         <v>185</v>
       </c>
@@ -2931,12 +2933,12 @@
         <v>212</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>583</v>
-      </c>
-      <c r="G17" s="28"/>
+        <v>580</v>
+      </c>
+      <c r="G17" s="25"/>
       <c r="J17" s="12"/>
     </row>
-    <row r="18" spans="1:10" ht="28" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A18" s="8">
         <v>186</v>
       </c>
@@ -2953,12 +2955,12 @@
         <v>214</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>583</v>
-      </c>
-      <c r="G18" s="28"/>
+        <v>580</v>
+      </c>
+      <c r="G18" s="25"/>
       <c r="J18" s="12"/>
     </row>
-    <row r="19" spans="1:10" ht="42" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A19" s="8">
         <v>187</v>
       </c>
@@ -2975,11 +2977,11 @@
         <v>215</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>583</v>
-      </c>
-      <c r="G19" s="28"/>
-    </row>
-    <row r="20" spans="1:10" ht="28" x14ac:dyDescent="0.15">
+        <v>580</v>
+      </c>
+      <c r="G19" s="25"/>
+    </row>
+    <row r="20" spans="1:10" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A20" s="8">
         <v>188</v>
       </c>
@@ -2996,12 +2998,12 @@
         <v>216</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>583</v>
-      </c>
-      <c r="G20" s="28"/>
+        <v>580</v>
+      </c>
+      <c r="G20" s="25"/>
       <c r="J20" s="12"/>
     </row>
-    <row r="21" spans="1:10" ht="28" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A21" s="8">
         <v>189</v>
       </c>
@@ -3018,12 +3020,12 @@
         <v>217</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>583</v>
-      </c>
-      <c r="G21" s="28"/>
+        <v>580</v>
+      </c>
+      <c r="G21" s="25"/>
       <c r="J21" s="12"/>
     </row>
-    <row r="22" spans="1:10" ht="28" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A22" s="8">
         <v>190</v>
       </c>
@@ -3040,12 +3042,12 @@
         <v>218</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>583</v>
-      </c>
-      <c r="G22" s="28"/>
+        <v>580</v>
+      </c>
+      <c r="G22" s="25"/>
       <c r="J22" s="12"/>
     </row>
-    <row r="23" spans="1:10" ht="28" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A23" s="8">
         <v>191</v>
       </c>
@@ -3062,12 +3064,12 @@
         <v>219</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>583</v>
-      </c>
-      <c r="G23" s="28"/>
+        <v>580</v>
+      </c>
+      <c r="G23" s="25"/>
       <c r="J23" s="12"/>
     </row>
-    <row r="24" spans="1:10" ht="28" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A24" s="8">
         <v>192</v>
       </c>
@@ -3084,12 +3086,12 @@
         <v>213</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>583</v>
-      </c>
-      <c r="G24" s="28"/>
+        <v>580</v>
+      </c>
+      <c r="G24" s="25"/>
       <c r="J24" s="12"/>
     </row>
-    <row r="25" spans="1:10" ht="28" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A25" s="8">
         <v>193</v>
       </c>
@@ -3103,15 +3105,15 @@
         <v>210</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>583</v>
-      </c>
-      <c r="G25" s="28"/>
+        <v>580</v>
+      </c>
+      <c r="G25" s="25"/>
       <c r="J25" s="12"/>
     </row>
-    <row r="26" spans="1:10" ht="42" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:10" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A26" s="8">
         <v>194</v>
       </c>
@@ -3125,17 +3127,17 @@
         <v>210</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>583</v>
-      </c>
-      <c r="G26" s="28"/>
-      <c r="J26" s="20" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="42" x14ac:dyDescent="0.15">
+        <v>580</v>
+      </c>
+      <c r="G26" s="25"/>
+      <c r="J26" s="19" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A27" s="8">
         <v>195</v>
       </c>
@@ -3152,12 +3154,12 @@
         <v>220</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>583</v>
-      </c>
-      <c r="G27" s="28"/>
+        <v>580</v>
+      </c>
+      <c r="G27" s="25"/>
       <c r="J27" s="12"/>
     </row>
-    <row r="28" spans="1:10" ht="28" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:10" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A28" s="8">
         <v>196</v>
       </c>
@@ -3174,11 +3176,11 @@
         <v>221</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>583</v>
-      </c>
-      <c r="G28" s="28"/>
-    </row>
-    <row r="29" spans="1:10" ht="28" x14ac:dyDescent="0.15">
+        <v>580</v>
+      </c>
+      <c r="G28" s="25"/>
+    </row>
+    <row r="29" spans="1:10" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A29" s="8">
         <v>197</v>
       </c>
@@ -3195,12 +3197,12 @@
         <v>222</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>583</v>
-      </c>
-      <c r="G29" s="28"/>
+        <v>580</v>
+      </c>
+      <c r="G29" s="25"/>
       <c r="J29" s="12"/>
     </row>
-    <row r="30" spans="1:10" ht="28" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:10" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A30" s="8">
         <v>198</v>
       </c>
@@ -3217,12 +3219,12 @@
         <v>223</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>583</v>
-      </c>
-      <c r="G30" s="28"/>
+        <v>580</v>
+      </c>
+      <c r="G30" s="25"/>
       <c r="J30" s="12"/>
     </row>
-    <row r="31" spans="1:10" ht="28" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:10" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A31" s="8">
         <v>199</v>
       </c>
@@ -3239,12 +3241,12 @@
         <v>224</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>583</v>
-      </c>
-      <c r="G31" s="28"/>
+        <v>580</v>
+      </c>
+      <c r="G31" s="25"/>
       <c r="J31" s="12"/>
     </row>
-    <row r="32" spans="1:10" ht="28" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:10" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A32" s="8">
         <v>200</v>
       </c>
@@ -3261,12 +3263,12 @@
         <v>225</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>583</v>
-      </c>
-      <c r="G32" s="28"/>
+        <v>580</v>
+      </c>
+      <c r="G32" s="25"/>
       <c r="J32" s="12"/>
     </row>
-    <row r="33" spans="1:10" ht="28" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:10" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A33" s="8">
         <v>201</v>
       </c>
@@ -3283,12 +3285,12 @@
         <v>226</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>583</v>
-      </c>
-      <c r="G33" s="28"/>
+        <v>580</v>
+      </c>
+      <c r="G33" s="25"/>
       <c r="J33" s="12"/>
     </row>
-    <row r="34" spans="1:10" ht="28" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:10" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A34" s="8">
         <v>202</v>
       </c>
@@ -3305,12 +3307,12 @@
         <v>228</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>583</v>
-      </c>
-      <c r="G34" s="28"/>
+        <v>580</v>
+      </c>
+      <c r="G34" s="25"/>
       <c r="J34" s="12"/>
     </row>
-    <row r="35" spans="1:10" ht="28" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:10" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A35" s="8">
         <v>203</v>
       </c>
@@ -3327,12 +3329,12 @@
         <v>229</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>583</v>
-      </c>
-      <c r="G35" s="28"/>
+        <v>580</v>
+      </c>
+      <c r="G35" s="25"/>
       <c r="J35" s="12"/>
     </row>
-    <row r="36" spans="1:10" ht="28" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:10" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A36" s="8">
         <v>204</v>
       </c>
@@ -3349,14 +3351,14 @@
         <v>230</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>583</v>
-      </c>
-      <c r="G36" s="28"/>
-      <c r="J36" s="20" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="28" x14ac:dyDescent="0.15">
+        <v>580</v>
+      </c>
+      <c r="G36" s="25"/>
+      <c r="J36" s="19" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A37" s="8">
         <v>205</v>
       </c>
@@ -3373,12 +3375,12 @@
         <v>231</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>573</v>
-      </c>
-      <c r="G37" s="28"/>
+        <v>570</v>
+      </c>
+      <c r="G37" s="25"/>
       <c r="J37" s="12"/>
     </row>
-    <row r="38" spans="1:10" ht="28" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:10" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A38" s="8">
         <v>206</v>
       </c>
@@ -3395,12 +3397,12 @@
         <v>232</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>583</v>
-      </c>
-      <c r="G38" s="28"/>
+        <v>580</v>
+      </c>
+      <c r="G38" s="25"/>
       <c r="J38" s="12"/>
     </row>
-    <row r="39" spans="1:10" ht="28" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:10" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A39" s="8">
         <v>207</v>
       </c>
@@ -3417,12 +3419,12 @@
         <v>233</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>583</v>
-      </c>
-      <c r="G39" s="28"/>
+        <v>580</v>
+      </c>
+      <c r="G39" s="25"/>
       <c r="J39" s="12"/>
     </row>
-    <row r="40" spans="1:10" ht="28" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:10" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A40" s="8">
         <v>208</v>
       </c>
@@ -3439,14 +3441,14 @@
         <v>234</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>583</v>
-      </c>
-      <c r="G40" s="28"/>
-      <c r="J40" s="20" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="42" x14ac:dyDescent="0.15">
+        <v>580</v>
+      </c>
+      <c r="G40" s="25"/>
+      <c r="J40" s="19" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A41" s="13">
         <v>209</v>
       </c>
@@ -3457,16 +3459,16 @@
         <v>2015</v>
       </c>
       <c r="D41" s="14" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="E41" s="14" t="s">
         <v>236</v>
       </c>
       <c r="F41" s="15"/>
-      <c r="G41" s="28"/>
+      <c r="G41" s="25"/>
       <c r="J41" s="12"/>
     </row>
-    <row r="42" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:10" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A42" s="13">
         <v>210</v>
       </c>
@@ -3477,16 +3479,16 @@
         <v>2015</v>
       </c>
       <c r="D42" s="14" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="E42" s="14" t="s">
         <v>237</v>
       </c>
       <c r="F42" s="15"/>
-      <c r="G42" s="28"/>
+      <c r="G42" s="25"/>
       <c r="J42" s="12"/>
     </row>
-    <row r="43" spans="1:10" ht="28" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:10" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A43" s="13">
         <v>211</v>
       </c>
@@ -3497,16 +3499,16 @@
         <v>2015</v>
       </c>
       <c r="D43" s="14" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="E43" s="14" t="s">
         <v>238</v>
       </c>
       <c r="F43" s="15"/>
-      <c r="G43" s="28"/>
+      <c r="G43" s="25"/>
       <c r="J43" s="12"/>
     </row>
-    <row r="44" spans="1:10" ht="28" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:10" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A44" s="13">
         <v>212</v>
       </c>
@@ -3517,15 +3519,15 @@
         <v>2015</v>
       </c>
       <c r="D44" s="14" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="E44" s="14" t="s">
         <v>239</v>
       </c>
       <c r="F44" s="15"/>
-      <c r="G44" s="28"/>
-    </row>
-    <row r="45" spans="1:10" ht="28" x14ac:dyDescent="0.15">
+      <c r="G44" s="25"/>
+    </row>
+    <row r="45" spans="1:10" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A45" s="13">
         <v>213</v>
       </c>
@@ -3536,16 +3538,16 @@
         <v>2015</v>
       </c>
       <c r="D45" s="14" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="E45" s="14" t="s">
         <v>240</v>
       </c>
       <c r="F45" s="15"/>
-      <c r="G45" s="28"/>
+      <c r="G45" s="25"/>
       <c r="J45" s="12"/>
     </row>
-    <row r="46" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:10" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A46" s="13">
         <v>214</v>
       </c>
@@ -3556,15 +3558,15 @@
         <v>2015</v>
       </c>
       <c r="D46" s="14" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="E46" s="14" t="s">
         <v>241</v>
       </c>
       <c r="F46" s="15"/>
-      <c r="G46" s="28"/>
-    </row>
-    <row r="47" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+      <c r="G46" s="25"/>
+    </row>
+    <row r="47" spans="1:10" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A47" s="13">
         <v>215</v>
       </c>
@@ -3575,16 +3577,16 @@
         <v>2015</v>
       </c>
       <c r="D47" s="14" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="E47" s="14" t="s">
         <v>242</v>
       </c>
       <c r="F47" s="15"/>
-      <c r="G47" s="28"/>
+      <c r="G47" s="25"/>
       <c r="J47" s="12"/>
     </row>
-    <row r="48" spans="1:10" ht="42" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:10" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A48" s="13">
         <v>216</v>
       </c>
@@ -3595,16 +3597,15 @@
         <v>2015</v>
       </c>
       <c r="D48" s="14" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="E48" s="14" t="s">
         <v>243</v>
       </c>
       <c r="F48" s="15"/>
-      <c r="G48" s="29"/>
       <c r="J48" s="12"/>
     </row>
-    <row r="49" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:6" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A49" s="13">
         <v>217</v>
       </c>
@@ -3615,15 +3616,14 @@
         <v>2015</v>
       </c>
       <c r="D49" s="14" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="E49" s="14" t="s">
         <v>244</v>
       </c>
       <c r="F49" s="15"/>
-      <c r="G49" s="29"/>
-    </row>
-    <row r="50" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    </row>
+    <row r="50" spans="1:6" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A50" s="13">
         <v>218</v>
       </c>
@@ -3634,15 +3634,14 @@
         <v>2015</v>
       </c>
       <c r="D50" s="14" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="E50" s="14" t="s">
         <v>245</v>
       </c>
       <c r="F50" s="15"/>
-      <c r="G50" s="29"/>
-    </row>
-    <row r="51" spans="1:7" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="51" spans="1:6" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A51" s="13">
         <v>219</v>
       </c>
@@ -3659,9 +3658,8 @@
         <v>247</v>
       </c>
       <c r="F51" s="15"/>
-      <c r="G51" s="29"/>
-    </row>
-    <row r="52" spans="1:7" s="12" customFormat="1" ht="42" x14ac:dyDescent="0.15">
+    </row>
+    <row r="52" spans="1:6" s="12" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A52" s="13">
         <v>220</v>
       </c>
@@ -3678,9 +3676,8 @@
         <v>248</v>
       </c>
       <c r="F52" s="15"/>
-      <c r="G52" s="29"/>
-    </row>
-    <row r="53" spans="1:7" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="53" spans="1:6" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A53" s="13">
         <v>221</v>
       </c>
@@ -3697,9 +3694,8 @@
         <v>249</v>
       </c>
       <c r="F53" s="15"/>
-      <c r="G53" s="29"/>
-    </row>
-    <row r="54" spans="1:7" s="12" customFormat="1" ht="42" x14ac:dyDescent="0.15">
+    </row>
+    <row r="54" spans="1:6" s="12" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A54" s="13">
         <v>222</v>
       </c>
@@ -3716,9 +3712,8 @@
         <v>250</v>
       </c>
       <c r="F54" s="15"/>
-      <c r="G54" s="29"/>
-    </row>
-    <row r="55" spans="1:7" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="55" spans="1:6" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A55" s="13">
         <v>223</v>
       </c>
@@ -3735,9 +3730,8 @@
         <v>251</v>
       </c>
       <c r="F55" s="15"/>
-      <c r="G55" s="29"/>
-    </row>
-    <row r="56" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    </row>
+    <row r="56" spans="1:6" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A56" s="13">
         <v>224</v>
       </c>
@@ -3754,9 +3748,8 @@
         <v>252</v>
       </c>
       <c r="F56" s="15"/>
-      <c r="G56" s="29"/>
-    </row>
-    <row r="57" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    </row>
+    <row r="57" spans="1:6" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A57" s="13">
         <v>225</v>
       </c>
@@ -3773,9 +3766,8 @@
         <v>253</v>
       </c>
       <c r="F57" s="15"/>
-      <c r="G57" s="29"/>
-    </row>
-    <row r="58" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    </row>
+    <row r="58" spans="1:6" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A58" s="13">
         <v>226</v>
       </c>
@@ -3792,9 +3784,8 @@
         <v>254</v>
       </c>
       <c r="F58" s="15"/>
-      <c r="G58" s="29"/>
-    </row>
-    <row r="59" spans="1:7" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="59" spans="1:6" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A59" s="13">
         <v>227</v>
       </c>
@@ -3811,9 +3802,8 @@
         <v>256</v>
       </c>
       <c r="F59" s="15"/>
-      <c r="G59" s="29"/>
-    </row>
-    <row r="60" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    </row>
+    <row r="60" spans="1:6" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A60" s="13">
         <v>228</v>
       </c>
@@ -3830,9 +3820,8 @@
         <v>257</v>
       </c>
       <c r="F60" s="15"/>
-      <c r="G60" s="29"/>
-    </row>
-    <row r="61" spans="1:7" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="61" spans="1:6" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A61" s="13">
         <v>229</v>
       </c>
@@ -3849,9 +3838,8 @@
         <v>258</v>
       </c>
       <c r="F61" s="15"/>
-      <c r="G61" s="29"/>
-    </row>
-    <row r="62" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    </row>
+    <row r="62" spans="1:6" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A62" s="13">
         <v>230</v>
       </c>
@@ -3868,9 +3856,8 @@
         <v>259</v>
       </c>
       <c r="F62" s="15"/>
-      <c r="G62" s="29"/>
-    </row>
-    <row r="63" spans="1:7" s="12" customFormat="1" ht="42" x14ac:dyDescent="0.15">
+    </row>
+    <row r="63" spans="1:6" s="12" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A63" s="13">
         <v>231</v>
       </c>
@@ -3887,9 +3874,8 @@
         <v>260</v>
       </c>
       <c r="F63" s="15"/>
-      <c r="G63" s="29"/>
-    </row>
-    <row r="64" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    </row>
+    <row r="64" spans="1:6" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A64" s="13">
         <v>232</v>
       </c>
@@ -3906,9 +3892,8 @@
         <v>261</v>
       </c>
       <c r="F64" s="15"/>
-      <c r="G64" s="29"/>
-    </row>
-    <row r="65" spans="1:7" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="65" spans="1:6" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A65" s="13">
         <v>233</v>
       </c>
@@ -3925,9 +3910,8 @@
         <v>262</v>
       </c>
       <c r="F65" s="15"/>
-      <c r="G65" s="29"/>
-    </row>
-    <row r="66" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    </row>
+    <row r="66" spans="1:6" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A66" s="13">
         <v>234</v>
       </c>
@@ -3944,9 +3928,8 @@
         <v>263</v>
       </c>
       <c r="F66" s="15"/>
-      <c r="G66" s="29"/>
-    </row>
-    <row r="67" spans="1:7" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="67" spans="1:6" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A67" s="13">
         <v>235</v>
       </c>
@@ -3963,9 +3946,8 @@
         <v>264</v>
       </c>
       <c r="F67" s="15"/>
-      <c r="G67" s="29"/>
-    </row>
-    <row r="68" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    </row>
+    <row r="68" spans="1:6" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A68" s="13">
         <v>236</v>
       </c>
@@ -3982,9 +3964,8 @@
         <v>265</v>
       </c>
       <c r="F68" s="15"/>
-      <c r="G68" s="29"/>
-    </row>
-    <row r="69" spans="1:7" s="12" customFormat="1" ht="42" x14ac:dyDescent="0.15">
+    </row>
+    <row r="69" spans="1:6" s="12" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A69" s="13">
         <v>237</v>
       </c>
@@ -4001,9 +3982,8 @@
         <v>267</v>
       </c>
       <c r="F69" s="15"/>
-      <c r="G69" s="29"/>
-    </row>
-    <row r="70" spans="1:7" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="70" spans="1:6" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A70" s="13">
         <v>238</v>
       </c>
@@ -4020,9 +4000,8 @@
         <v>268</v>
       </c>
       <c r="F70" s="15"/>
-      <c r="G70" s="29"/>
-    </row>
-    <row r="71" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    </row>
+    <row r="71" spans="1:6" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A71" s="13">
         <v>239</v>
       </c>
@@ -4039,9 +4018,8 @@
         <v>269</v>
       </c>
       <c r="F71" s="15"/>
-      <c r="G71" s="29"/>
-    </row>
-    <row r="72" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    </row>
+    <row r="72" spans="1:6" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A72" s="13">
         <v>240</v>
       </c>
@@ -4058,9 +4036,8 @@
         <v>266</v>
       </c>
       <c r="F72" s="15"/>
-      <c r="G72" s="29"/>
-    </row>
-    <row r="73" spans="1:7" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="73" spans="1:6" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A73" s="13">
         <v>241</v>
       </c>
@@ -4077,9 +4054,8 @@
         <v>270</v>
       </c>
       <c r="F73" s="15"/>
-      <c r="G73" s="29"/>
-    </row>
-    <row r="74" spans="1:7" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="74" spans="1:6" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A74" s="13">
         <v>242</v>
       </c>
@@ -4096,9 +4072,8 @@
         <v>271</v>
       </c>
       <c r="F74" s="15"/>
-      <c r="G74" s="29"/>
-    </row>
-    <row r="75" spans="1:7" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="75" spans="1:6" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A75" s="13">
         <v>243</v>
       </c>
@@ -4115,9 +4090,8 @@
         <v>272</v>
       </c>
       <c r="F75" s="15"/>
-      <c r="G75" s="29"/>
-    </row>
-    <row r="76" spans="1:7" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="76" spans="1:6" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A76" s="13">
         <v>244</v>
       </c>
@@ -4134,9 +4108,8 @@
         <v>273</v>
       </c>
       <c r="F76" s="15"/>
-      <c r="G76" s="29"/>
-    </row>
-    <row r="77" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    </row>
+    <row r="77" spans="1:6" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A77" s="13">
         <v>245</v>
       </c>
@@ -4153,9 +4126,8 @@
         <v>275</v>
       </c>
       <c r="F77" s="15"/>
-      <c r="G77" s="29"/>
-    </row>
-    <row r="78" spans="1:7" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="78" spans="1:6" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A78" s="13">
         <v>246</v>
       </c>
@@ -4172,9 +4144,8 @@
         <v>276</v>
       </c>
       <c r="F78" s="15"/>
-      <c r="G78" s="29"/>
-    </row>
-    <row r="79" spans="1:7" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="79" spans="1:6" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A79" s="13">
         <v>247</v>
       </c>
@@ -4191,9 +4162,8 @@
         <v>277</v>
       </c>
       <c r="F79" s="15"/>
-      <c r="G79" s="29"/>
-    </row>
-    <row r="80" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    </row>
+    <row r="80" spans="1:6" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A80" s="13">
         <v>248</v>
       </c>
@@ -4210,9 +4180,8 @@
         <v>278</v>
       </c>
       <c r="F80" s="15"/>
-      <c r="G80" s="29"/>
-    </row>
-    <row r="81" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    </row>
+    <row r="81" spans="1:6" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A81" s="13">
         <v>249</v>
       </c>
@@ -4229,9 +4198,8 @@
         <v>279</v>
       </c>
       <c r="F81" s="15"/>
-      <c r="G81" s="29"/>
-    </row>
-    <row r="82" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    </row>
+    <row r="82" spans="1:6" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A82" s="13">
         <v>250</v>
       </c>
@@ -4248,9 +4216,8 @@
         <v>280</v>
       </c>
       <c r="F82" s="15"/>
-      <c r="G82" s="29"/>
-    </row>
-    <row r="83" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    </row>
+    <row r="83" spans="1:6" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A83" s="13">
         <v>251</v>
       </c>
@@ -4267,9 +4234,8 @@
         <v>281</v>
       </c>
       <c r="F83" s="15"/>
-      <c r="G83" s="29"/>
-    </row>
-    <row r="84" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    </row>
+    <row r="84" spans="1:6" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A84" s="13">
         <v>252</v>
       </c>
@@ -4286,9 +4252,8 @@
         <v>283</v>
       </c>
       <c r="F84" s="15"/>
-      <c r="G84" s="29"/>
-    </row>
-    <row r="85" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    </row>
+    <row r="85" spans="1:6" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A85" s="13">
         <v>253</v>
       </c>
@@ -4305,9 +4270,8 @@
         <v>284</v>
       </c>
       <c r="F85" s="15"/>
-      <c r="G85" s="29"/>
-    </row>
-    <row r="86" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    </row>
+    <row r="86" spans="1:6" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A86" s="13">
         <v>254</v>
       </c>
@@ -4324,9 +4288,8 @@
         <v>285</v>
       </c>
       <c r="F86" s="15"/>
-      <c r="G86" s="29"/>
-    </row>
-    <row r="87" spans="1:7" s="12" customFormat="1" ht="42" x14ac:dyDescent="0.15">
+    </row>
+    <row r="87" spans="1:6" s="12" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A87" s="13">
         <v>255</v>
       </c>
@@ -4343,9 +4306,8 @@
         <v>286</v>
       </c>
       <c r="F87" s="15"/>
-      <c r="G87" s="29"/>
-    </row>
-    <row r="88" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    </row>
+    <row r="88" spans="1:6" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A88" s="13">
         <v>256</v>
       </c>
@@ -4362,9 +4324,8 @@
         <v>287</v>
       </c>
       <c r="F88" s="15"/>
-      <c r="G88" s="29"/>
-    </row>
-    <row r="89" spans="1:7" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="89" spans="1:6" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A89" s="13">
         <v>257</v>
       </c>
@@ -4381,9 +4342,8 @@
         <v>288</v>
       </c>
       <c r="F89" s="15"/>
-      <c r="G89" s="29"/>
-    </row>
-    <row r="90" spans="1:7" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="90" spans="1:6" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A90" s="13">
         <v>258</v>
       </c>
@@ -4400,9 +4360,8 @@
         <v>289</v>
       </c>
       <c r="F90" s="15"/>
-      <c r="G90" s="29"/>
-    </row>
-    <row r="91" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    </row>
+    <row r="91" spans="1:6" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A91" s="13">
         <v>259</v>
       </c>
@@ -4419,9 +4378,8 @@
         <v>290</v>
       </c>
       <c r="F91" s="15"/>
-      <c r="G91" s="29"/>
-    </row>
-    <row r="92" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    </row>
+    <row r="92" spans="1:6" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A92" s="13">
         <v>260</v>
       </c>
@@ -4438,9 +4396,8 @@
         <v>291</v>
       </c>
       <c r="F92" s="15"/>
-      <c r="G92" s="29"/>
-    </row>
-    <row r="93" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    </row>
+    <row r="93" spans="1:6" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A93" s="13">
         <v>261</v>
       </c>
@@ -4457,9 +4414,8 @@
         <v>292</v>
       </c>
       <c r="F93" s="15"/>
-      <c r="G93" s="29"/>
-    </row>
-    <row r="94" spans="1:7" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="94" spans="1:6" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A94" s="13">
         <v>262</v>
       </c>
@@ -4476,9 +4432,8 @@
         <v>293</v>
       </c>
       <c r="F94" s="15"/>
-      <c r="G94" s="29"/>
-    </row>
-    <row r="95" spans="1:7" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="95" spans="1:6" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A95" s="13">
         <v>263</v>
       </c>
@@ -4495,9 +4450,8 @@
         <v>294</v>
       </c>
       <c r="F95" s="15"/>
-      <c r="G95" s="29"/>
-    </row>
-    <row r="96" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    </row>
+    <row r="96" spans="1:6" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A96" s="13">
         <v>264</v>
       </c>
@@ -4514,9 +4468,8 @@
         <v>295</v>
       </c>
       <c r="F96" s="15"/>
-      <c r="G96" s="29"/>
-    </row>
-    <row r="97" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    </row>
+    <row r="97" spans="1:6" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A97" s="13">
         <v>265</v>
       </c>
@@ -4533,9 +4486,8 @@
         <v>296</v>
       </c>
       <c r="F97" s="15"/>
-      <c r="G97" s="29"/>
-    </row>
-    <row r="98" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    </row>
+    <row r="98" spans="1:6" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A98" s="13">
         <v>266</v>
       </c>
@@ -4552,9 +4504,8 @@
         <v>298</v>
       </c>
       <c r="F98" s="15"/>
-      <c r="G98" s="29"/>
-    </row>
-    <row r="99" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    </row>
+    <row r="99" spans="1:6" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A99" s="13">
         <v>267</v>
       </c>
@@ -4571,9 +4522,8 @@
         <v>299</v>
       </c>
       <c r="F99" s="15"/>
-      <c r="G99" s="29"/>
-    </row>
-    <row r="100" spans="1:7" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="100" spans="1:6" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A100" s="13">
         <v>268</v>
       </c>
@@ -4590,9 +4540,8 @@
         <v>300</v>
       </c>
       <c r="F100" s="15"/>
-      <c r="G100" s="29"/>
-    </row>
-    <row r="101" spans="1:7" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="101" spans="1:6" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A101" s="13">
         <v>269</v>
       </c>
@@ -4609,9 +4558,8 @@
         <v>301</v>
       </c>
       <c r="F101" s="15"/>
-      <c r="G101" s="29"/>
-    </row>
-    <row r="102" spans="1:7" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="102" spans="1:6" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A102" s="13">
         <v>270</v>
       </c>
@@ -4628,9 +4576,8 @@
         <v>302</v>
       </c>
       <c r="F102" s="15"/>
-      <c r="G102" s="29"/>
-    </row>
-    <row r="103" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    </row>
+    <row r="103" spans="1:6" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A103" s="13">
         <v>271</v>
       </c>
@@ -4647,9 +4594,8 @@
         <v>303</v>
       </c>
       <c r="F103" s="15"/>
-      <c r="G103" s="29"/>
-    </row>
-    <row r="104" spans="1:7" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="104" spans="1:6" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A104" s="13">
         <v>272</v>
       </c>
@@ -4666,9 +4612,8 @@
         <v>305</v>
       </c>
       <c r="F104" s="15"/>
-      <c r="G104" s="29"/>
-    </row>
-    <row r="105" spans="1:7" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="105" spans="1:6" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A105" s="13">
         <v>273</v>
       </c>
@@ -4685,9 +4630,8 @@
         <v>306</v>
       </c>
       <c r="F105" s="15"/>
-      <c r="G105" s="29"/>
-    </row>
-    <row r="106" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    </row>
+    <row r="106" spans="1:6" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A106" s="13">
         <v>274</v>
       </c>
@@ -4704,9 +4648,8 @@
         <v>307</v>
       </c>
       <c r="F106" s="15"/>
-      <c r="G106" s="29"/>
-    </row>
-    <row r="107" spans="1:7" s="12" customFormat="1" ht="42" x14ac:dyDescent="0.15">
+    </row>
+    <row r="107" spans="1:6" s="12" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A107" s="13">
         <v>275</v>
       </c>
@@ -4723,9 +4666,8 @@
         <v>308</v>
       </c>
       <c r="F107" s="15"/>
-      <c r="G107" s="29"/>
-    </row>
-    <row r="108" spans="1:7" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="108" spans="1:6" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A108" s="13">
         <v>276</v>
       </c>
@@ -4742,9 +4684,8 @@
         <v>309</v>
       </c>
       <c r="F108" s="15"/>
-      <c r="G108" s="29"/>
-    </row>
-    <row r="109" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    </row>
+    <row r="109" spans="1:6" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A109" s="13">
         <v>277</v>
       </c>
@@ -4761,9 +4702,8 @@
         <v>310</v>
       </c>
       <c r="F109" s="15"/>
-      <c r="G109" s="29"/>
-    </row>
-    <row r="110" spans="1:7" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="110" spans="1:6" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A110" s="13">
         <v>278</v>
       </c>
@@ -4780,9 +4720,8 @@
         <v>311</v>
       </c>
       <c r="F110" s="15"/>
-      <c r="G110" s="29"/>
-    </row>
-    <row r="111" spans="1:7" s="12" customFormat="1" ht="42" x14ac:dyDescent="0.15">
+    </row>
+    <row r="111" spans="1:6" s="12" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A111" s="13">
         <v>279</v>
       </c>
@@ -4799,9 +4738,8 @@
         <v>312</v>
       </c>
       <c r="F111" s="15"/>
-      <c r="G111" s="29"/>
-    </row>
-    <row r="112" spans="1:7" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="112" spans="1:6" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A112" s="13">
         <v>280</v>
       </c>
@@ -4818,9 +4756,8 @@
         <v>313</v>
       </c>
       <c r="F112" s="15"/>
-      <c r="G112" s="29"/>
-    </row>
-    <row r="113" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    </row>
+    <row r="113" spans="1:6" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A113" s="13">
         <v>281</v>
       </c>
@@ -4837,9 +4774,8 @@
         <v>314</v>
       </c>
       <c r="F113" s="15"/>
-      <c r="G113" s="29"/>
-    </row>
-    <row r="114" spans="1:7" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="114" spans="1:6" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A114" s="13">
         <v>282</v>
       </c>
@@ -4856,9 +4792,8 @@
         <v>315</v>
       </c>
       <c r="F114" s="15"/>
-      <c r="G114" s="29"/>
-    </row>
-    <row r="115" spans="1:7" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="115" spans="1:6" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A115" s="13">
         <v>283</v>
       </c>
@@ -4875,9 +4810,8 @@
         <v>316</v>
       </c>
       <c r="F115" s="15"/>
-      <c r="G115" s="29"/>
-    </row>
-    <row r="116" spans="1:7" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="116" spans="1:6" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A116" s="13">
         <v>284</v>
       </c>
@@ -4894,9 +4828,8 @@
         <v>317</v>
       </c>
       <c r="F116" s="15"/>
-      <c r="G116" s="29"/>
-    </row>
-    <row r="117" spans="1:7" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="117" spans="1:6" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A117" s="8">
         <v>1</v>
       </c>
@@ -4910,14 +4843,13 @@
         <v>48</v>
       </c>
       <c r="E117" s="10" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="F117" s="11" t="s">
-        <v>571</v>
-      </c>
-      <c r="G117" s="29"/>
-    </row>
-    <row r="118" spans="1:7" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A118" s="8">
         <v>2</v>
       </c>
@@ -4934,11 +4866,10 @@
         <v>3</v>
       </c>
       <c r="F118" s="11" t="s">
-        <v>571</v>
-      </c>
-      <c r="G118" s="29"/>
-    </row>
-    <row r="119" spans="1:7" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A119" s="8">
         <v>3</v>
       </c>
@@ -4955,11 +4886,10 @@
         <v>4</v>
       </c>
       <c r="F119" s="11" t="s">
-        <v>571</v>
-      </c>
-      <c r="G119" s="29"/>
-    </row>
-    <row r="120" spans="1:7" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A120" s="8">
         <v>4</v>
       </c>
@@ -4976,11 +4906,10 @@
         <v>5</v>
       </c>
       <c r="F120" s="11" t="s">
-        <v>571</v>
-      </c>
-      <c r="G120" s="29"/>
-    </row>
-    <row r="121" spans="1:7" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A121" s="8">
         <v>5</v>
       </c>
@@ -4997,11 +4926,10 @@
         <v>6</v>
       </c>
       <c r="F121" s="11" t="s">
-        <v>571</v>
-      </c>
-      <c r="G121" s="29"/>
-    </row>
-    <row r="122" spans="1:7" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A122" s="8">
         <v>6</v>
       </c>
@@ -5018,11 +4946,10 @@
         <v>7</v>
       </c>
       <c r="F122" s="11" t="s">
-        <v>571</v>
-      </c>
-      <c r="G122" s="29"/>
-    </row>
-    <row r="123" spans="1:7" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A123" s="8">
         <v>7</v>
       </c>
@@ -5039,11 +4966,10 @@
         <v>8</v>
       </c>
       <c r="F123" s="11" t="s">
-        <v>571</v>
-      </c>
-      <c r="G123" s="29"/>
-    </row>
-    <row r="124" spans="1:7" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A124" s="8">
         <v>8</v>
       </c>
@@ -5060,11 +4986,10 @@
         <v>9</v>
       </c>
       <c r="F124" s="11" t="s">
-        <v>571</v>
-      </c>
-      <c r="G124" s="29"/>
-    </row>
-    <row r="125" spans="1:7" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A125" s="8">
         <v>9</v>
       </c>
@@ -5081,11 +5006,10 @@
         <v>10</v>
       </c>
       <c r="F125" s="11" t="s">
-        <v>571</v>
-      </c>
-      <c r="G125" s="29"/>
-    </row>
-    <row r="126" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A126" s="8">
         <v>10</v>
       </c>
@@ -5102,11 +5026,10 @@
         <v>11</v>
       </c>
       <c r="F126" s="11" t="s">
-        <v>571</v>
-      </c>
-      <c r="G126" s="29"/>
-    </row>
-    <row r="127" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A127" s="8">
         <v>11</v>
       </c>
@@ -5123,11 +5046,10 @@
         <v>12</v>
       </c>
       <c r="F127" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="G127" s="29"/>
-    </row>
-    <row r="128" spans="1:7" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A128" s="8">
         <v>12</v>
       </c>
@@ -5144,11 +5066,10 @@
         <v>13</v>
       </c>
       <c r="F128" s="11" t="s">
-        <v>569</v>
-      </c>
-      <c r="G128" s="29"/>
-    </row>
-    <row r="129" spans="1:7" s="12" customFormat="1" ht="42" x14ac:dyDescent="0.15">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" s="12" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A129" s="8">
         <v>13</v>
       </c>
@@ -5165,11 +5086,10 @@
         <v>14</v>
       </c>
       <c r="F129" s="11" t="s">
-        <v>570</v>
-      </c>
-      <c r="G129" s="29"/>
-    </row>
-    <row r="130" spans="1:7" s="12" customFormat="1" ht="42" x14ac:dyDescent="0.15">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" s="12" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A130" s="8">
         <v>14</v>
       </c>
@@ -5186,11 +5106,10 @@
         <v>15</v>
       </c>
       <c r="F130" s="11" t="s">
-        <v>569</v>
-      </c>
-      <c r="G130" s="29"/>
-    </row>
-    <row r="131" spans="1:7" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A131" s="8">
         <v>15</v>
       </c>
@@ -5207,11 +5126,10 @@
         <v>16</v>
       </c>
       <c r="F131" s="11" t="s">
-        <v>586</v>
-      </c>
-      <c r="G131" s="29"/>
-    </row>
-    <row r="132" spans="1:7" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A132" s="8">
         <v>16</v>
       </c>
@@ -5228,11 +5146,10 @@
         <v>17</v>
       </c>
       <c r="F132" s="11" t="s">
-        <v>586</v>
-      </c>
-      <c r="G132" s="29"/>
-    </row>
-    <row r="133" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A133" s="8">
         <v>17</v>
       </c>
@@ -5249,11 +5166,10 @@
         <v>18</v>
       </c>
       <c r="F133" s="11" t="s">
-        <v>572</v>
-      </c>
-      <c r="G133" s="29"/>
-    </row>
-    <row r="134" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A134" s="8">
         <v>18</v>
       </c>
@@ -5270,11 +5186,10 @@
         <v>19</v>
       </c>
       <c r="F134" s="11" t="s">
-        <v>569</v>
-      </c>
-      <c r="G134" s="29"/>
-    </row>
-    <row r="135" spans="1:7" s="12" customFormat="1" ht="70" x14ac:dyDescent="0.15">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" s="12" customFormat="1" ht="70" hidden="1" x14ac:dyDescent="0.15">
       <c r="A135" s="8">
         <v>19</v>
       </c>
@@ -5291,11 +5206,10 @@
         <v>20</v>
       </c>
       <c r="F135" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="G135" s="29"/>
-    </row>
-    <row r="136" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A136" s="8">
         <v>20</v>
       </c>
@@ -5312,11 +5226,10 @@
         <v>21</v>
       </c>
       <c r="F136" s="11" t="s">
-        <v>573</v>
-      </c>
-      <c r="G136" s="29"/>
-    </row>
-    <row r="137" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A137" s="8">
         <v>21</v>
       </c>
@@ -5333,11 +5246,10 @@
         <v>22</v>
       </c>
       <c r="F137" s="11" t="s">
-        <v>574</v>
-      </c>
-      <c r="G137" s="29"/>
-    </row>
-    <row r="138" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A138" s="8">
         <v>22</v>
       </c>
@@ -5354,11 +5266,10 @@
         <v>23</v>
       </c>
       <c r="F138" s="11" t="s">
-        <v>575</v>
-      </c>
-      <c r="G138" s="29"/>
-    </row>
-    <row r="139" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A139" s="8">
         <v>23</v>
       </c>
@@ -5375,11 +5286,10 @@
         <v>24</v>
       </c>
       <c r="F139" s="11" t="s">
-        <v>576</v>
-      </c>
-      <c r="G139" s="29"/>
-    </row>
-    <row r="140" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A140" s="8">
         <v>24</v>
       </c>
@@ -5396,11 +5306,10 @@
         <v>25</v>
       </c>
       <c r="F140" s="11" t="s">
-        <v>577</v>
-      </c>
-      <c r="G140" s="29"/>
-    </row>
-    <row r="141" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A141" s="8">
         <v>25</v>
       </c>
@@ -5417,11 +5326,10 @@
         <v>26</v>
       </c>
       <c r="F141" s="11" t="s">
-        <v>579</v>
-      </c>
-      <c r="G141" s="29"/>
-    </row>
-    <row r="142" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A142" s="8">
         <v>26</v>
       </c>
@@ -5438,11 +5346,10 @@
         <v>27</v>
       </c>
       <c r="F142" s="11" t="s">
-        <v>586</v>
-      </c>
-      <c r="G142" s="29"/>
-    </row>
-    <row r="143" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A143" s="8">
         <v>27</v>
       </c>
@@ -5459,11 +5366,10 @@
         <v>28</v>
       </c>
       <c r="F143" s="11" t="s">
-        <v>578</v>
-      </c>
-      <c r="G143" s="29"/>
-    </row>
-    <row r="144" spans="1:7" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A144" s="8">
         <v>28</v>
       </c>
@@ -5480,11 +5386,10 @@
         <v>29</v>
       </c>
       <c r="F144" s="11" t="s">
-        <v>570</v>
-      </c>
-      <c r="G144" s="29"/>
-    </row>
-    <row r="145" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A145" s="8">
         <v>29</v>
       </c>
@@ -5501,11 +5406,10 @@
         <v>30</v>
       </c>
       <c r="F145" s="11" t="s">
-        <v>572</v>
-      </c>
-      <c r="G145" s="29"/>
-    </row>
-    <row r="146" spans="1:7" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A146" s="8">
         <v>30</v>
       </c>
@@ -5522,11 +5426,10 @@
         <v>31</v>
       </c>
       <c r="F146" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="G146" s="29"/>
-    </row>
-    <row r="147" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A147" s="8">
         <v>31</v>
       </c>
@@ -5543,11 +5446,10 @@
         <v>32</v>
       </c>
       <c r="F147" s="11" t="s">
-        <v>586</v>
-      </c>
-      <c r="G147" s="29"/>
-    </row>
-    <row r="148" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A148" s="8">
         <v>32</v>
       </c>
@@ -5564,11 +5466,10 @@
         <v>33</v>
       </c>
       <c r="F148" s="11" t="s">
-        <v>586</v>
-      </c>
-      <c r="G148" s="29"/>
-    </row>
-    <row r="149" spans="1:7" s="12" customFormat="1" ht="56" x14ac:dyDescent="0.15">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" s="12" customFormat="1" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A149" s="8">
         <v>33</v>
       </c>
@@ -5585,11 +5486,10 @@
         <v>34</v>
       </c>
       <c r="F149" s="11" t="s">
-        <v>586</v>
-      </c>
-      <c r="G149" s="29"/>
-    </row>
-    <row r="150" spans="1:7" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A150" s="8">
         <v>34</v>
       </c>
@@ -5606,11 +5506,10 @@
         <v>35</v>
       </c>
       <c r="F150" s="11" t="s">
-        <v>586</v>
-      </c>
-      <c r="G150" s="29"/>
-    </row>
-    <row r="151" spans="1:7" s="12" customFormat="1" ht="42" x14ac:dyDescent="0.15">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" s="12" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A151" s="8">
         <v>35</v>
       </c>
@@ -5627,11 +5526,10 @@
         <v>36</v>
       </c>
       <c r="F151" s="11" t="s">
-        <v>579</v>
-      </c>
-      <c r="G151" s="29"/>
-    </row>
-    <row r="152" spans="1:7" s="12" customFormat="1" ht="56" x14ac:dyDescent="0.15">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" s="12" customFormat="1" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A152" s="8">
         <v>36</v>
       </c>
@@ -5648,11 +5546,10 @@
         <v>37</v>
       </c>
       <c r="F152" s="11" t="s">
-        <v>580</v>
-      </c>
-      <c r="G152" s="29"/>
-    </row>
-    <row r="153" spans="1:7" s="12" customFormat="1" ht="42" x14ac:dyDescent="0.15">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" s="12" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A153" s="8">
         <v>37</v>
       </c>
@@ -5669,11 +5566,10 @@
         <v>38</v>
       </c>
       <c r="F153" s="11" t="s">
-        <v>583</v>
-      </c>
-      <c r="G153" s="29"/>
-    </row>
-    <row r="154" spans="1:7" s="12" customFormat="1" ht="42" x14ac:dyDescent="0.15">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" s="12" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A154" s="8">
         <v>38</v>
       </c>
@@ -5690,11 +5586,10 @@
         <v>39</v>
       </c>
       <c r="F154" s="11" t="s">
-        <v>583</v>
-      </c>
-      <c r="G154" s="29"/>
-    </row>
-    <row r="155" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A155" s="8">
         <v>39</v>
       </c>
@@ -5711,11 +5606,10 @@
         <v>40</v>
       </c>
       <c r="F155" s="11" t="s">
-        <v>569</v>
-      </c>
-      <c r="G155" s="29"/>
-    </row>
-    <row r="156" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A156" s="8">
         <v>40</v>
       </c>
@@ -5732,11 +5626,10 @@
         <v>41</v>
       </c>
       <c r="F156" s="11" t="s">
-        <v>583</v>
-      </c>
-      <c r="G156" s="29"/>
-    </row>
-    <row r="157" spans="1:7" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A157" s="8">
         <v>41</v>
       </c>
@@ -5753,11 +5646,10 @@
         <v>42</v>
       </c>
       <c r="F157" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="G157" s="29"/>
-    </row>
-    <row r="158" spans="1:7" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A158" s="8">
         <v>42</v>
       </c>
@@ -5774,11 +5666,10 @@
         <v>43</v>
       </c>
       <c r="F158" s="11" t="s">
-        <v>583</v>
-      </c>
-      <c r="G158" s="29"/>
-    </row>
-    <row r="159" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A159" s="8">
         <v>43</v>
       </c>
@@ -5795,11 +5686,10 @@
         <v>44</v>
       </c>
       <c r="F159" s="11" t="s">
-        <v>579</v>
-      </c>
-      <c r="G159" s="29"/>
-    </row>
-    <row r="160" spans="1:7" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A160" s="8">
         <v>44</v>
       </c>
@@ -5816,11 +5706,10 @@
         <v>45</v>
       </c>
       <c r="F160" s="11" t="s">
-        <v>581</v>
-      </c>
-      <c r="G160" s="29"/>
-    </row>
-    <row r="161" spans="1:10" ht="28" x14ac:dyDescent="0.15">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A161" s="8">
         <v>45</v>
       </c>
@@ -5837,12 +5726,11 @@
         <v>46</v>
       </c>
       <c r="F161" s="11" t="s">
-        <v>578</v>
-      </c>
-      <c r="G161" s="29"/>
+        <v>575</v>
+      </c>
       <c r="J161" s="12"/>
     </row>
-    <row r="162" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:10" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A162" s="8">
         <v>46</v>
       </c>
@@ -5859,12 +5747,11 @@
         <v>47</v>
       </c>
       <c r="F162" s="11" t="s">
-        <v>572</v>
-      </c>
-      <c r="G162" s="29"/>
+        <v>569</v>
+      </c>
       <c r="J162" s="12"/>
     </row>
-    <row r="163" spans="1:10" ht="42" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:10" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A163" s="8">
         <v>357</v>
       </c>
@@ -5881,12 +5768,11 @@
         <v>401</v>
       </c>
       <c r="F163" s="11" t="s">
-        <v>571</v>
-      </c>
-      <c r="G163" s="29"/>
+        <v>568</v>
+      </c>
       <c r="J163" s="12"/>
     </row>
-    <row r="164" spans="1:10" ht="28" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:10" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A164" s="8">
         <v>358</v>
       </c>
@@ -5903,12 +5789,11 @@
         <v>402</v>
       </c>
       <c r="F164" s="11" t="s">
-        <v>586</v>
-      </c>
-      <c r="G164" s="29"/>
+        <v>583</v>
+      </c>
       <c r="J164" s="12"/>
     </row>
-    <row r="165" spans="1:10" ht="28" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:10" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A165" s="8">
         <v>359</v>
       </c>
@@ -5925,12 +5810,11 @@
         <v>403</v>
       </c>
       <c r="F165" s="11" t="s">
-        <v>586</v>
-      </c>
-      <c r="G165" s="29"/>
+        <v>583</v>
+      </c>
       <c r="J165" s="12"/>
     </row>
-    <row r="166" spans="1:10" ht="28" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:10" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A166" s="8">
         <v>360</v>
       </c>
@@ -5947,12 +5831,11 @@
         <v>404</v>
       </c>
       <c r="F166" s="11" t="s">
-        <v>586</v>
-      </c>
-      <c r="G166" s="29"/>
+        <v>583</v>
+      </c>
       <c r="J166" s="12"/>
     </row>
-    <row r="167" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:10" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A167" s="8">
         <v>361</v>
       </c>
@@ -5969,12 +5852,11 @@
         <v>405</v>
       </c>
       <c r="F167" s="11" t="s">
-        <v>586</v>
-      </c>
-      <c r="G167" s="29"/>
+        <v>583</v>
+      </c>
       <c r="J167" s="12"/>
     </row>
-    <row r="168" spans="1:10" ht="42" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:10" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A168" s="8">
         <v>362</v>
       </c>
@@ -5991,12 +5873,11 @@
         <v>406</v>
       </c>
       <c r="F168" s="11" t="s">
-        <v>586</v>
-      </c>
-      <c r="G168" s="29"/>
+        <v>583</v>
+      </c>
       <c r="J168" s="12"/>
     </row>
-    <row r="169" spans="1:10" ht="28" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:10" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A169" s="8">
         <v>363</v>
       </c>
@@ -6013,12 +5894,11 @@
         <v>407</v>
       </c>
       <c r="F169" s="11" t="s">
-        <v>586</v>
-      </c>
-      <c r="G169" s="29"/>
+        <v>583</v>
+      </c>
       <c r="J169" s="12"/>
     </row>
-    <row r="170" spans="1:10" ht="56" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:10" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A170" s="8">
         <v>364</v>
       </c>
@@ -6035,12 +5915,11 @@
         <v>408</v>
       </c>
       <c r="F170" s="11" t="s">
-        <v>586</v>
-      </c>
-      <c r="G170" s="29"/>
+        <v>583</v>
+      </c>
       <c r="J170" s="12"/>
     </row>
-    <row r="171" spans="1:10" ht="28" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:10" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A171" s="8">
         <v>365</v>
       </c>
@@ -6057,12 +5936,12 @@
         <v>409</v>
       </c>
       <c r="F171" s="11" t="s">
-        <v>586</v>
-      </c>
-      <c r="G171" s="28"/>
+        <v>583</v>
+      </c>
+      <c r="G171" s="25"/>
       <c r="J171" s="12"/>
     </row>
-    <row r="172" spans="1:10" ht="28" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:10" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A172" s="8">
         <v>366</v>
       </c>
@@ -6079,12 +5958,12 @@
         <v>410</v>
       </c>
       <c r="F172" s="11" t="s">
-        <v>586</v>
-      </c>
-      <c r="G172" s="28"/>
+        <v>583</v>
+      </c>
+      <c r="G172" s="25"/>
       <c r="J172" s="12"/>
     </row>
-    <row r="173" spans="1:10" ht="42" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:10" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A173" s="8">
         <v>367</v>
       </c>
@@ -6101,12 +5980,12 @@
         <v>411</v>
       </c>
       <c r="F173" s="11" t="s">
-        <v>586</v>
-      </c>
-      <c r="G173" s="28"/>
+        <v>583</v>
+      </c>
+      <c r="G173" s="25"/>
       <c r="J173" s="12"/>
     </row>
-    <row r="174" spans="1:10" ht="28" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:10" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A174" s="8">
         <v>368</v>
       </c>
@@ -6123,12 +6002,12 @@
         <v>412</v>
       </c>
       <c r="F174" s="11" t="s">
-        <v>586</v>
-      </c>
-      <c r="G174" s="28"/>
+        <v>583</v>
+      </c>
+      <c r="G174" s="25"/>
       <c r="J174" s="12"/>
     </row>
-    <row r="175" spans="1:10" ht="28" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:10" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A175" s="8">
         <v>369</v>
       </c>
@@ -6145,11 +6024,11 @@
         <v>414</v>
       </c>
       <c r="F175" s="11" t="s">
-        <v>586</v>
-      </c>
-      <c r="G175" s="28"/>
-    </row>
-    <row r="176" spans="1:10" ht="56" x14ac:dyDescent="0.15">
+        <v>583</v>
+      </c>
+      <c r="G175" s="25"/>
+    </row>
+    <row r="176" spans="1:10" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A176" s="8">
         <v>370</v>
       </c>
@@ -6166,11 +6045,11 @@
         <v>415</v>
       </c>
       <c r="F176" s="11" t="s">
-        <v>586</v>
-      </c>
-      <c r="G176" s="28"/>
-    </row>
-    <row r="177" spans="1:10" ht="28" x14ac:dyDescent="0.15">
+        <v>583</v>
+      </c>
+      <c r="G176" s="25"/>
+    </row>
+    <row r="177" spans="1:10" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A177" s="8">
         <v>371</v>
       </c>
@@ -6187,12 +6066,12 @@
         <v>416</v>
       </c>
       <c r="F177" s="11" t="s">
-        <v>586</v>
-      </c>
-      <c r="G177" s="28"/>
+        <v>583</v>
+      </c>
+      <c r="G177" s="25"/>
       <c r="J177" s="12"/>
     </row>
-    <row r="178" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:10" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A178" s="8">
         <v>372</v>
       </c>
@@ -6209,12 +6088,12 @@
         <v>418</v>
       </c>
       <c r="F178" s="11" t="s">
-        <v>587</v>
-      </c>
-      <c r="G178" s="28"/>
+        <v>584</v>
+      </c>
+      <c r="G178" s="25"/>
       <c r="J178" s="12"/>
     </row>
-    <row r="179" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:10" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A179" s="8">
         <v>373</v>
       </c>
@@ -6231,11 +6110,11 @@
         <v>419</v>
       </c>
       <c r="F179" s="11" t="s">
-        <v>587</v>
-      </c>
-      <c r="G179" s="28"/>
-    </row>
-    <row r="180" spans="1:10" ht="28" x14ac:dyDescent="0.15">
+        <v>584</v>
+      </c>
+      <c r="G179" s="25"/>
+    </row>
+    <row r="180" spans="1:10" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A180" s="8">
         <v>374</v>
       </c>
@@ -6252,11 +6131,11 @@
         <v>420</v>
       </c>
       <c r="F180" s="11" t="s">
-        <v>586</v>
-      </c>
-      <c r="G180" s="28"/>
-    </row>
-    <row r="181" spans="1:10" ht="42" x14ac:dyDescent="0.15">
+        <v>583</v>
+      </c>
+      <c r="G180" s="25"/>
+    </row>
+    <row r="181" spans="1:10" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A181" s="8">
         <v>375</v>
       </c>
@@ -6273,14 +6152,14 @@
         <v>421</v>
       </c>
       <c r="F181" s="11" t="s">
-        <v>586</v>
-      </c>
-      <c r="G181" s="28"/>
-      <c r="J181" s="20" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="182" spans="1:10" ht="28" x14ac:dyDescent="0.15">
+        <v>583</v>
+      </c>
+      <c r="G181" s="25"/>
+      <c r="J181" s="19" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A182" s="8">
         <v>376</v>
       </c>
@@ -6297,12 +6176,12 @@
         <v>422</v>
       </c>
       <c r="F182" s="11" t="s">
-        <v>586</v>
-      </c>
-      <c r="G182" s="28"/>
+        <v>583</v>
+      </c>
+      <c r="G182" s="25"/>
       <c r="J182" s="12"/>
     </row>
-    <row r="183" spans="1:10" ht="56" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:10" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A183" s="8">
         <v>377</v>
       </c>
@@ -6319,14 +6198,14 @@
         <v>424</v>
       </c>
       <c r="F183" s="11" t="s">
-        <v>586</v>
-      </c>
-      <c r="G183" s="28"/>
-      <c r="J183" s="20" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="184" spans="1:10" ht="28" x14ac:dyDescent="0.15">
+        <v>583</v>
+      </c>
+      <c r="G183" s="25"/>
+      <c r="J183" s="19" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A184" s="8">
         <v>378</v>
       </c>
@@ -6343,14 +6222,14 @@
         <v>425</v>
       </c>
       <c r="F184" s="11" t="s">
-        <v>586</v>
-      </c>
-      <c r="G184" s="28"/>
-      <c r="J184" s="20" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="185" spans="1:10" ht="28" x14ac:dyDescent="0.15">
+        <v>583</v>
+      </c>
+      <c r="G184" s="25"/>
+      <c r="J184" s="19" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A185" s="8">
         <v>379</v>
       </c>
@@ -6367,12 +6246,12 @@
         <v>426</v>
       </c>
       <c r="F185" s="11" t="s">
-        <v>586</v>
-      </c>
-      <c r="G185" s="28"/>
+        <v>583</v>
+      </c>
+      <c r="G185" s="25"/>
       <c r="J185" s="12"/>
     </row>
-    <row r="186" spans="1:10" ht="28" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:10" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A186" s="8">
         <v>380</v>
       </c>
@@ -6389,12 +6268,12 @@
         <v>427</v>
       </c>
       <c r="F186" s="11" t="s">
-        <v>586</v>
-      </c>
-      <c r="G186" s="28"/>
+        <v>583</v>
+      </c>
+      <c r="G186" s="25"/>
       <c r="J186" s="12"/>
     </row>
-    <row r="187" spans="1:10" ht="28" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:10" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A187" s="8">
         <v>381</v>
       </c>
@@ -6411,12 +6290,12 @@
         <v>428</v>
       </c>
       <c r="F187" s="11" t="s">
-        <v>586</v>
-      </c>
-      <c r="G187" s="28"/>
+        <v>583</v>
+      </c>
+      <c r="G187" s="25"/>
       <c r="J187" s="12"/>
     </row>
-    <row r="188" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:10" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A188" s="8">
         <v>382</v>
       </c>
@@ -6433,12 +6312,12 @@
         <v>429</v>
       </c>
       <c r="F188" s="11" t="s">
-        <v>586</v>
-      </c>
-      <c r="G188" s="28"/>
+        <v>583</v>
+      </c>
+      <c r="G188" s="25"/>
       <c r="J188" s="12"/>
     </row>
-    <row r="189" spans="1:10" ht="28" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:10" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A189" s="8">
         <v>383</v>
       </c>
@@ -6451,16 +6330,16 @@
       <c r="D189" s="9" t="s">
         <v>423</v>
       </c>
-      <c r="E189" s="19" t="s">
+      <c r="E189" s="18" t="s">
         <v>430</v>
       </c>
       <c r="F189" s="11" t="s">
-        <v>586</v>
-      </c>
-      <c r="G189" s="28"/>
+        <v>583</v>
+      </c>
+      <c r="G189" s="25"/>
       <c r="J189" s="12"/>
     </row>
-    <row r="190" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:10" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A190" s="8">
         <v>384</v>
       </c>
@@ -6477,12 +6356,12 @@
         <v>431</v>
       </c>
       <c r="F190" s="11" t="s">
-        <v>586</v>
-      </c>
-      <c r="G190" s="28"/>
+        <v>583</v>
+      </c>
+      <c r="G190" s="25"/>
       <c r="J190" s="12"/>
     </row>
-    <row r="191" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:10" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A191" s="8">
         <v>385</v>
       </c>
@@ -6499,12 +6378,12 @@
         <v>432</v>
       </c>
       <c r="F191" s="11" t="s">
-        <v>586</v>
-      </c>
-      <c r="G191" s="28"/>
+        <v>583</v>
+      </c>
+      <c r="G191" s="25"/>
       <c r="J191" s="12"/>
     </row>
-    <row r="192" spans="1:10" ht="28" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:10" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A192" s="8">
         <v>386</v>
       </c>
@@ -6521,12 +6400,12 @@
         <v>434</v>
       </c>
       <c r="F192" s="11" t="s">
-        <v>586</v>
-      </c>
-      <c r="G192" s="28"/>
+        <v>583</v>
+      </c>
+      <c r="G192" s="25"/>
       <c r="J192" s="12"/>
     </row>
-    <row r="193" spans="1:7" s="12" customFormat="1" ht="42" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:7" s="12" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A193" s="8">
         <v>387</v>
       </c>
@@ -6543,11 +6422,11 @@
         <v>435</v>
       </c>
       <c r="F193" s="11" t="s">
-        <v>586</v>
-      </c>
-      <c r="G193" s="28"/>
-    </row>
-    <row r="194" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+        <v>583</v>
+      </c>
+      <c r="G193" s="25"/>
+    </row>
+    <row r="194" spans="1:7" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A194" s="8">
         <v>388</v>
       </c>
@@ -6564,11 +6443,11 @@
         <v>436</v>
       </c>
       <c r="F194" s="11" t="s">
-        <v>586</v>
-      </c>
-      <c r="G194" s="28"/>
-    </row>
-    <row r="195" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+        <v>583</v>
+      </c>
+      <c r="G194" s="25"/>
+    </row>
+    <row r="195" spans="1:7" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A195" s="8">
         <v>389</v>
       </c>
@@ -6585,11 +6464,11 @@
         <v>437</v>
       </c>
       <c r="F195" s="11" t="s">
-        <v>586</v>
-      </c>
-      <c r="G195" s="28"/>
-    </row>
-    <row r="196" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+        <v>583</v>
+      </c>
+      <c r="G195" s="25"/>
+    </row>
+    <row r="196" spans="1:7" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A196" s="8">
         <v>390</v>
       </c>
@@ -6606,11 +6485,11 @@
         <v>438</v>
       </c>
       <c r="F196" s="11" t="s">
-        <v>586</v>
-      </c>
-      <c r="G196" s="28"/>
-    </row>
-    <row r="197" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+        <v>583</v>
+      </c>
+      <c r="G196" s="25"/>
+    </row>
+    <row r="197" spans="1:7" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A197" s="8">
         <v>391</v>
       </c>
@@ -6627,11 +6506,11 @@
         <v>439</v>
       </c>
       <c r="F197" s="11" t="s">
-        <v>586</v>
-      </c>
-      <c r="G197" s="28"/>
-    </row>
-    <row r="198" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+        <v>583</v>
+      </c>
+      <c r="G197" s="25"/>
+    </row>
+    <row r="198" spans="1:7" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A198" s="8">
         <v>392</v>
       </c>
@@ -6648,11 +6527,11 @@
         <v>440</v>
       </c>
       <c r="F198" s="11" t="s">
-        <v>586</v>
-      </c>
-      <c r="G198" s="28"/>
-    </row>
-    <row r="199" spans="1:7" s="12" customFormat="1" ht="42" x14ac:dyDescent="0.15">
+        <v>583</v>
+      </c>
+      <c r="G198" s="25"/>
+    </row>
+    <row r="199" spans="1:7" s="12" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A199" s="8">
         <v>393</v>
       </c>
@@ -6669,11 +6548,11 @@
         <v>441</v>
       </c>
       <c r="F199" s="11" t="s">
-        <v>586</v>
-      </c>
-      <c r="G199" s="28"/>
-    </row>
-    <row r="200" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+        <v>583</v>
+      </c>
+      <c r="G199" s="25"/>
+    </row>
+    <row r="200" spans="1:7" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A200" s="8">
         <v>394</v>
       </c>
@@ -6690,11 +6569,11 @@
         <v>442</v>
       </c>
       <c r="F200" s="11" t="s">
-        <v>588</v>
-      </c>
-      <c r="G200" s="28"/>
-    </row>
-    <row r="201" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+        <v>585</v>
+      </c>
+      <c r="G200" s="25"/>
+    </row>
+    <row r="201" spans="1:7" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A201" s="8">
         <v>395</v>
       </c>
@@ -6711,11 +6590,11 @@
         <v>443</v>
       </c>
       <c r="F201" s="11" t="s">
-        <v>586</v>
-      </c>
-      <c r="G201" s="28"/>
-    </row>
-    <row r="202" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+        <v>583</v>
+      </c>
+      <c r="G201" s="25"/>
+    </row>
+    <row r="202" spans="1:7" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A202" s="8">
         <v>396</v>
       </c>
@@ -6732,11 +6611,11 @@
         <v>444</v>
       </c>
       <c r="F202" s="11" t="s">
-        <v>573</v>
-      </c>
-      <c r="G202" s="28"/>
-    </row>
-    <row r="203" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+        <v>570</v>
+      </c>
+      <c r="G202" s="25"/>
+    </row>
+    <row r="203" spans="1:7" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A203" s="8">
         <v>397</v>
       </c>
@@ -6753,11 +6632,11 @@
         <v>445</v>
       </c>
       <c r="F203" s="11" t="s">
-        <v>586</v>
-      </c>
-      <c r="G203" s="28"/>
-    </row>
-    <row r="204" spans="1:7" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+        <v>583</v>
+      </c>
+      <c r="G203" s="25"/>
+    </row>
+    <row r="204" spans="1:7" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A204" s="8">
         <v>398</v>
       </c>
@@ -6774,11 +6653,11 @@
         <v>446</v>
       </c>
       <c r="F204" s="11" t="s">
-        <v>586</v>
-      </c>
-      <c r="G204" s="28"/>
-    </row>
-    <row r="205" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+        <v>583</v>
+      </c>
+      <c r="G204" s="25"/>
+    </row>
+    <row r="205" spans="1:7" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A205" s="8">
         <v>399</v>
       </c>
@@ -6795,11 +6674,11 @@
         <v>447</v>
       </c>
       <c r="F205" s="11" t="s">
-        <v>586</v>
-      </c>
-      <c r="G205" s="28"/>
-    </row>
-    <row r="206" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+        <v>583</v>
+      </c>
+      <c r="G205" s="25"/>
+    </row>
+    <row r="206" spans="1:7" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A206" s="8">
         <v>400</v>
       </c>
@@ -6816,11 +6695,11 @@
         <v>448</v>
       </c>
       <c r="F206" s="11" t="s">
-        <v>586</v>
-      </c>
-      <c r="G206" s="28"/>
-    </row>
-    <row r="207" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+        <v>583</v>
+      </c>
+      <c r="G206" s="25"/>
+    </row>
+    <row r="207" spans="1:7" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A207" s="8">
         <v>401</v>
       </c>
@@ -6837,11 +6716,11 @@
         <v>449</v>
       </c>
       <c r="F207" s="11" t="s">
-        <v>586</v>
-      </c>
-      <c r="G207" s="28"/>
-    </row>
-    <row r="208" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+        <v>583</v>
+      </c>
+      <c r="G207" s="25"/>
+    </row>
+    <row r="208" spans="1:7" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A208" s="8">
         <v>402</v>
       </c>
@@ -6858,11 +6737,11 @@
         <v>450</v>
       </c>
       <c r="F208" s="11" t="s">
-        <v>586</v>
-      </c>
-      <c r="G208" s="28"/>
-    </row>
-    <row r="209" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+        <v>583</v>
+      </c>
+      <c r="G208" s="25"/>
+    </row>
+    <row r="209" spans="1:7" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A209" s="8">
         <v>285</v>
       </c>
@@ -6875,15 +6754,15 @@
       <c r="D209" s="9" t="s">
         <v>319</v>
       </c>
-      <c r="E209" s="19" t="s">
+      <c r="E209" s="18" t="s">
         <v>320</v>
       </c>
       <c r="F209" s="11" t="s">
-        <v>573</v>
-      </c>
-      <c r="G209" s="28"/>
-    </row>
-    <row r="210" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+        <v>570</v>
+      </c>
+      <c r="G209" s="25"/>
+    </row>
+    <row r="210" spans="1:7" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A210" s="8">
         <v>286</v>
       </c>
@@ -6896,15 +6775,14 @@
       <c r="D210" s="9" t="s">
         <v>319</v>
       </c>
-      <c r="E210" s="19" t="s">
+      <c r="E210" s="18" t="s">
         <v>321</v>
       </c>
       <c r="F210" s="11" t="s">
-        <v>573</v>
-      </c>
-      <c r="G210" s="29"/>
-    </row>
-    <row r="211" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A211" s="8">
         <v>287</v>
       </c>
@@ -6921,11 +6799,10 @@
         <v>322</v>
       </c>
       <c r="F211" s="11" t="s">
-        <v>573</v>
-      </c>
-      <c r="G211" s="29"/>
-    </row>
-    <row r="212" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A212" s="8">
         <v>288</v>
       </c>
@@ -6942,11 +6819,10 @@
         <v>323</v>
       </c>
       <c r="F212" s="11" t="s">
-        <v>573</v>
-      </c>
-      <c r="G212" s="29"/>
-    </row>
-    <row r="213" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A213" s="8">
         <v>289</v>
       </c>
@@ -6963,11 +6839,10 @@
         <v>324</v>
       </c>
       <c r="F213" s="11" t="s">
-        <v>573</v>
-      </c>
-      <c r="G213" s="29"/>
-    </row>
-    <row r="214" spans="1:7" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A214" s="8">
         <v>290</v>
       </c>
@@ -6984,11 +6859,10 @@
         <v>325</v>
       </c>
       <c r="F214" s="11" t="s">
-        <v>573</v>
-      </c>
-      <c r="G214" s="29"/>
-    </row>
-    <row r="215" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A215" s="8">
         <v>291</v>
       </c>
@@ -7005,11 +6879,10 @@
         <v>326</v>
       </c>
       <c r="F215" s="11" t="s">
-        <v>573</v>
-      </c>
-      <c r="G215" s="29"/>
-    </row>
-    <row r="216" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A216" s="8">
         <v>292</v>
       </c>
@@ -7026,11 +6899,10 @@
         <v>327</v>
       </c>
       <c r="F216" s="11" t="s">
-        <v>573</v>
-      </c>
-      <c r="G216" s="29"/>
-    </row>
-    <row r="217" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A217" s="8">
         <v>293</v>
       </c>
@@ -7047,9 +6919,8 @@
         <v>329</v>
       </c>
       <c r="F217" s="11"/>
-      <c r="G217" s="29"/>
-    </row>
-    <row r="218" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    </row>
+    <row r="218" spans="1:7" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A218" s="8">
         <v>295</v>
       </c>
@@ -7063,14 +6934,13 @@
         <v>328</v>
       </c>
       <c r="E218" s="9" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="F218" s="11" t="s">
-        <v>586</v>
-      </c>
-      <c r="G218" s="29"/>
-    </row>
-    <row r="219" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A219" s="8">
         <v>296</v>
       </c>
@@ -7087,11 +6957,10 @@
         <v>330</v>
       </c>
       <c r="F219" s="11" t="s">
-        <v>586</v>
-      </c>
-      <c r="G219" s="29"/>
-    </row>
-    <row r="220" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A220" s="8">
         <v>297</v>
       </c>
@@ -7108,11 +6977,10 @@
         <v>331</v>
       </c>
       <c r="F220" s="11" t="s">
-        <v>572</v>
-      </c>
-      <c r="G220" s="29"/>
-    </row>
-    <row r="221" spans="1:7" s="12" customFormat="1" ht="56" x14ac:dyDescent="0.15">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" s="12" customFormat="1" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A221" s="8">
         <v>298</v>
       </c>
@@ -7129,11 +6997,10 @@
         <v>332</v>
       </c>
       <c r="F221" s="11" t="s">
-        <v>572</v>
-      </c>
-      <c r="G221" s="29"/>
-    </row>
-    <row r="222" spans="1:7" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A222" s="8">
         <v>299</v>
       </c>
@@ -7150,11 +7017,10 @@
         <v>334</v>
       </c>
       <c r="F222" s="11" t="s">
-        <v>586</v>
-      </c>
-      <c r="G222" s="29"/>
-    </row>
-    <row r="223" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A223" s="8">
         <v>300</v>
       </c>
@@ -7171,11 +7037,10 @@
         <v>335</v>
       </c>
       <c r="F223" s="11" t="s">
-        <v>586</v>
-      </c>
-      <c r="G223" s="29"/>
-    </row>
-    <row r="224" spans="1:7" s="12" customFormat="1" ht="42" x14ac:dyDescent="0.15">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" s="12" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A224" s="8">
         <v>301</v>
       </c>
@@ -7192,11 +7057,10 @@
         <v>336</v>
       </c>
       <c r="F224" s="11" t="s">
-        <v>586</v>
-      </c>
-      <c r="G224" s="29"/>
-    </row>
-    <row r="225" spans="1:7" s="12" customFormat="1" ht="56" x14ac:dyDescent="0.15">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" s="12" customFormat="1" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A225" s="8">
         <v>302</v>
       </c>
@@ -7213,11 +7077,10 @@
         <v>343</v>
       </c>
       <c r="F225" s="9" t="s">
-        <v>585</v>
-      </c>
-      <c r="G225" s="29"/>
-    </row>
-    <row r="226" spans="1:7" s="12" customFormat="1" ht="42" x14ac:dyDescent="0.15">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" s="12" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A226" s="8">
         <v>303</v>
       </c>
@@ -7234,11 +7097,10 @@
         <v>337</v>
       </c>
       <c r="F226" s="11" t="s">
-        <v>584</v>
-      </c>
-      <c r="G226" s="29"/>
-    </row>
-    <row r="227" spans="1:7" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A227" s="8">
         <v>304</v>
       </c>
@@ -7255,11 +7117,10 @@
         <v>338</v>
       </c>
       <c r="F227" s="11" t="s">
-        <v>586</v>
-      </c>
-      <c r="G227" s="29"/>
-    </row>
-    <row r="228" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A228" s="8">
         <v>305</v>
       </c>
@@ -7276,11 +7137,10 @@
         <v>339</v>
       </c>
       <c r="F228" s="11" t="s">
-        <v>586</v>
-      </c>
-      <c r="G228" s="29"/>
-    </row>
-    <row r="229" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A229" s="8">
         <v>306</v>
       </c>
@@ -7297,11 +7157,10 @@
         <v>342</v>
       </c>
       <c r="F229" s="11" t="s">
-        <v>586</v>
-      </c>
-      <c r="G229" s="29"/>
-    </row>
-    <row r="230" spans="1:7" s="12" customFormat="1" ht="42" x14ac:dyDescent="0.15">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" s="12" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A230" s="8">
         <v>307</v>
       </c>
@@ -7318,11 +7177,10 @@
         <v>340</v>
       </c>
       <c r="F230" s="11" t="s">
-        <v>586</v>
-      </c>
-      <c r="G230" s="29"/>
-    </row>
-    <row r="231" spans="1:7" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A231" s="8">
         <v>308</v>
       </c>
@@ -7339,11 +7197,10 @@
         <v>341</v>
       </c>
       <c r="F231" s="11" t="s">
-        <v>573</v>
-      </c>
-      <c r="G231" s="29"/>
-    </row>
-    <row r="232" spans="1:7" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A232" s="8">
         <v>309</v>
       </c>
@@ -7360,11 +7217,10 @@
         <v>344</v>
       </c>
       <c r="F232" s="11" t="s">
-        <v>586</v>
-      </c>
-      <c r="G232" s="29"/>
-    </row>
-    <row r="233" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A233" s="8">
         <v>310</v>
       </c>
@@ -7381,11 +7237,10 @@
         <v>345</v>
       </c>
       <c r="F233" s="11" t="s">
-        <v>586</v>
-      </c>
-      <c r="G233" s="29"/>
-    </row>
-    <row r="234" spans="1:7" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A234" s="8">
         <v>311</v>
       </c>
@@ -7402,11 +7257,10 @@
         <v>346</v>
       </c>
       <c r="F234" s="11" t="s">
-        <v>586</v>
-      </c>
-      <c r="G234" s="29"/>
-    </row>
-    <row r="235" spans="1:7" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A235" s="8">
         <v>312</v>
       </c>
@@ -7423,11 +7277,10 @@
         <v>347</v>
       </c>
       <c r="F235" s="11" t="s">
-        <v>586</v>
-      </c>
-      <c r="G235" s="29"/>
-    </row>
-    <row r="236" spans="1:7" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A236" s="8">
         <v>313</v>
       </c>
@@ -7444,11 +7297,10 @@
         <v>348</v>
       </c>
       <c r="F236" s="11" t="s">
-        <v>586</v>
-      </c>
-      <c r="G236" s="29"/>
-    </row>
-    <row r="237" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A237" s="8">
         <v>314</v>
       </c>
@@ -7465,11 +7317,10 @@
         <v>350</v>
       </c>
       <c r="F237" s="11" t="s">
-        <v>586</v>
-      </c>
-      <c r="G237" s="29"/>
-    </row>
-    <row r="238" spans="1:7" s="12" customFormat="1" ht="84" x14ac:dyDescent="0.15">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" s="12" customFormat="1" ht="84" hidden="1" x14ac:dyDescent="0.15">
       <c r="A238" s="8">
         <v>315</v>
       </c>
@@ -7486,11 +7337,10 @@
         <v>351</v>
       </c>
       <c r="F238" s="11" t="s">
-        <v>573</v>
-      </c>
-      <c r="G238" s="29"/>
-    </row>
-    <row r="239" spans="1:7" s="12" customFormat="1" ht="42" x14ac:dyDescent="0.15">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" s="12" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A239" s="8">
         <v>316</v>
       </c>
@@ -7507,11 +7357,10 @@
         <v>352</v>
       </c>
       <c r="F239" s="11" t="s">
-        <v>586</v>
-      </c>
-      <c r="G239" s="29"/>
-    </row>
-    <row r="240" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A240" s="8">
         <v>317</v>
       </c>
@@ -7528,11 +7377,10 @@
         <v>353</v>
       </c>
       <c r="F240" s="11" t="s">
-        <v>586</v>
-      </c>
-      <c r="G240" s="29"/>
-    </row>
-    <row r="241" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A241" s="8">
         <v>318</v>
       </c>
@@ -7549,11 +7397,10 @@
         <v>354</v>
       </c>
       <c r="F241" s="11" t="s">
-        <v>586</v>
-      </c>
-      <c r="G241" s="29"/>
-    </row>
-    <row r="242" spans="1:7" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A242" s="8">
         <v>319</v>
       </c>
@@ -7570,11 +7417,10 @@
         <v>356</v>
       </c>
       <c r="F242" s="11" t="s">
-        <v>586</v>
-      </c>
-      <c r="G242" s="29"/>
-    </row>
-    <row r="243" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A243" s="8">
         <v>320</v>
       </c>
@@ -7591,11 +7437,10 @@
         <v>357</v>
       </c>
       <c r="F243" s="11" t="s">
-        <v>586</v>
-      </c>
-      <c r="G243" s="29"/>
-    </row>
-    <row r="244" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A244" s="8">
         <v>321</v>
       </c>
@@ -7612,11 +7457,10 @@
         <v>358</v>
       </c>
       <c r="F244" s="11" t="s">
-        <v>586</v>
-      </c>
-      <c r="G244" s="29"/>
-    </row>
-    <row r="245" spans="1:7" s="12" customFormat="1" ht="42" x14ac:dyDescent="0.15">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" s="12" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A245" s="8">
         <v>322</v>
       </c>
@@ -7633,11 +7477,10 @@
         <v>359</v>
       </c>
       <c r="F245" s="11" t="s">
-        <v>586</v>
-      </c>
-      <c r="G245" s="29"/>
-    </row>
-    <row r="246" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A246" s="8">
         <v>323</v>
       </c>
@@ -7654,11 +7497,10 @@
         <v>360</v>
       </c>
       <c r="F246" s="11" t="s">
-        <v>586</v>
-      </c>
-      <c r="G246" s="29"/>
-    </row>
-    <row r="247" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A247" s="8">
         <v>324</v>
       </c>
@@ -7675,11 +7517,10 @@
         <v>361</v>
       </c>
       <c r="F247" s="11" t="s">
-        <v>586</v>
-      </c>
-      <c r="G247" s="29"/>
-    </row>
-    <row r="248" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A248" s="8">
         <v>325</v>
       </c>
@@ -7696,11 +7537,10 @@
         <v>362</v>
       </c>
       <c r="F248" s="11" t="s">
-        <v>586</v>
-      </c>
-      <c r="G248" s="29"/>
-    </row>
-    <row r="249" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A249" s="8">
         <v>326</v>
       </c>
@@ -7717,11 +7557,10 @@
         <v>363</v>
       </c>
       <c r="F249" s="11" t="s">
-        <v>586</v>
-      </c>
-      <c r="G249" s="29"/>
-    </row>
-    <row r="250" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A250" s="13">
         <v>327</v>
       </c>
@@ -7738,9 +7577,8 @@
         <v>366</v>
       </c>
       <c r="F250" s="15"/>
-      <c r="G250" s="29"/>
-    </row>
-    <row r="251" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    </row>
+    <row r="251" spans="1:6" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A251" s="13">
         <v>328</v>
       </c>
@@ -7757,9 +7595,8 @@
         <v>367</v>
       </c>
       <c r="F251" s="15"/>
-      <c r="G251" s="29"/>
-    </row>
-    <row r="252" spans="1:7" s="12" customFormat="1" ht="42" x14ac:dyDescent="0.15">
+    </row>
+    <row r="252" spans="1:6" s="12" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A252" s="13">
         <v>329</v>
       </c>
@@ -7776,9 +7613,8 @@
         <v>368</v>
       </c>
       <c r="F252" s="15"/>
-      <c r="G252" s="29"/>
-    </row>
-    <row r="253" spans="1:7" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="253" spans="1:6" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A253" s="13">
         <v>330</v>
       </c>
@@ -7795,9 +7631,8 @@
         <v>369</v>
       </c>
       <c r="F253" s="15"/>
-      <c r="G253" s="29"/>
-    </row>
-    <row r="254" spans="1:7" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="254" spans="1:6" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A254" s="13">
         <v>331</v>
       </c>
@@ -7814,9 +7649,8 @@
         <v>370</v>
       </c>
       <c r="F254" s="15"/>
-      <c r="G254" s="29"/>
-    </row>
-    <row r="255" spans="1:7" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="255" spans="1:6" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A255" s="13">
         <v>332</v>
       </c>
@@ -7833,9 +7667,8 @@
         <v>371</v>
       </c>
       <c r="F255" s="15"/>
-      <c r="G255" s="29"/>
-    </row>
-    <row r="256" spans="1:7" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="256" spans="1:6" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A256" s="13">
         <v>333</v>
       </c>
@@ -7852,9 +7685,8 @@
         <v>372</v>
       </c>
       <c r="F256" s="15"/>
-      <c r="G256" s="29"/>
-    </row>
-    <row r="257" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    </row>
+    <row r="257" spans="1:6" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A257" s="13">
         <v>334</v>
       </c>
@@ -7871,9 +7703,8 @@
         <v>373</v>
       </c>
       <c r="F257" s="15"/>
-      <c r="G257" s="29"/>
-    </row>
-    <row r="258" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    </row>
+    <row r="258" spans="1:6" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A258" s="13">
         <v>335</v>
       </c>
@@ -7890,9 +7721,8 @@
         <v>374</v>
       </c>
       <c r="F258" s="15"/>
-      <c r="G258" s="29"/>
-    </row>
-    <row r="259" spans="1:7" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="259" spans="1:6" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A259" s="13">
         <v>336</v>
       </c>
@@ -7909,9 +7739,8 @@
         <v>375</v>
       </c>
       <c r="F259" s="15"/>
-      <c r="G259" s="29"/>
-    </row>
-    <row r="260" spans="1:7" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="260" spans="1:6" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A260" s="13">
         <v>337</v>
       </c>
@@ -7928,9 +7757,8 @@
         <v>376</v>
       </c>
       <c r="F260" s="15"/>
-      <c r="G260" s="29"/>
-    </row>
-    <row r="261" spans="1:7" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="261" spans="1:6" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A261" s="13">
         <v>338</v>
       </c>
@@ -7947,9 +7775,8 @@
         <v>377</v>
       </c>
       <c r="F261" s="15"/>
-      <c r="G261" s="29"/>
-    </row>
-    <row r="262" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    </row>
+    <row r="262" spans="1:6" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A262" s="13">
         <v>339</v>
       </c>
@@ -7966,9 +7793,8 @@
         <v>380</v>
       </c>
       <c r="F262" s="15"/>
-      <c r="G262" s="29"/>
-    </row>
-    <row r="263" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    </row>
+    <row r="263" spans="1:6" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A263" s="13">
         <v>340</v>
       </c>
@@ -7985,9 +7811,8 @@
         <v>381</v>
       </c>
       <c r="F263" s="15"/>
-      <c r="G263" s="29"/>
-    </row>
-    <row r="264" spans="1:7" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="264" spans="1:6" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A264" s="13">
         <v>341</v>
       </c>
@@ -8004,9 +7829,8 @@
         <v>382</v>
       </c>
       <c r="F264" s="15"/>
-      <c r="G264" s="29"/>
-    </row>
-    <row r="265" spans="1:7" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="265" spans="1:6" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A265" s="13">
         <v>342</v>
       </c>
@@ -8023,9 +7847,8 @@
         <v>383</v>
       </c>
       <c r="F265" s="15"/>
-      <c r="G265" s="29"/>
-    </row>
-    <row r="266" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    </row>
+    <row r="266" spans="1:6" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A266" s="13">
         <v>343</v>
       </c>
@@ -8042,9 +7865,8 @@
         <v>384</v>
       </c>
       <c r="F266" s="15"/>
-      <c r="G266" s="29"/>
-    </row>
-    <row r="267" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    </row>
+    <row r="267" spans="1:6" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A267" s="13">
         <v>344</v>
       </c>
@@ -8061,9 +7883,8 @@
         <v>386</v>
       </c>
       <c r="F267" s="15"/>
-      <c r="G267" s="29"/>
-    </row>
-    <row r="268" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    </row>
+    <row r="268" spans="1:6" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A268" s="13">
         <v>345</v>
       </c>
@@ -8080,9 +7901,8 @@
         <v>387</v>
       </c>
       <c r="F268" s="15"/>
-      <c r="G268" s="29"/>
-    </row>
-    <row r="269" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    </row>
+    <row r="269" spans="1:6" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A269" s="13">
         <v>346</v>
       </c>
@@ -8099,9 +7919,8 @@
         <v>388</v>
       </c>
       <c r="F269" s="15"/>
-      <c r="G269" s="29"/>
-    </row>
-    <row r="270" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    </row>
+    <row r="270" spans="1:6" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A270" s="13">
         <v>347</v>
       </c>
@@ -8118,9 +7937,8 @@
         <v>389</v>
       </c>
       <c r="F270" s="15"/>
-      <c r="G270" s="29"/>
-    </row>
-    <row r="271" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    </row>
+    <row r="271" spans="1:6" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A271" s="13">
         <v>348</v>
       </c>
@@ -8137,9 +7955,8 @@
         <v>390</v>
       </c>
       <c r="F271" s="15"/>
-      <c r="G271" s="29"/>
-    </row>
-    <row r="272" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    </row>
+    <row r="272" spans="1:6" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A272" s="13">
         <v>349</v>
       </c>
@@ -8156,9 +7973,8 @@
         <v>388</v>
       </c>
       <c r="F272" s="15"/>
-      <c r="G272" s="29"/>
-    </row>
-    <row r="273" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    </row>
+    <row r="273" spans="1:7" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A273" s="13">
         <v>350</v>
       </c>
@@ -8175,9 +7991,8 @@
         <v>391</v>
       </c>
       <c r="F273" s="15"/>
-      <c r="G273" s="29"/>
-    </row>
-    <row r="274" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    </row>
+    <row r="274" spans="1:7" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A274" s="13">
         <v>351</v>
       </c>
@@ -8194,9 +8009,8 @@
         <v>392</v>
       </c>
       <c r="F274" s="15"/>
-      <c r="G274" s="29"/>
-    </row>
-    <row r="275" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    </row>
+    <row r="275" spans="1:7" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A275" s="13">
         <v>352</v>
       </c>
@@ -8213,9 +8027,8 @@
         <v>394</v>
       </c>
       <c r="F275" s="15"/>
-      <c r="G275" s="29"/>
-    </row>
-    <row r="276" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    </row>
+    <row r="276" spans="1:7" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A276" s="13">
         <v>353</v>
       </c>
@@ -8232,9 +8045,8 @@
         <v>395</v>
       </c>
       <c r="F276" s="15"/>
-      <c r="G276" s="29"/>
-    </row>
-    <row r="277" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    </row>
+    <row r="277" spans="1:7" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A277" s="13">
         <v>354</v>
       </c>
@@ -8251,9 +8063,8 @@
         <v>396</v>
       </c>
       <c r="F277" s="15"/>
-      <c r="G277" s="29"/>
-    </row>
-    <row r="278" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    </row>
+    <row r="278" spans="1:7" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A278" s="13">
         <v>355</v>
       </c>
@@ -8270,9 +8081,8 @@
         <v>398</v>
       </c>
       <c r="F278" s="15"/>
-      <c r="G278" s="29"/>
-    </row>
-    <row r="279" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    </row>
+    <row r="279" spans="1:7" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A279" s="13">
         <v>356</v>
       </c>
@@ -8289,9 +8099,8 @@
         <v>397</v>
       </c>
       <c r="F279" s="15"/>
-      <c r="G279" s="29"/>
-    </row>
-    <row r="280" spans="1:7" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="280" spans="1:7" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A280" s="13">
         <v>125</v>
       </c>
@@ -8308,9 +8117,8 @@
         <v>147</v>
       </c>
       <c r="F280" s="15"/>
-      <c r="G280" s="29"/>
-    </row>
-    <row r="281" spans="1:7" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="281" spans="1:7" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A281" s="13">
         <v>126</v>
       </c>
@@ -8327,9 +8135,8 @@
         <v>148</v>
       </c>
       <c r="F281" s="15"/>
-      <c r="G281" s="29"/>
-    </row>
-    <row r="282" spans="1:7" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="282" spans="1:7" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A282" s="13">
         <v>127</v>
       </c>
@@ -8346,9 +8153,8 @@
         <v>149</v>
       </c>
       <c r="F282" s="15"/>
-      <c r="G282" s="29"/>
-    </row>
-    <row r="283" spans="1:7" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="283" spans="1:7" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A283" s="13">
         <v>128</v>
       </c>
@@ -8365,9 +8171,8 @@
         <v>150</v>
       </c>
       <c r="F283" s="15"/>
-      <c r="G283" s="29"/>
-    </row>
-    <row r="284" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    </row>
+    <row r="284" spans="1:7" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A284" s="13">
         <v>129</v>
       </c>
@@ -8384,9 +8189,8 @@
         <v>151</v>
       </c>
       <c r="F284" s="15"/>
-      <c r="G284" s="29"/>
-    </row>
-    <row r="285" spans="1:7" s="12" customFormat="1" ht="42" x14ac:dyDescent="0.15">
+    </row>
+    <row r="285" spans="1:7" s="12" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A285" s="13">
         <v>130</v>
       </c>
@@ -8403,9 +8207,8 @@
         <v>152</v>
       </c>
       <c r="F285" s="15"/>
-      <c r="G285" s="29"/>
-    </row>
-    <row r="286" spans="1:7" s="12" customFormat="1" ht="42" x14ac:dyDescent="0.15">
+    </row>
+    <row r="286" spans="1:7" s="12" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A286" s="13">
         <v>131</v>
       </c>
@@ -8422,9 +8225,9 @@
         <v>153</v>
       </c>
       <c r="F286" s="15"/>
-      <c r="G286" s="28"/>
-    </row>
-    <row r="287" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="G286" s="25"/>
+    </row>
+    <row r="287" spans="1:7" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A287" s="13">
         <v>132</v>
       </c>
@@ -8441,9 +8244,9 @@
         <v>154</v>
       </c>
       <c r="F287" s="15"/>
-      <c r="G287" s="28"/>
-    </row>
-    <row r="288" spans="1:7" s="12" customFormat="1" ht="42" x14ac:dyDescent="0.15">
+      <c r="G287" s="25"/>
+    </row>
+    <row r="288" spans="1:7" s="12" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A288" s="13">
         <v>133</v>
       </c>
@@ -8460,9 +8263,9 @@
         <v>155</v>
       </c>
       <c r="F288" s="15"/>
-      <c r="G288" s="28"/>
-    </row>
-    <row r="289" spans="1:7" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="G288" s="25"/>
+    </row>
+    <row r="289" spans="1:7" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A289" s="13">
         <v>134</v>
       </c>
@@ -8479,9 +8282,9 @@
         <v>156</v>
       </c>
       <c r="F289" s="15"/>
-      <c r="G289" s="28"/>
-    </row>
-    <row r="290" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="G289" s="25"/>
+    </row>
+    <row r="290" spans="1:7" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A290" s="13">
         <v>135</v>
       </c>
@@ -8498,9 +8301,9 @@
         <v>157</v>
       </c>
       <c r="F290" s="15"/>
-      <c r="G290" s="28"/>
-    </row>
-    <row r="291" spans="1:7" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="G290" s="25"/>
+    </row>
+    <row r="291" spans="1:7" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A291" s="13">
         <v>136</v>
       </c>
@@ -8517,9 +8320,9 @@
         <v>158</v>
       </c>
       <c r="F291" s="15"/>
-      <c r="G291" s="28"/>
-    </row>
-    <row r="292" spans="1:7" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="G291" s="25"/>
+    </row>
+    <row r="292" spans="1:7" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A292" s="13">
         <v>137</v>
       </c>
@@ -8536,9 +8339,9 @@
         <v>159</v>
       </c>
       <c r="F292" s="15"/>
-      <c r="G292" s="28"/>
-    </row>
-    <row r="293" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="G292" s="25"/>
+    </row>
+    <row r="293" spans="1:7" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A293" s="13">
         <v>138</v>
       </c>
@@ -8555,9 +8358,9 @@
         <v>160</v>
       </c>
       <c r="F293" s="15"/>
-      <c r="G293" s="28"/>
-    </row>
-    <row r="294" spans="1:7" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="G293" s="25"/>
+    </row>
+    <row r="294" spans="1:7" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A294" s="13">
         <v>139</v>
       </c>
@@ -8574,9 +8377,9 @@
         <v>161</v>
       </c>
       <c r="F294" s="15"/>
-      <c r="G294" s="28"/>
-    </row>
-    <row r="295" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="G294" s="25"/>
+    </row>
+    <row r="295" spans="1:7" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A295" s="13">
         <v>140</v>
       </c>
@@ -8593,9 +8396,9 @@
         <v>162</v>
       </c>
       <c r="F295" s="15"/>
-      <c r="G295" s="28"/>
-    </row>
-    <row r="296" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="G295" s="25"/>
+    </row>
+    <row r="296" spans="1:7" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A296" s="13">
         <v>141</v>
       </c>
@@ -8612,9 +8415,9 @@
         <v>163</v>
       </c>
       <c r="F296" s="15"/>
-      <c r="G296" s="28"/>
-    </row>
-    <row r="297" spans="1:7" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="G296" s="25"/>
+    </row>
+    <row r="297" spans="1:7" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A297" s="13">
         <v>142</v>
       </c>
@@ -8631,9 +8434,9 @@
         <v>164</v>
       </c>
       <c r="F297" s="15"/>
-      <c r="G297" s="28"/>
-    </row>
-    <row r="298" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="G297" s="25"/>
+    </row>
+    <row r="298" spans="1:7" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A298" s="13">
         <v>143</v>
       </c>
@@ -8650,9 +8453,9 @@
         <v>165</v>
       </c>
       <c r="F298" s="15"/>
-      <c r="G298" s="28"/>
-    </row>
-    <row r="299" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="G298" s="25"/>
+    </row>
+    <row r="299" spans="1:7" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A299" s="13">
         <v>144</v>
       </c>
@@ -8669,9 +8472,9 @@
         <v>166</v>
       </c>
       <c r="F299" s="15"/>
-      <c r="G299" s="28"/>
-    </row>
-    <row r="300" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="G299" s="25"/>
+    </row>
+    <row r="300" spans="1:7" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A300" s="13">
         <v>145</v>
       </c>
@@ -8688,9 +8491,9 @@
         <v>167</v>
       </c>
       <c r="F300" s="15"/>
-      <c r="G300" s="28"/>
-    </row>
-    <row r="301" spans="1:7" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="G300" s="25"/>
+    </row>
+    <row r="301" spans="1:7" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A301" s="13">
         <v>146</v>
       </c>
@@ -8707,9 +8510,9 @@
         <v>168</v>
       </c>
       <c r="F301" s="15"/>
-      <c r="G301" s="28"/>
-    </row>
-    <row r="302" spans="1:7" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="G301" s="25"/>
+    </row>
+    <row r="302" spans="1:7" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A302" s="13">
         <v>147</v>
       </c>
@@ -8726,9 +8529,9 @@
         <v>169</v>
       </c>
       <c r="F302" s="15"/>
-      <c r="G302" s="30"/>
-    </row>
-    <row r="303" spans="1:7" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="G302" s="26"/>
+    </row>
+    <row r="303" spans="1:7" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A303" s="13">
         <v>148</v>
       </c>
@@ -8745,9 +8548,9 @@
         <v>170</v>
       </c>
       <c r="F303" s="15"/>
-      <c r="G303" s="28"/>
-    </row>
-    <row r="304" spans="1:7" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="G303" s="25"/>
+    </row>
+    <row r="304" spans="1:7" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A304" s="13">
         <v>149</v>
       </c>
@@ -8764,9 +8567,9 @@
         <v>171</v>
       </c>
       <c r="F304" s="15"/>
-      <c r="G304" s="28"/>
-    </row>
-    <row r="305" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="G304" s="25"/>
+    </row>
+    <row r="305" spans="1:7" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A305" s="13">
         <v>150</v>
       </c>
@@ -8783,9 +8586,9 @@
         <v>172</v>
       </c>
       <c r="F305" s="15"/>
-      <c r="G305" s="28"/>
-    </row>
-    <row r="306" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="G305" s="25"/>
+    </row>
+    <row r="306" spans="1:7" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A306" s="13">
         <v>151</v>
       </c>
@@ -8802,9 +8605,9 @@
         <v>173</v>
       </c>
       <c r="F306" s="15"/>
-      <c r="G306" s="28"/>
-    </row>
-    <row r="307" spans="1:7" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="G306" s="25"/>
+    </row>
+    <row r="307" spans="1:7" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A307" s="13">
         <v>152</v>
       </c>
@@ -8821,9 +8624,9 @@
         <v>174</v>
       </c>
       <c r="F307" s="15"/>
-      <c r="G307" s="28"/>
-    </row>
-    <row r="308" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="G307" s="25"/>
+    </row>
+    <row r="308" spans="1:7" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A308" s="13">
         <v>153</v>
       </c>
@@ -8840,9 +8643,9 @@
         <v>175</v>
       </c>
       <c r="F308" s="15"/>
-      <c r="G308" s="28"/>
-    </row>
-    <row r="309" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="G308" s="25"/>
+    </row>
+    <row r="309" spans="1:7" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A309" s="13">
         <v>154</v>
       </c>
@@ -8859,9 +8662,9 @@
         <v>176</v>
       </c>
       <c r="F309" s="15"/>
-      <c r="G309" s="28"/>
-    </row>
-    <row r="310" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="G309" s="25"/>
+    </row>
+    <row r="310" spans="1:7" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A310" s="13">
         <v>155</v>
       </c>
@@ -8878,9 +8681,9 @@
         <v>177</v>
       </c>
       <c r="F310" s="15"/>
-      <c r="G310" s="28"/>
-    </row>
-    <row r="311" spans="1:7" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="G310" s="25"/>
+    </row>
+    <row r="311" spans="1:7" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A311" s="13">
         <v>156</v>
       </c>
@@ -8897,9 +8700,9 @@
         <v>178</v>
       </c>
       <c r="F311" s="15"/>
-      <c r="G311" s="28"/>
-    </row>
-    <row r="312" spans="1:7" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="G311" s="25"/>
+    </row>
+    <row r="312" spans="1:7" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A312" s="13">
         <v>157</v>
       </c>
@@ -8916,9 +8719,9 @@
         <v>179</v>
       </c>
       <c r="F312" s="15"/>
-      <c r="G312" s="28"/>
-    </row>
-    <row r="313" spans="1:7" s="12" customFormat="1" ht="42" x14ac:dyDescent="0.15">
+      <c r="G312" s="25"/>
+    </row>
+    <row r="313" spans="1:7" s="12" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A313" s="13">
         <v>158</v>
       </c>
@@ -8935,9 +8738,9 @@
         <v>145</v>
       </c>
       <c r="F313" s="15"/>
-      <c r="G313" s="28"/>
-    </row>
-    <row r="314" spans="1:7" s="12" customFormat="1" ht="56" x14ac:dyDescent="0.15">
+      <c r="G313" s="25"/>
+    </row>
+    <row r="314" spans="1:7" s="12" customFormat="1" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A314" s="13">
         <v>159</v>
       </c>
@@ -8954,9 +8757,9 @@
         <v>182</v>
       </c>
       <c r="F314" s="15"/>
-      <c r="G314" s="28"/>
-    </row>
-    <row r="315" spans="1:7" s="12" customFormat="1" ht="56" x14ac:dyDescent="0.15">
+      <c r="G314" s="25"/>
+    </row>
+    <row r="315" spans="1:7" s="12" customFormat="1" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A315" s="13">
         <v>160</v>
       </c>
@@ -8973,9 +8776,9 @@
         <v>183</v>
       </c>
       <c r="F315" s="15"/>
-      <c r="G315" s="28"/>
-    </row>
-    <row r="316" spans="1:7" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="G315" s="25"/>
+    </row>
+    <row r="316" spans="1:7" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A316" s="13">
         <v>161</v>
       </c>
@@ -8992,9 +8795,9 @@
         <v>184</v>
       </c>
       <c r="F316" s="15"/>
-      <c r="G316" s="28"/>
-    </row>
-    <row r="317" spans="1:7" s="12" customFormat="1" ht="56" x14ac:dyDescent="0.15">
+      <c r="G316" s="25"/>
+    </row>
+    <row r="317" spans="1:7" s="12" customFormat="1" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A317" s="13">
         <v>162</v>
       </c>
@@ -9011,9 +8814,9 @@
         <v>185</v>
       </c>
       <c r="F317" s="15"/>
-      <c r="G317" s="28"/>
-    </row>
-    <row r="318" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="G317" s="25"/>
+    </row>
+    <row r="318" spans="1:7" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A318" s="13">
         <v>163</v>
       </c>
@@ -9030,9 +8833,9 @@
         <v>186</v>
       </c>
       <c r="F318" s="15"/>
-      <c r="G318" s="28"/>
-    </row>
-    <row r="319" spans="1:7" s="12" customFormat="1" ht="42" x14ac:dyDescent="0.15">
+      <c r="G318" s="25"/>
+    </row>
+    <row r="319" spans="1:7" s="12" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A319" s="13">
         <v>164</v>
       </c>
@@ -9049,9 +8852,9 @@
         <v>187</v>
       </c>
       <c r="F319" s="15"/>
-      <c r="G319" s="28"/>
-    </row>
-    <row r="320" spans="1:7" s="12" customFormat="1" ht="42" x14ac:dyDescent="0.15">
+      <c r="G319" s="25"/>
+    </row>
+    <row r="320" spans="1:7" s="12" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A320" s="13">
         <v>165</v>
       </c>
@@ -9068,9 +8871,9 @@
         <v>188</v>
       </c>
       <c r="F320" s="15"/>
-      <c r="G320" s="28"/>
-    </row>
-    <row r="321" spans="1:7" s="12" customFormat="1" ht="56" x14ac:dyDescent="0.15">
+      <c r="G320" s="25"/>
+    </row>
+    <row r="321" spans="1:7" s="12" customFormat="1" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A321" s="13">
         <v>166</v>
       </c>
@@ -9087,9 +8890,9 @@
         <v>189</v>
       </c>
       <c r="F321" s="15"/>
-      <c r="G321" s="28"/>
-    </row>
-    <row r="322" spans="1:7" s="12" customFormat="1" ht="42" x14ac:dyDescent="0.15">
+      <c r="G321" s="25"/>
+    </row>
+    <row r="322" spans="1:7" s="12" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A322" s="13">
         <v>167</v>
       </c>
@@ -9106,9 +8909,9 @@
         <v>190</v>
       </c>
       <c r="F322" s="15"/>
-      <c r="G322" s="28"/>
-    </row>
-    <row r="323" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="G322" s="25"/>
+    </row>
+    <row r="323" spans="1:7" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A323" s="13">
         <v>168</v>
       </c>
@@ -9125,9 +8928,9 @@
         <v>191</v>
       </c>
       <c r="F323" s="15"/>
-      <c r="G323" s="28"/>
-    </row>
-    <row r="324" spans="1:7" s="12" customFormat="1" ht="42" x14ac:dyDescent="0.15">
+      <c r="G323" s="25"/>
+    </row>
+    <row r="324" spans="1:7" s="12" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A324" s="13">
         <v>169</v>
       </c>
@@ -9144,9 +8947,9 @@
         <v>192</v>
       </c>
       <c r="F324" s="15"/>
-      <c r="G324" s="28"/>
-    </row>
-    <row r="325" spans="1:7" s="12" customFormat="1" ht="42" x14ac:dyDescent="0.15">
+      <c r="G324" s="25"/>
+    </row>
+    <row r="325" spans="1:7" s="12" customFormat="1" ht="112" x14ac:dyDescent="0.15">
       <c r="A325" s="8">
         <v>410</v>
       </c>
@@ -9157,57 +8960,56 @@
         <v>2012</v>
       </c>
       <c r="D325" s="9" t="s">
-        <v>465</v>
+        <v>638</v>
       </c>
       <c r="E325" s="9" t="s">
-        <v>466</v>
+        <v>639</v>
       </c>
       <c r="F325" s="11" t="s">
-        <v>589</v>
-      </c>
-      <c r="G325" s="28"/>
+        <v>586</v>
+      </c>
+      <c r="G325" s="25"/>
     </row>
     <row r="326" spans="1:7" s="12" customFormat="1" ht="42" x14ac:dyDescent="0.15">
       <c r="A326" s="8">
         <v>411</v>
       </c>
       <c r="B326" s="9" t="s">
-        <v>464</v>
+        <v>637</v>
       </c>
       <c r="C326" s="8">
         <v>2012</v>
       </c>
       <c r="D326" s="9" t="s">
-        <v>465</v>
+        <v>638</v>
       </c>
       <c r="E326" s="9" t="s">
-        <v>467</v>
+        <v>636</v>
       </c>
       <c r="F326" s="11" t="s">
-        <v>589</v>
-      </c>
-      <c r="G326" s="28"/>
+        <v>586</v>
+      </c>
+      <c r="G326" s="25"/>
     </row>
     <row r="327" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A327" s="8">
         <v>412</v>
       </c>
       <c r="B327" s="9" t="s">
-        <v>464</v>
+        <v>637</v>
       </c>
       <c r="C327" s="8">
         <v>2012</v>
       </c>
       <c r="D327" s="9" t="s">
+        <v>638</v>
+      </c>
+      <c r="E327" s="9" t="s">
         <v>465</v>
       </c>
-      <c r="E327" s="9" t="s">
-        <v>468</v>
-      </c>
       <c r="F327" s="11" t="s">
-        <v>589</v>
-      </c>
-      <c r="G327" s="29"/>
+        <v>586</v>
+      </c>
     </row>
     <row r="328" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A328" s="8">
@@ -9220,15 +9022,14 @@
         <v>2012</v>
       </c>
       <c r="D328" s="9" t="s">
-        <v>465</v>
+        <v>638</v>
       </c>
       <c r="E328" s="9" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="F328" s="11" t="s">
-        <v>589</v>
-      </c>
-      <c r="G328" s="29"/>
+        <v>583</v>
+      </c>
     </row>
     <row r="329" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A329" s="8">
@@ -9241,15 +9042,14 @@
         <v>2012</v>
       </c>
       <c r="D329" s="9" t="s">
-        <v>465</v>
+        <v>638</v>
       </c>
       <c r="E329" s="9" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="F329" s="11" t="s">
-        <v>586</v>
-      </c>
-      <c r="G329" s="29"/>
+        <v>583</v>
+      </c>
     </row>
     <row r="330" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A330" s="8">
@@ -9262,15 +9062,14 @@
         <v>2012</v>
       </c>
       <c r="D330" s="9" t="s">
-        <v>465</v>
+        <v>638</v>
       </c>
       <c r="E330" s="9" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="F330" s="11" t="s">
-        <v>589</v>
-      </c>
-      <c r="G330" s="29"/>
+        <v>586</v>
+      </c>
     </row>
     <row r="331" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A331" s="8">
@@ -9283,15 +9082,14 @@
         <v>2012</v>
       </c>
       <c r="D331" s="9" t="s">
-        <v>465</v>
+        <v>638</v>
       </c>
       <c r="E331" s="9" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="F331" s="11" t="s">
-        <v>589</v>
-      </c>
-      <c r="G331" s="29"/>
+        <v>586</v>
+      </c>
     </row>
     <row r="332" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A332" s="8">
@@ -9304,15 +9102,14 @@
         <v>2012</v>
       </c>
       <c r="D332" s="9" t="s">
-        <v>465</v>
+        <v>638</v>
       </c>
       <c r="E332" s="9" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="F332" s="11" t="s">
-        <v>586</v>
-      </c>
-      <c r="G332" s="29"/>
+        <v>583</v>
+      </c>
     </row>
     <row r="333" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A333" s="8">
@@ -9325,15 +9122,14 @@
         <v>2012</v>
       </c>
       <c r="D333" s="9" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="E333" s="9" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="F333" s="11" t="s">
-        <v>590</v>
-      </c>
-      <c r="G333" s="29"/>
+        <v>587</v>
+      </c>
     </row>
     <row r="334" spans="1:7" s="12" customFormat="1" ht="42" x14ac:dyDescent="0.15">
       <c r="A334" s="8">
@@ -9346,15 +9142,14 @@
         <v>2012</v>
       </c>
       <c r="D334" s="9" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="E334" s="9" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="F334" s="11" t="s">
-        <v>590</v>
-      </c>
-      <c r="G334" s="29"/>
+        <v>587</v>
+      </c>
     </row>
     <row r="335" spans="1:7" s="12" customFormat="1" ht="42" x14ac:dyDescent="0.15">
       <c r="A335" s="8">
@@ -9367,15 +9162,14 @@
         <v>2012</v>
       </c>
       <c r="D335" s="9" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="E335" s="9" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="F335" s="11" t="s">
-        <v>591</v>
-      </c>
-      <c r="G335" s="29"/>
+        <v>588</v>
+      </c>
     </row>
     <row r="336" spans="1:7" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A336" s="8">
@@ -9388,17 +9182,16 @@
         <v>2012</v>
       </c>
       <c r="D336" s="9" t="s">
+        <v>473</v>
+      </c>
+      <c r="E336" s="9" t="s">
         <v>476</v>
       </c>
-      <c r="E336" s="9" t="s">
-        <v>479</v>
-      </c>
       <c r="F336" s="11" t="s">
-        <v>586</v>
-      </c>
-      <c r="G336" s="29"/>
-    </row>
-    <row r="337" spans="1:7" s="12" customFormat="1" ht="42" x14ac:dyDescent="0.15">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6" s="12" customFormat="1" ht="42" x14ac:dyDescent="0.15">
       <c r="A337" s="8">
         <v>422</v>
       </c>
@@ -9409,17 +9202,16 @@
         <v>2012</v>
       </c>
       <c r="D337" s="9" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="E337" s="9" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="F337" s="11" t="s">
-        <v>586</v>
-      </c>
-      <c r="G337" s="29"/>
-    </row>
-    <row r="338" spans="1:7" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A338" s="8">
         <v>423</v>
       </c>
@@ -9430,17 +9222,16 @@
         <v>2012</v>
       </c>
       <c r="D338" s="9" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="E338" s="9" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="F338" s="11" t="s">
-        <v>586</v>
-      </c>
-      <c r="G338" s="29"/>
-    </row>
-    <row r="339" spans="1:7" s="12" customFormat="1" ht="42" x14ac:dyDescent="0.15">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" s="12" customFormat="1" ht="42" x14ac:dyDescent="0.15">
       <c r="A339" s="8">
         <v>424</v>
       </c>
@@ -9451,17 +9242,16 @@
         <v>2012</v>
       </c>
       <c r="D339" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="E339" s="9" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="F339" s="11" t="s">
-        <v>592</v>
-      </c>
-      <c r="G339" s="29"/>
-    </row>
-    <row r="340" spans="1:7" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A340" s="8">
         <v>425</v>
       </c>
@@ -9472,17 +9262,16 @@
         <v>2012</v>
       </c>
       <c r="D340" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="E340" s="9" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="F340" s="11" t="s">
-        <v>586</v>
-      </c>
-      <c r="G340" s="29"/>
-    </row>
-    <row r="341" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A341" s="8">
         <v>426</v>
       </c>
@@ -9493,17 +9282,16 @@
         <v>2012</v>
       </c>
       <c r="D341" s="9" t="s">
+        <v>479</v>
+      </c>
+      <c r="E341" s="9" t="s">
         <v>482</v>
       </c>
-      <c r="E341" s="9" t="s">
-        <v>485</v>
-      </c>
       <c r="F341" s="11" t="s">
-        <v>586</v>
-      </c>
-      <c r="G341" s="29"/>
-    </row>
-    <row r="342" spans="1:7" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A342" s="8">
         <v>427</v>
       </c>
@@ -9514,17 +9302,16 @@
         <v>2012</v>
       </c>
       <c r="D342" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="E342" s="9" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="F342" s="11" t="s">
-        <v>586</v>
-      </c>
-      <c r="G342" s="29"/>
-    </row>
-    <row r="343" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A343" s="8">
         <v>428</v>
       </c>
@@ -9535,17 +9322,16 @@
         <v>2012</v>
       </c>
       <c r="D343" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="E343" s="9" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="F343" s="11" t="s">
-        <v>586</v>
-      </c>
-      <c r="G343" s="29"/>
-    </row>
-    <row r="344" spans="1:7" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A344" s="8">
         <v>429</v>
       </c>
@@ -9556,17 +9342,16 @@
         <v>2012</v>
       </c>
       <c r="D344" s="9" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="E344" s="9" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="F344" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="G344" s="29"/>
-    </row>
-    <row r="345" spans="1:7" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A345" s="8">
         <v>430</v>
       </c>
@@ -9577,17 +9362,16 @@
         <v>2012</v>
       </c>
       <c r="D345" s="9" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="E345" s="9" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="F345" s="11" t="s">
-        <v>591</v>
-      </c>
-      <c r="G345" s="29"/>
-    </row>
-    <row r="346" spans="1:7" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A346" s="8">
         <v>431</v>
       </c>
@@ -9598,17 +9382,16 @@
         <v>2012</v>
       </c>
       <c r="D346" s="9" t="s">
+        <v>485</v>
+      </c>
+      <c r="E346" s="9" t="s">
         <v>488</v>
       </c>
-      <c r="E346" s="9" t="s">
-        <v>491</v>
-      </c>
       <c r="F346" s="11" t="s">
-        <v>586</v>
-      </c>
-      <c r="G346" s="29"/>
-    </row>
-    <row r="347" spans="1:7" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A347" s="8">
         <v>432</v>
       </c>
@@ -9619,17 +9402,16 @@
         <v>2012</v>
       </c>
       <c r="D347" s="9" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="E347" s="9" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="F347" s="11" t="s">
-        <v>586</v>
-      </c>
-      <c r="G347" s="29"/>
-    </row>
-    <row r="348" spans="1:7" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A348" s="8">
         <v>433</v>
       </c>
@@ -9640,17 +9422,16 @@
         <v>2012</v>
       </c>
       <c r="D348" s="9" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="E348" s="9" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="F348" s="11" t="s">
-        <v>586</v>
-      </c>
-      <c r="G348" s="29"/>
-    </row>
-    <row r="349" spans="1:7" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A349" s="8">
         <v>434</v>
       </c>
@@ -9661,17 +9442,16 @@
         <v>2012</v>
       </c>
       <c r="D349" s="9" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="E349" s="9" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F349" s="11" t="s">
-        <v>586</v>
-      </c>
-      <c r="G349" s="29"/>
-    </row>
-    <row r="350" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A350" s="8">
         <v>435</v>
       </c>
@@ -9682,17 +9462,16 @@
         <v>2012</v>
       </c>
       <c r="D350" s="9" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="E350" s="9" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="F350" s="11" t="s">
-        <v>586</v>
-      </c>
-      <c r="G350" s="29"/>
-    </row>
-    <row r="351" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A351" s="8">
         <v>436</v>
       </c>
@@ -9703,17 +9482,16 @@
         <v>2012</v>
       </c>
       <c r="D351" s="9" t="s">
+        <v>491</v>
+      </c>
+      <c r="E351" s="9" t="s">
         <v>494</v>
       </c>
-      <c r="E351" s="9" t="s">
-        <v>497</v>
-      </c>
       <c r="F351" s="11" t="s">
-        <v>586</v>
-      </c>
-      <c r="G351" s="29"/>
-    </row>
-    <row r="352" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A352" s="8">
         <v>437</v>
       </c>
@@ -9724,15 +9502,14 @@
         <v>2012</v>
       </c>
       <c r="D352" s="9" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="E352" s="9" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="F352" s="11" t="s">
-        <v>586</v>
-      </c>
-      <c r="G352" s="29"/>
+        <v>583</v>
+      </c>
     </row>
     <row r="353" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A353" s="8">
@@ -9745,15 +9522,14 @@
         <v>2012</v>
       </c>
       <c r="D353" s="9" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="E353" s="9" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="F353" s="11" t="s">
-        <v>586</v>
-      </c>
-      <c r="G353" s="29"/>
+        <v>583</v>
+      </c>
     </row>
     <row r="354" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A354" s="8">
@@ -9766,15 +9542,14 @@
         <v>2012</v>
       </c>
       <c r="D354" s="9" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="E354" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="F354" s="11" t="s">
-        <v>586</v>
-      </c>
-      <c r="G354" s="29"/>
+        <v>583</v>
+      </c>
     </row>
     <row r="355" spans="1:7" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A355" s="8">
@@ -9787,15 +9562,14 @@
         <v>2012</v>
       </c>
       <c r="D355" s="9" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="E355" s="9" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="F355" s="11" t="s">
-        <v>586</v>
-      </c>
-      <c r="G355" s="29"/>
+        <v>583</v>
+      </c>
     </row>
     <row r="356" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A356" s="8">
@@ -9808,15 +9582,14 @@
         <v>2012</v>
       </c>
       <c r="D356" s="9" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="E356" s="9" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="F356" s="11" t="s">
-        <v>586</v>
-      </c>
-      <c r="G356" s="29"/>
+        <v>583</v>
+      </c>
     </row>
     <row r="357" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A357" s="8">
@@ -9829,15 +9602,15 @@
         <v>2012</v>
       </c>
       <c r="D357" s="9" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="E357" s="9" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="F357" s="11" t="s">
-        <v>586</v>
-      </c>
-      <c r="G357" s="28"/>
+        <v>583</v>
+      </c>
+      <c r="G357" s="25"/>
     </row>
     <row r="358" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A358" s="8">
@@ -9850,15 +9623,15 @@
         <v>2012</v>
       </c>
       <c r="D358" s="9" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="E358" s="9" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="F358" s="11" t="s">
-        <v>586</v>
-      </c>
-      <c r="G358" s="28"/>
+        <v>583</v>
+      </c>
+      <c r="G358" s="25"/>
     </row>
     <row r="359" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A359" s="8">
@@ -9871,15 +9644,15 @@
         <v>2012</v>
       </c>
       <c r="D359" s="9" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="E359" s="9" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="F359" s="11" t="s">
-        <v>590</v>
-      </c>
-      <c r="G359" s="28"/>
+        <v>587</v>
+      </c>
+      <c r="G359" s="25"/>
     </row>
     <row r="360" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A360" s="8">
@@ -9892,17 +9665,17 @@
         <v>2012</v>
       </c>
       <c r="D360" s="9" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="E360" s="9" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="F360" s="11" t="s">
-        <v>590</v>
-      </c>
-      <c r="G360" s="28"/>
-    </row>
-    <row r="361" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+        <v>587</v>
+      </c>
+      <c r="G360" s="25"/>
+    </row>
+    <row r="361" spans="1:7" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A361" s="13">
         <v>47</v>
       </c>
@@ -9919,9 +9692,9 @@
         <v>55</v>
       </c>
       <c r="F361" s="15"/>
-      <c r="G361" s="28"/>
-    </row>
-    <row r="362" spans="1:7" s="12" customFormat="1" ht="42" x14ac:dyDescent="0.15">
+      <c r="G361" s="25"/>
+    </row>
+    <row r="362" spans="1:7" s="12" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A362" s="13">
         <v>48</v>
       </c>
@@ -9938,9 +9711,9 @@
         <v>56</v>
       </c>
       <c r="F362" s="15"/>
-      <c r="G362" s="28"/>
-    </row>
-    <row r="363" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="G362" s="25"/>
+    </row>
+    <row r="363" spans="1:7" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A363" s="13">
         <v>49</v>
       </c>
@@ -9957,9 +9730,9 @@
         <v>57</v>
       </c>
       <c r="F363" s="15"/>
-      <c r="G363" s="28"/>
-    </row>
-    <row r="364" spans="1:7" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="G363" s="25"/>
+    </row>
+    <row r="364" spans="1:7" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A364" s="13">
         <v>50</v>
       </c>
@@ -9976,9 +9749,9 @@
         <v>58</v>
       </c>
       <c r="F364" s="15"/>
-      <c r="G364" s="28"/>
-    </row>
-    <row r="365" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="G364" s="25"/>
+    </row>
+    <row r="365" spans="1:7" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A365" s="13">
         <v>51</v>
       </c>
@@ -9995,9 +9768,9 @@
         <v>59</v>
       </c>
       <c r="F365" s="15"/>
-      <c r="G365" s="28"/>
-    </row>
-    <row r="366" spans="1:7" s="12" customFormat="1" ht="42" x14ac:dyDescent="0.15">
+      <c r="G365" s="25"/>
+    </row>
+    <row r="366" spans="1:7" s="12" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A366" s="13">
         <v>52</v>
       </c>
@@ -10014,9 +9787,9 @@
         <v>60</v>
       </c>
       <c r="F366" s="15"/>
-      <c r="G366" s="28"/>
-    </row>
-    <row r="367" spans="1:7" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="G366" s="25"/>
+    </row>
+    <row r="367" spans="1:7" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A367" s="13">
         <v>53</v>
       </c>
@@ -10033,9 +9806,9 @@
         <v>61</v>
       </c>
       <c r="F367" s="15"/>
-      <c r="G367" s="28"/>
-    </row>
-    <row r="368" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="G367" s="25"/>
+    </row>
+    <row r="368" spans="1:7" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A368" s="13">
         <v>54</v>
       </c>
@@ -10052,9 +9825,9 @@
         <v>62</v>
       </c>
       <c r="F368" s="15"/>
-      <c r="G368" s="28"/>
-    </row>
-    <row r="369" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="G368" s="25"/>
+    </row>
+    <row r="369" spans="1:7" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A369" s="13">
         <v>55</v>
       </c>
@@ -10071,9 +9844,9 @@
         <v>63</v>
       </c>
       <c r="F369" s="15"/>
-      <c r="G369" s="28"/>
-    </row>
-    <row r="370" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="G369" s="25"/>
+    </row>
+    <row r="370" spans="1:7" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A370" s="13">
         <v>56</v>
       </c>
@@ -10090,9 +9863,9 @@
         <v>66</v>
       </c>
       <c r="F370" s="15"/>
-      <c r="G370" s="28"/>
-    </row>
-    <row r="371" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="G370" s="25"/>
+    </row>
+    <row r="371" spans="1:7" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A371" s="13">
         <v>57</v>
       </c>
@@ -10109,9 +9882,9 @@
         <v>67</v>
       </c>
       <c r="F371" s="15"/>
-      <c r="G371" s="28"/>
-    </row>
-    <row r="372" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="G371" s="25"/>
+    </row>
+    <row r="372" spans="1:7" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A372" s="13">
         <v>58</v>
       </c>
@@ -10128,9 +9901,9 @@
         <v>68</v>
       </c>
       <c r="F372" s="15"/>
-      <c r="G372" s="28"/>
-    </row>
-    <row r="373" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="G372" s="25"/>
+    </row>
+    <row r="373" spans="1:7" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A373" s="13">
         <v>59</v>
       </c>
@@ -10147,9 +9920,9 @@
         <v>70</v>
       </c>
       <c r="F373" s="15"/>
-      <c r="G373" s="28"/>
-    </row>
-    <row r="374" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="G373" s="25"/>
+    </row>
+    <row r="374" spans="1:7" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A374" s="13">
         <v>60</v>
       </c>
@@ -10166,9 +9939,9 @@
         <v>72</v>
       </c>
       <c r="F374" s="15"/>
-      <c r="G374" s="28"/>
-    </row>
-    <row r="375" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="G374" s="25"/>
+    </row>
+    <row r="375" spans="1:7" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A375" s="13">
         <v>61</v>
       </c>
@@ -10185,9 +9958,9 @@
         <v>74</v>
       </c>
       <c r="F375" s="15"/>
-      <c r="G375" s="28"/>
-    </row>
-    <row r="376" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="G375" s="25"/>
+    </row>
+    <row r="376" spans="1:7" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A376" s="13">
         <v>62</v>
       </c>
@@ -10204,9 +9977,9 @@
         <v>75</v>
       </c>
       <c r="F376" s="15"/>
-      <c r="G376" s="28"/>
-    </row>
-    <row r="377" spans="1:7" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="G376" s="25"/>
+    </row>
+    <row r="377" spans="1:7" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A377" s="13">
         <v>63</v>
       </c>
@@ -10223,9 +9996,9 @@
         <v>77</v>
       </c>
       <c r="F377" s="15"/>
-      <c r="G377" s="28"/>
-    </row>
-    <row r="378" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="G377" s="25"/>
+    </row>
+    <row r="378" spans="1:7" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A378" s="13">
         <v>64</v>
       </c>
@@ -10242,9 +10015,9 @@
         <v>79</v>
       </c>
       <c r="F378" s="15"/>
-      <c r="G378" s="28"/>
-    </row>
-    <row r="379" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="G378" s="25"/>
+    </row>
+    <row r="379" spans="1:7" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A379" s="13">
         <v>65</v>
       </c>
@@ -10261,9 +10034,9 @@
         <v>82</v>
       </c>
       <c r="F379" s="15"/>
-      <c r="G379" s="28"/>
-    </row>
-    <row r="380" spans="1:7" s="12" customFormat="1" ht="56" x14ac:dyDescent="0.15">
+      <c r="G379" s="25"/>
+    </row>
+    <row r="380" spans="1:7" s="12" customFormat="1" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A380" s="13">
         <v>66</v>
       </c>
@@ -10280,9 +10053,9 @@
         <v>83</v>
       </c>
       <c r="F380" s="15"/>
-      <c r="G380" s="28"/>
-    </row>
-    <row r="381" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="G380" s="25"/>
+    </row>
+    <row r="381" spans="1:7" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A381" s="13">
         <v>67</v>
       </c>
@@ -10299,9 +10072,9 @@
         <v>84</v>
       </c>
       <c r="F381" s="15"/>
-      <c r="G381" s="28"/>
-    </row>
-    <row r="382" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="G381" s="25"/>
+    </row>
+    <row r="382" spans="1:7" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A382" s="13">
         <v>68</v>
       </c>
@@ -10318,9 +10091,9 @@
         <v>85</v>
       </c>
       <c r="F382" s="15"/>
-      <c r="G382" s="28"/>
-    </row>
-    <row r="383" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="G382" s="25"/>
+    </row>
+    <row r="383" spans="1:7" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A383" s="13">
         <v>69</v>
       </c>
@@ -10337,9 +10110,9 @@
         <v>86</v>
       </c>
       <c r="F383" s="15"/>
-      <c r="G383" s="28"/>
-    </row>
-    <row r="384" spans="1:7" s="12" customFormat="1" ht="42" x14ac:dyDescent="0.15">
+      <c r="G383" s="25"/>
+    </row>
+    <row r="384" spans="1:7" s="12" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A384" s="13">
         <v>70</v>
       </c>
@@ -10356,9 +10129,9 @@
         <v>87</v>
       </c>
       <c r="F384" s="15"/>
-      <c r="G384" s="28"/>
-    </row>
-    <row r="385" spans="1:7" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="G384" s="25"/>
+    </row>
+    <row r="385" spans="1:7" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A385" s="13">
         <v>71</v>
       </c>
@@ -10375,9 +10148,9 @@
         <v>88</v>
       </c>
       <c r="F385" s="15"/>
-      <c r="G385" s="28"/>
-    </row>
-    <row r="386" spans="1:7" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="G385" s="25"/>
+    </row>
+    <row r="386" spans="1:7" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A386" s="13">
         <v>72</v>
       </c>
@@ -10394,9 +10167,9 @@
         <v>89</v>
       </c>
       <c r="F386" s="15"/>
-      <c r="G386" s="28"/>
-    </row>
-    <row r="387" spans="1:7" s="12" customFormat="1" ht="42" x14ac:dyDescent="0.15">
+      <c r="G386" s="25"/>
+    </row>
+    <row r="387" spans="1:7" s="12" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A387" s="13">
         <v>73</v>
       </c>
@@ -10413,9 +10186,9 @@
         <v>90</v>
       </c>
       <c r="F387" s="15"/>
-      <c r="G387" s="28"/>
-    </row>
-    <row r="388" spans="1:7" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="G387" s="25"/>
+    </row>
+    <row r="388" spans="1:7" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A388" s="13">
         <v>74</v>
       </c>
@@ -10432,9 +10205,9 @@
         <v>91</v>
       </c>
       <c r="F388" s="15"/>
-      <c r="G388" s="28"/>
-    </row>
-    <row r="389" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="G388" s="25"/>
+    </row>
+    <row r="389" spans="1:7" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A389" s="13">
         <v>75</v>
       </c>
@@ -10451,9 +10224,9 @@
         <v>92</v>
       </c>
       <c r="F389" s="15"/>
-      <c r="G389" s="28"/>
-    </row>
-    <row r="390" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="G389" s="25"/>
+    </row>
+    <row r="390" spans="1:7" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A390" s="13">
         <v>76</v>
       </c>
@@ -10470,9 +10243,9 @@
         <v>93</v>
       </c>
       <c r="F390" s="15"/>
-      <c r="G390" s="28"/>
-    </row>
-    <row r="391" spans="1:7" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="G390" s="25"/>
+    </row>
+    <row r="391" spans="1:7" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A391" s="13">
         <v>77</v>
       </c>
@@ -10489,9 +10262,9 @@
         <v>94</v>
       </c>
       <c r="F391" s="15"/>
-      <c r="G391" s="28"/>
-    </row>
-    <row r="392" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="G391" s="25"/>
+    </row>
+    <row r="392" spans="1:7" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A392" s="13">
         <v>78</v>
       </c>
@@ -10508,9 +10281,9 @@
         <v>95</v>
       </c>
       <c r="F392" s="15"/>
-      <c r="G392" s="28"/>
-    </row>
-    <row r="393" spans="1:7" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="G392" s="25"/>
+    </row>
+    <row r="393" spans="1:7" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A393" s="13">
         <v>79</v>
       </c>
@@ -10527,9 +10300,9 @@
         <v>96</v>
       </c>
       <c r="F393" s="15"/>
-      <c r="G393" s="28"/>
-    </row>
-    <row r="394" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="G393" s="25"/>
+    </row>
+    <row r="394" spans="1:7" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A394" s="13">
         <v>80</v>
       </c>
@@ -10546,9 +10319,9 @@
         <v>97</v>
       </c>
       <c r="F394" s="15"/>
-      <c r="G394" s="28"/>
-    </row>
-    <row r="395" spans="1:7" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="G394" s="25"/>
+    </row>
+    <row r="395" spans="1:7" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A395" s="13">
         <v>81</v>
       </c>
@@ -10565,9 +10338,9 @@
         <v>100</v>
       </c>
       <c r="F395" s="15"/>
-      <c r="G395" s="28"/>
-    </row>
-    <row r="396" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="G395" s="25"/>
+    </row>
+    <row r="396" spans="1:7" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A396" s="13">
         <v>82</v>
       </c>
@@ -10584,9 +10357,9 @@
         <v>99</v>
       </c>
       <c r="F396" s="15"/>
-      <c r="G396" s="28"/>
-    </row>
-    <row r="397" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="G396" s="25"/>
+    </row>
+    <row r="397" spans="1:7" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A397" s="13">
         <v>83</v>
       </c>
@@ -10603,9 +10376,9 @@
         <v>102</v>
       </c>
       <c r="F397" s="15"/>
-      <c r="G397" s="28"/>
-    </row>
-    <row r="398" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="G397" s="25"/>
+    </row>
+    <row r="398" spans="1:7" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A398" s="13">
         <v>84</v>
       </c>
@@ -10622,9 +10395,9 @@
         <v>103</v>
       </c>
       <c r="F398" s="15"/>
-      <c r="G398" s="28"/>
-    </row>
-    <row r="399" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="G398" s="25"/>
+    </row>
+    <row r="399" spans="1:7" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A399" s="13">
         <v>85</v>
       </c>
@@ -10641,9 +10414,9 @@
         <v>104</v>
       </c>
       <c r="F399" s="15"/>
-      <c r="G399" s="28"/>
-    </row>
-    <row r="400" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="G399" s="25"/>
+    </row>
+    <row r="400" spans="1:7" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A400" s="13">
         <v>86</v>
       </c>
@@ -10660,9 +10433,9 @@
         <v>105</v>
       </c>
       <c r="F400" s="15"/>
-      <c r="G400" s="28"/>
-    </row>
-    <row r="401" spans="1:7" s="12" customFormat="1" ht="42" x14ac:dyDescent="0.15">
+      <c r="G400" s="25"/>
+    </row>
+    <row r="401" spans="1:7" s="12" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A401" s="13">
         <v>87</v>
       </c>
@@ -10679,9 +10452,9 @@
         <v>106</v>
       </c>
       <c r="F401" s="15"/>
-      <c r="G401" s="28"/>
-    </row>
-    <row r="402" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="G401" s="25"/>
+    </row>
+    <row r="402" spans="1:7" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A402" s="13">
         <v>88</v>
       </c>
@@ -10698,9 +10471,9 @@
         <v>107</v>
       </c>
       <c r="F402" s="15"/>
-      <c r="G402" s="28"/>
-    </row>
-    <row r="403" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="G402" s="25"/>
+    </row>
+    <row r="403" spans="1:7" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A403" s="13">
         <v>89</v>
       </c>
@@ -10717,9 +10490,8 @@
         <v>108</v>
       </c>
       <c r="F403" s="15"/>
-      <c r="G403" s="29"/>
-    </row>
-    <row r="404" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    </row>
+    <row r="404" spans="1:7" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A404" s="13">
         <v>90</v>
       </c>
@@ -10736,9 +10508,8 @@
         <v>109</v>
       </c>
       <c r="F404" s="15"/>
-      <c r="G404" s="29"/>
-    </row>
-    <row r="405" spans="1:7" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="405" spans="1:7" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A405" s="13">
         <v>91</v>
       </c>
@@ -10755,9 +10526,8 @@
         <v>110</v>
       </c>
       <c r="F405" s="15"/>
-      <c r="G405" s="29"/>
-    </row>
-    <row r="406" spans="1:7" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="406" spans="1:7" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A406" s="13">
         <v>92</v>
       </c>
@@ -10774,9 +10544,8 @@
         <v>111</v>
       </c>
       <c r="F406" s="15"/>
-      <c r="G406" s="29"/>
-    </row>
-    <row r="407" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    </row>
+    <row r="407" spans="1:7" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A407" s="13">
         <v>93</v>
       </c>
@@ -10793,9 +10562,8 @@
         <v>112</v>
       </c>
       <c r="F407" s="15"/>
-      <c r="G407" s="29"/>
-    </row>
-    <row r="408" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    </row>
+    <row r="408" spans="1:7" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A408" s="13">
         <v>94</v>
       </c>
@@ -10812,9 +10580,8 @@
         <v>113</v>
       </c>
       <c r="F408" s="15"/>
-      <c r="G408" s="29"/>
-    </row>
-    <row r="409" spans="1:7" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="409" spans="1:7" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A409" s="13">
         <v>95</v>
       </c>
@@ -10831,9 +10598,8 @@
         <v>114</v>
       </c>
       <c r="F409" s="15"/>
-      <c r="G409" s="29"/>
-    </row>
-    <row r="410" spans="1:7" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="410" spans="1:7" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A410" s="13">
         <v>96</v>
       </c>
@@ -10850,9 +10616,9 @@
         <v>115</v>
       </c>
       <c r="F410" s="15"/>
-      <c r="G410" s="28"/>
-    </row>
-    <row r="411" spans="1:7" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="G410" s="25"/>
+    </row>
+    <row r="411" spans="1:7" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A411" s="13">
         <v>97</v>
       </c>
@@ -10869,9 +10635,9 @@
         <v>116</v>
       </c>
       <c r="F411" s="15"/>
-      <c r="G411" s="28"/>
-    </row>
-    <row r="412" spans="1:7" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="G411" s="25"/>
+    </row>
+    <row r="412" spans="1:7" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A412" s="13">
         <v>98</v>
       </c>
@@ -10884,13 +10650,13 @@
       <c r="D412" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="E412" s="18" t="s">
+      <c r="E412" s="15" t="s">
         <v>117</v>
       </c>
       <c r="F412" s="15"/>
-      <c r="G412" s="28"/>
-    </row>
-    <row r="413" spans="1:7" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="G412" s="25"/>
+    </row>
+    <row r="413" spans="1:7" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A413" s="13">
         <v>99</v>
       </c>
@@ -10907,9 +10673,9 @@
         <v>118</v>
       </c>
       <c r="F413" s="15"/>
-      <c r="G413" s="28"/>
-    </row>
-    <row r="414" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="G413" s="25"/>
+    </row>
+    <row r="414" spans="1:7" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A414" s="13">
         <v>100</v>
       </c>
@@ -10926,9 +10692,9 @@
         <v>119</v>
       </c>
       <c r="F414" s="15"/>
-      <c r="G414" s="28"/>
-    </row>
-    <row r="415" spans="1:7" s="12" customFormat="1" ht="42" x14ac:dyDescent="0.15">
+      <c r="G414" s="25"/>
+    </row>
+    <row r="415" spans="1:7" s="12" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A415" s="13">
         <v>101</v>
       </c>
@@ -10945,9 +10711,9 @@
         <v>120</v>
       </c>
       <c r="F415" s="15"/>
-      <c r="G415" s="28"/>
-    </row>
-    <row r="416" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="G415" s="25"/>
+    </row>
+    <row r="416" spans="1:7" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A416" s="13">
         <v>102</v>
       </c>
@@ -10964,9 +10730,9 @@
         <v>121</v>
       </c>
       <c r="F416" s="15"/>
-      <c r="G416" s="28"/>
-    </row>
-    <row r="417" spans="1:7" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="G416" s="25"/>
+    </row>
+    <row r="417" spans="1:7" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A417" s="13">
         <v>103</v>
       </c>
@@ -10983,9 +10749,9 @@
         <v>122</v>
       </c>
       <c r="F417" s="15"/>
-      <c r="G417" s="28"/>
-    </row>
-    <row r="418" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="G417" s="25"/>
+    </row>
+    <row r="418" spans="1:7" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A418" s="13">
         <v>104</v>
       </c>
@@ -11002,9 +10768,9 @@
         <v>123</v>
       </c>
       <c r="F418" s="15"/>
-      <c r="G418" s="28"/>
-    </row>
-    <row r="419" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="G418" s="25"/>
+    </row>
+    <row r="419" spans="1:7" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A419" s="13">
         <v>105</v>
       </c>
@@ -11021,9 +10787,9 @@
         <v>124</v>
       </c>
       <c r="F419" s="15"/>
-      <c r="G419" s="28"/>
-    </row>
-    <row r="420" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="G419" s="25"/>
+    </row>
+    <row r="420" spans="1:7" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A420" s="13">
         <v>106</v>
       </c>
@@ -11040,9 +10806,9 @@
         <v>125</v>
       </c>
       <c r="F420" s="15"/>
-      <c r="G420" s="28"/>
-    </row>
-    <row r="421" spans="1:7" s="12" customFormat="1" ht="42" x14ac:dyDescent="0.15">
+      <c r="G420" s="25"/>
+    </row>
+    <row r="421" spans="1:7" s="12" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A421" s="13">
         <v>107</v>
       </c>
@@ -11059,9 +10825,9 @@
         <v>126</v>
       </c>
       <c r="F421" s="15"/>
-      <c r="G421" s="28"/>
-    </row>
-    <row r="422" spans="1:7" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="G421" s="25"/>
+    </row>
+    <row r="422" spans="1:7" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A422" s="13">
         <v>108</v>
       </c>
@@ -11078,9 +10844,9 @@
         <v>127</v>
       </c>
       <c r="F422" s="15"/>
-      <c r="G422" s="28"/>
-    </row>
-    <row r="423" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="G422" s="25"/>
+    </row>
+    <row r="423" spans="1:7" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A423" s="13">
         <v>109</v>
       </c>
@@ -11097,9 +10863,9 @@
         <v>128</v>
       </c>
       <c r="F423" s="15"/>
-      <c r="G423" s="28"/>
-    </row>
-    <row r="424" spans="1:7" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="G423" s="25"/>
+    </row>
+    <row r="424" spans="1:7" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A424" s="13">
         <v>110</v>
       </c>
@@ -11116,9 +10882,9 @@
         <v>129</v>
       </c>
       <c r="F424" s="15"/>
-      <c r="G424" s="28"/>
-    </row>
-    <row r="425" spans="1:7" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="G424" s="25"/>
+    </row>
+    <row r="425" spans="1:7" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A425" s="13">
         <v>111</v>
       </c>
@@ -11135,9 +10901,9 @@
         <v>130</v>
       </c>
       <c r="F425" s="15"/>
-      <c r="G425" s="28"/>
-    </row>
-    <row r="426" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="G425" s="25"/>
+    </row>
+    <row r="426" spans="1:7" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A426" s="13">
         <v>112</v>
       </c>
@@ -11154,9 +10920,9 @@
         <v>131</v>
       </c>
       <c r="F426" s="15"/>
-      <c r="G426" s="28"/>
-    </row>
-    <row r="427" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="G426" s="25"/>
+    </row>
+    <row r="427" spans="1:7" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A427" s="13">
         <v>113</v>
       </c>
@@ -11173,9 +10939,9 @@
         <v>132</v>
       </c>
       <c r="F427" s="15"/>
-      <c r="G427" s="28"/>
-    </row>
-    <row r="428" spans="1:7" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="G427" s="25"/>
+    </row>
+    <row r="428" spans="1:7" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A428" s="13">
         <v>114</v>
       </c>
@@ -11192,9 +10958,9 @@
         <v>133</v>
       </c>
       <c r="F428" s="15"/>
-      <c r="G428" s="28"/>
-    </row>
-    <row r="429" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="G428" s="25"/>
+    </row>
+    <row r="429" spans="1:7" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A429" s="13">
         <v>115</v>
       </c>
@@ -11211,9 +10977,9 @@
         <v>134</v>
       </c>
       <c r="F429" s="15"/>
-      <c r="G429" s="28"/>
-    </row>
-    <row r="430" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="G429" s="25"/>
+    </row>
+    <row r="430" spans="1:7" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A430" s="13">
         <v>116</v>
       </c>
@@ -11230,9 +10996,9 @@
         <v>135</v>
       </c>
       <c r="F430" s="15"/>
-      <c r="G430" s="28"/>
-    </row>
-    <row r="431" spans="1:7" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="G430" s="25"/>
+    </row>
+    <row r="431" spans="1:7" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A431" s="13">
         <v>117</v>
       </c>
@@ -11249,9 +11015,9 @@
         <v>136</v>
       </c>
       <c r="F431" s="15"/>
-      <c r="G431" s="28"/>
-    </row>
-    <row r="432" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="G431" s="25"/>
+    </row>
+    <row r="432" spans="1:7" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A432" s="13">
         <v>118</v>
       </c>
@@ -11268,9 +11034,9 @@
         <v>137</v>
       </c>
       <c r="F432" s="15"/>
-      <c r="G432" s="28"/>
-    </row>
-    <row r="433" spans="1:7" s="12" customFormat="1" ht="42" x14ac:dyDescent="0.15">
+      <c r="G432" s="25"/>
+    </row>
+    <row r="433" spans="1:7" s="12" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A433" s="13">
         <v>119</v>
       </c>
@@ -11287,9 +11053,9 @@
         <v>138</v>
       </c>
       <c r="F433" s="15"/>
-      <c r="G433" s="28"/>
-    </row>
-    <row r="434" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="G433" s="25"/>
+    </row>
+    <row r="434" spans="1:7" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A434" s="13">
         <v>120</v>
       </c>
@@ -11306,9 +11072,9 @@
         <v>139</v>
       </c>
       <c r="F434" s="15"/>
-      <c r="G434" s="28"/>
-    </row>
-    <row r="435" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="G434" s="25"/>
+    </row>
+    <row r="435" spans="1:7" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A435" s="13">
         <v>121</v>
       </c>
@@ -11325,9 +11091,9 @@
         <v>140</v>
       </c>
       <c r="F435" s="15"/>
-      <c r="G435" s="28"/>
-    </row>
-    <row r="436" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="G435" s="25"/>
+    </row>
+    <row r="436" spans="1:7" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A436" s="13">
         <v>122</v>
       </c>
@@ -11344,9 +11110,9 @@
         <v>141</v>
       </c>
       <c r="F436" s="15"/>
-      <c r="G436" s="28"/>
-    </row>
-    <row r="437" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="G436" s="25"/>
+    </row>
+    <row r="437" spans="1:7" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A437" s="13">
         <v>123</v>
       </c>
@@ -11363,9 +11129,9 @@
         <v>142</v>
       </c>
       <c r="F437" s="15"/>
-      <c r="G437" s="28"/>
-    </row>
-    <row r="438" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="G437" s="25"/>
+    </row>
+    <row r="438" spans="1:7" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A438" s="13">
         <v>124</v>
       </c>
@@ -11382,9 +11148,9 @@
         <v>143</v>
       </c>
       <c r="F438" s="15"/>
-      <c r="G438" s="28"/>
-    </row>
-    <row r="439" spans="1:7" s="12" customFormat="1" ht="56" x14ac:dyDescent="0.15">
+      <c r="G438" s="25"/>
+    </row>
+    <row r="439" spans="1:7" s="12" customFormat="1" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A439" s="13">
         <v>403</v>
       </c>
@@ -11401,9 +11167,9 @@
         <v>454</v>
       </c>
       <c r="F439" s="15"/>
-      <c r="G439" s="28"/>
-    </row>
-    <row r="440" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="G439" s="25"/>
+    </row>
+    <row r="440" spans="1:7" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A440" s="13">
         <v>404</v>
       </c>
@@ -11420,9 +11186,9 @@
         <v>455</v>
       </c>
       <c r="F440" s="15"/>
-      <c r="G440" s="28"/>
-    </row>
-    <row r="441" spans="1:7" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="G440" s="25"/>
+    </row>
+    <row r="441" spans="1:7" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A441" s="13">
         <v>405</v>
       </c>
@@ -11439,9 +11205,9 @@
         <v>456</v>
       </c>
       <c r="F441" s="15"/>
-      <c r="G441" s="28"/>
-    </row>
-    <row r="442" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="G441" s="25"/>
+    </row>
+    <row r="442" spans="1:7" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A442" s="13">
         <v>406</v>
       </c>
@@ -11458,9 +11224,9 @@
         <v>458</v>
       </c>
       <c r="F442" s="15"/>
-      <c r="G442" s="28"/>
-    </row>
-    <row r="443" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="G442" s="25"/>
+    </row>
+    <row r="443" spans="1:7" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A443" s="13">
         <v>407</v>
       </c>
@@ -11477,9 +11243,9 @@
         <v>459</v>
       </c>
       <c r="F443" s="15"/>
-      <c r="G443" s="28"/>
-    </row>
-    <row r="444" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="G443" s="25"/>
+    </row>
+    <row r="444" spans="1:7" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A444" s="13">
         <v>408</v>
       </c>
@@ -11496,9 +11262,9 @@
         <v>460</v>
       </c>
       <c r="F444" s="15"/>
-      <c r="G444" s="28"/>
-    </row>
-    <row r="445" spans="1:7" s="12" customFormat="1" ht="56" x14ac:dyDescent="0.15">
+      <c r="G444" s="25"/>
+    </row>
+    <row r="445" spans="1:7" s="12" customFormat="1" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A445" s="13">
         <v>409</v>
       </c>
@@ -11515,770 +11281,735 @@
         <v>462</v>
       </c>
       <c r="F445" s="15"/>
-      <c r="G445" s="28"/>
-    </row>
-    <row r="446" spans="1:7" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="G445" s="25"/>
+    </row>
+    <row r="446" spans="1:7" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A446" s="13">
         <v>446</v>
       </c>
       <c r="B446" s="14" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C446" s="13">
         <v>2002</v>
       </c>
       <c r="D446" s="14" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="E446" s="14" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="F446" s="15"/>
-      <c r="G446" s="29"/>
-    </row>
-    <row r="447" spans="1:7" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="447" spans="1:7" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A447" s="13">
         <v>447</v>
       </c>
       <c r="B447" s="14" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C447" s="13">
         <v>2002</v>
       </c>
       <c r="D447" s="14" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="E447" s="14" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="F447" s="15"/>
-      <c r="G447" s="29"/>
-    </row>
-    <row r="448" spans="1:7" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="448" spans="1:7" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A448" s="13">
         <v>448</v>
       </c>
       <c r="B448" s="14" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C448" s="13">
         <v>2002</v>
       </c>
       <c r="D448" s="14" t="s">
+        <v>507</v>
+      </c>
+      <c r="E448" s="14" t="s">
         <v>510</v>
       </c>
-      <c r="E448" s="14" t="s">
-        <v>513</v>
-      </c>
       <c r="F448" s="15"/>
-      <c r="G448" s="29"/>
-    </row>
-    <row r="449" spans="1:7" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="449" spans="1:6" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A449" s="13">
         <v>449</v>
       </c>
       <c r="B449" s="14" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C449" s="13">
         <v>2002</v>
       </c>
       <c r="D449" s="14" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="E449" s="14" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="F449" s="15"/>
-      <c r="G449" s="29"/>
-    </row>
-    <row r="450" spans="1:7" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="450" spans="1:6" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A450" s="13">
         <v>450</v>
       </c>
       <c r="B450" s="14" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C450" s="13">
         <v>2002</v>
       </c>
       <c r="D450" s="14" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="E450" s="14" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="F450" s="15"/>
-      <c r="G450" s="29"/>
-    </row>
-    <row r="451" spans="1:7" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="451" spans="1:6" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A451" s="13">
         <v>451</v>
       </c>
       <c r="B451" s="14" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C451" s="13">
         <v>2002</v>
       </c>
       <c r="D451" s="14" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="E451" s="14" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="F451" s="15"/>
-      <c r="G451" s="29"/>
-    </row>
-    <row r="452" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    </row>
+    <row r="452" spans="1:6" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A452" s="13">
         <v>452</v>
       </c>
       <c r="B452" s="14" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C452" s="13">
         <v>2002</v>
       </c>
       <c r="D452" s="14" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="E452" s="14" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="F452" s="15"/>
-      <c r="G452" s="29"/>
-    </row>
-    <row r="453" spans="1:7" s="12" customFormat="1" ht="56" x14ac:dyDescent="0.15">
+    </row>
+    <row r="453" spans="1:6" s="12" customFormat="1" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A453" s="13">
         <v>453</v>
       </c>
       <c r="B453" s="14" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C453" s="13">
         <v>2002</v>
       </c>
       <c r="D453" s="14" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="E453" s="14" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="F453" s="15"/>
-      <c r="G453" s="29"/>
-    </row>
-    <row r="454" spans="1:7" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="454" spans="1:6" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A454" s="13">
         <v>454</v>
       </c>
       <c r="B454" s="14" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C454" s="13">
         <v>2002</v>
       </c>
       <c r="D454" s="14" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="E454" s="14" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="F454" s="15"/>
-      <c r="G454" s="29"/>
-    </row>
-    <row r="455" spans="1:7" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="455" spans="1:6" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A455" s="13">
         <v>455</v>
       </c>
       <c r="B455" s="14" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C455" s="13">
         <v>2002</v>
       </c>
       <c r="D455" s="14" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="E455" s="14" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="F455" s="15"/>
-      <c r="G455" s="29"/>
-    </row>
-    <row r="456" spans="1:7" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="456" spans="1:6" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A456" s="13">
         <v>456</v>
       </c>
       <c r="B456" s="14" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C456" s="13">
         <v>2002</v>
       </c>
       <c r="D456" s="14" t="s">
+        <v>518</v>
+      </c>
+      <c r="E456" s="14" t="s">
         <v>521</v>
       </c>
-      <c r="E456" s="14" t="s">
-        <v>524</v>
-      </c>
       <c r="F456" s="15"/>
-      <c r="G456" s="29"/>
-    </row>
-    <row r="457" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    </row>
+    <row r="457" spans="1:6" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A457" s="13">
         <v>457</v>
       </c>
       <c r="B457" s="14" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C457" s="13">
         <v>2002</v>
       </c>
       <c r="D457" s="14" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="E457" s="14" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="F457" s="15"/>
-      <c r="G457" s="29"/>
-    </row>
-    <row r="458" spans="1:7" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="458" spans="1:6" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A458" s="13">
         <v>458</v>
       </c>
       <c r="B458" s="14" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C458" s="13">
         <v>2002</v>
       </c>
       <c r="D458" s="14" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="E458" s="14" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="F458" s="15"/>
-      <c r="G458" s="29"/>
-    </row>
-    <row r="459" spans="1:7" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="459" spans="1:6" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A459" s="13">
         <v>459</v>
       </c>
       <c r="B459" s="14" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C459" s="13">
         <v>2002</v>
       </c>
       <c r="D459" s="14" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="E459" s="14" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="F459" s="15"/>
-      <c r="G459" s="29"/>
-    </row>
-    <row r="460" spans="1:7" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="460" spans="1:6" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A460" s="13">
         <v>460</v>
       </c>
       <c r="B460" s="14" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C460" s="13">
         <v>2002</v>
       </c>
       <c r="D460" s="14" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="E460" s="14" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="F460" s="15"/>
-      <c r="G460" s="29"/>
-    </row>
-    <row r="461" spans="1:7" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="461" spans="1:6" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A461" s="13">
         <v>461</v>
       </c>
       <c r="B461" s="14" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C461" s="13">
         <v>2002</v>
       </c>
       <c r="D461" s="14" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="E461" s="14" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="F461" s="15"/>
-      <c r="G461" s="29"/>
-    </row>
-    <row r="462" spans="1:7" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="462" spans="1:6" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A462" s="13">
         <v>462</v>
       </c>
       <c r="B462" s="14" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C462" s="13">
         <v>2002</v>
       </c>
       <c r="D462" s="14" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="E462" s="14" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="F462" s="15"/>
-      <c r="G462" s="29"/>
-    </row>
-    <row r="463" spans="1:7" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="463" spans="1:6" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A463" s="13">
         <v>463</v>
       </c>
       <c r="B463" s="14" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C463" s="13">
         <v>2002</v>
       </c>
       <c r="D463" s="14" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="E463" s="14" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="F463" s="15"/>
-      <c r="G463" s="29"/>
-    </row>
-    <row r="464" spans="1:7" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="464" spans="1:6" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A464" s="13">
         <v>464</v>
       </c>
       <c r="B464" s="14" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C464" s="13">
         <v>2002</v>
       </c>
       <c r="D464" s="14" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="E464" s="14" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="F464" s="15"/>
-      <c r="G464" s="29"/>
-    </row>
-    <row r="465" spans="1:7" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="465" spans="1:6" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A465" s="13">
         <v>465</v>
       </c>
       <c r="B465" s="14" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C465" s="13">
         <v>2002</v>
       </c>
       <c r="D465" s="14" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="E465" s="14" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="F465" s="15"/>
-      <c r="G465" s="29"/>
-    </row>
-    <row r="466" spans="1:7" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="466" spans="1:6" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A466" s="13">
         <v>466</v>
       </c>
       <c r="B466" s="14" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C466" s="13">
         <v>2002</v>
       </c>
       <c r="D466" s="14" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="E466" s="14" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="F466" s="15"/>
-      <c r="G466" s="29"/>
-    </row>
-    <row r="467" spans="1:7" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="467" spans="1:6" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A467" s="13">
         <v>467</v>
       </c>
       <c r="B467" s="14" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C467" s="13">
         <v>2002</v>
       </c>
       <c r="D467" s="14" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="E467" s="14" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="F467" s="15"/>
-      <c r="G467" s="29"/>
-    </row>
-    <row r="468" spans="1:7" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="468" spans="1:6" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A468" s="13">
         <v>468</v>
       </c>
       <c r="B468" s="14" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C468" s="13">
         <v>2002</v>
       </c>
       <c r="D468" s="14" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="E468" s="14" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="F468" s="15"/>
-      <c r="G468" s="29"/>
-    </row>
-    <row r="469" spans="1:7" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="469" spans="1:6" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A469" s="13">
         <v>469</v>
       </c>
       <c r="B469" s="14" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C469" s="13">
         <v>2002</v>
       </c>
       <c r="D469" s="14" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="E469" s="14" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="F469" s="15"/>
-      <c r="G469" s="29"/>
-    </row>
-    <row r="470" spans="1:7" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="470" spans="1:6" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A470" s="13">
         <v>470</v>
       </c>
       <c r="B470" s="14" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C470" s="13">
         <v>2002</v>
       </c>
       <c r="D470" s="14" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="E470" s="14" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="F470" s="15"/>
-      <c r="G470" s="29"/>
-    </row>
-    <row r="471" spans="1:7" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="471" spans="1:6" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A471" s="13">
         <v>471</v>
       </c>
       <c r="B471" s="14" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C471" s="13">
         <v>2002</v>
       </c>
       <c r="D471" s="14" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="E471" s="14" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="F471" s="15"/>
-      <c r="G471" s="29"/>
-    </row>
-    <row r="472" spans="1:7" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="472" spans="1:6" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A472" s="13">
         <v>472</v>
       </c>
       <c r="B472" s="14" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C472" s="13">
         <v>2002</v>
       </c>
       <c r="D472" s="14" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="E472" s="14" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="F472" s="15"/>
-      <c r="G472" s="29"/>
-    </row>
-    <row r="473" spans="1:7" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="473" spans="1:6" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A473" s="13">
         <v>473</v>
       </c>
       <c r="B473" s="14" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C473" s="13">
         <v>2002</v>
       </c>
       <c r="D473" s="14" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="E473" s="14" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="F473" s="15"/>
-      <c r="G473" s="29"/>
-    </row>
-    <row r="474" spans="1:7" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="474" spans="1:6" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A474" s="13">
         <v>474</v>
       </c>
       <c r="B474" s="14" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C474" s="13">
         <v>2002</v>
       </c>
       <c r="D474" s="14" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="E474" s="14" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="F474" s="15"/>
-      <c r="G474" s="29"/>
-    </row>
-    <row r="475" spans="1:7" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="475" spans="1:6" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A475" s="13">
         <v>475</v>
       </c>
       <c r="B475" s="14" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C475" s="13">
         <v>2002</v>
       </c>
       <c r="D475" s="14" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="E475" s="14" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="F475" s="15"/>
-      <c r="G475" s="29"/>
-    </row>
-    <row r="476" spans="1:7" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="476" spans="1:6" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A476" s="13">
         <v>476</v>
       </c>
       <c r="B476" s="14" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C476" s="13">
         <v>2002</v>
       </c>
       <c r="D476" s="14" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="E476" s="14" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="F476" s="15"/>
-      <c r="G476" s="29"/>
-    </row>
-    <row r="477" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    </row>
+    <row r="477" spans="1:6" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A477" s="13">
         <v>477</v>
       </c>
       <c r="B477" s="14" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C477" s="13">
         <v>2002</v>
       </c>
       <c r="D477" s="14" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="E477" s="14" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="F477" s="15"/>
-      <c r="G477" s="29"/>
-    </row>
-    <row r="478" spans="1:7" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="478" spans="1:6" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A478" s="13">
         <v>478</v>
       </c>
       <c r="B478" s="14" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C478" s="13">
         <v>2002</v>
       </c>
       <c r="D478" s="14" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="E478" s="14" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="F478" s="15"/>
-      <c r="G478" s="29"/>
-    </row>
-    <row r="479" spans="1:7" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="479" spans="1:6" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A479" s="13">
         <v>479</v>
       </c>
       <c r="B479" s="14" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C479" s="13">
         <v>2002</v>
       </c>
       <c r="D479" s="14" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="E479" s="14" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="F479" s="15"/>
-      <c r="G479" s="29"/>
-    </row>
-    <row r="480" spans="1:7" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="480" spans="1:6" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A480" s="13">
         <v>480</v>
       </c>
       <c r="B480" s="14" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C480" s="13">
         <v>2002</v>
       </c>
       <c r="D480" s="14" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="E480" s="14" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="F480" s="15"/>
-      <c r="G480" s="29"/>
-    </row>
-    <row r="481" spans="1:7" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="481" spans="1:6" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A481" s="13">
         <v>481</v>
       </c>
       <c r="B481" s="14" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C481" s="13">
         <v>2002</v>
       </c>
       <c r="D481" s="14" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="E481" s="14" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="F481" s="15"/>
-      <c r="G481" s="29"/>
-    </row>
-    <row r="482" spans="1:7" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="482" spans="1:6" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A482" s="13">
         <v>482</v>
       </c>
       <c r="B482" s="14" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C482" s="13">
         <v>2002</v>
       </c>
       <c r="D482" s="14" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="E482" s="14" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="F482" s="15"/>
-      <c r="G482" s="29"/>
-    </row>
-    <row r="483" spans="1:7" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="483" spans="1:6" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A483" s="13">
         <v>483</v>
       </c>
       <c r="B483" s="14" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C483" s="13">
         <v>2002</v>
       </c>
       <c r="D483" s="14" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="E483" s="14" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="F483" s="15"/>
-      <c r="G483" s="29"/>
-    </row>
-    <row r="484" spans="1:7" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="484" spans="1:6" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A484" s="13">
         <v>484</v>
       </c>
       <c r="B484" s="14" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C484" s="13">
         <v>2002</v>
       </c>
       <c r="D484" s="14" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="E484" s="14" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="F484" s="15"/>
-      <c r="G484" s="29"/>
-    </row>
-    <row r="485" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    </row>
+    <row r="485" spans="1:6" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A485" s="13">
         <v>485</v>
       </c>
       <c r="B485" s="14" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C485" s="13">
         <v>2002</v>
       </c>
       <c r="D485" s="14" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="E485" s="14" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="F485" s="15"/>
-      <c r="G485" s="29"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:F485" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Acute Pain Management in the Perioperative Setting"/>
+      </filters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F485">
       <sortCondition descending="1" ref="C1:C485"/>
     </sortState>
@@ -12366,7 +12097,7 @@
     </row>
     <row r="13" spans="1:1" ht="29" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
@@ -13800,347 +13531,347 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="25"/>
-    <col min="2" max="2" width="42.83203125" style="25" customWidth="1"/>
-    <col min="3" max="3" width="13.83203125" style="25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.33203125" style="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="59.6640625" style="25" customWidth="1"/>
-    <col min="6" max="16384" width="9.1640625" style="25"/>
+    <col min="1" max="1" width="9.1640625" style="23"/>
+    <col min="2" max="2" width="42.83203125" style="23" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" style="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.33203125" style="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="59.6640625" style="23" customWidth="1"/>
+    <col min="6" max="16384" width="9.1640625" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
-        <v>565</v>
-      </c>
-      <c r="B1" s="23" t="s">
-        <v>600</v>
+        <v>562</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>597</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="22" t="s">
+        <v>611</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B2" s="23" t="s">
+        <v>596</v>
+      </c>
+      <c r="C2" s="23">
+        <v>2012</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>598</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B3" s="23" t="s">
+        <v>596</v>
+      </c>
+      <c r="C3" s="23">
+        <v>2012</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>598</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B4" s="23" t="s">
+        <v>596</v>
+      </c>
+      <c r="C4" s="23">
+        <v>2012</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>598</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B5" s="23" t="s">
+        <v>596</v>
+      </c>
+      <c r="C5" s="23">
+        <v>2012</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>598</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B6" s="23" t="s">
+        <v>596</v>
+      </c>
+      <c r="C6" s="23">
+        <v>2012</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>607</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B7" s="23" t="s">
+        <v>596</v>
+      </c>
+      <c r="C7" s="23">
+        <v>2012</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>607</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B8" s="23" t="s">
+        <v>596</v>
+      </c>
+      <c r="C8" s="23">
+        <v>2012</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>607</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B9" s="23" t="s">
+        <v>596</v>
+      </c>
+      <c r="C9" s="23">
+        <v>2012</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>607</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B10" s="23" t="s">
+        <v>596</v>
+      </c>
+      <c r="C10" s="23">
+        <v>2012</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>607</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B11" s="23" t="s">
+        <v>596</v>
+      </c>
+      <c r="C11" s="23">
+        <v>2012</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>607</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B12" s="23" t="s">
+        <v>596</v>
+      </c>
+      <c r="C12" s="23">
+        <v>2012</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>607</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B13" s="23" t="s">
+        <v>596</v>
+      </c>
+      <c r="C13" s="23">
+        <v>2012</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>607</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B14" s="23" t="s">
+        <v>596</v>
+      </c>
+      <c r="C14" s="23">
+        <v>2012</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>607</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B15" s="23" t="s">
+        <v>596</v>
+      </c>
+      <c r="C15" s="23">
+        <v>2012</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>607</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B16" s="23" t="s">
+        <v>596</v>
+      </c>
+      <c r="C16" s="23">
+        <v>2012</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>607</v>
+      </c>
+      <c r="E16" s="23" t="s">
         <v>614</v>
       </c>
-      <c r="F1" s="24" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B2" s="25" t="s">
-        <v>599</v>
-      </c>
-      <c r="C2" s="25">
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B17" s="23" t="s">
+        <v>596</v>
+      </c>
+      <c r="C17" s="23">
         <v>2012</v>
       </c>
-      <c r="D2" s="22" t="s">
-        <v>601</v>
-      </c>
-      <c r="E2" s="26" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B3" s="25" t="s">
-        <v>599</v>
-      </c>
-      <c r="C3" s="25">
+      <c r="D17" s="21" t="s">
+        <v>607</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B18" s="23" t="s">
+        <v>596</v>
+      </c>
+      <c r="C18" s="23">
         <v>2012</v>
       </c>
-      <c r="D3" s="22" t="s">
-        <v>601</v>
-      </c>
-      <c r="E3" s="25" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B4" s="25" t="s">
-        <v>599</v>
-      </c>
-      <c r="C4" s="25">
+      <c r="D18" s="21" t="s">
+        <v>607</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B19" s="23" t="s">
+        <v>596</v>
+      </c>
+      <c r="C19" s="23">
         <v>2012</v>
       </c>
-      <c r="D4" s="22" t="s">
-        <v>601</v>
-      </c>
-      <c r="E4" s="25" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B5" s="25" t="s">
-        <v>599</v>
-      </c>
-      <c r="C5" s="25">
+      <c r="D19" s="21" t="s">
+        <v>617</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B20" s="23" t="s">
+        <v>596</v>
+      </c>
+      <c r="C20" s="23">
         <v>2012</v>
       </c>
-      <c r="D5" s="22" t="s">
-        <v>601</v>
-      </c>
-      <c r="E5" s="25" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B6" s="25" t="s">
-        <v>599</v>
-      </c>
-      <c r="C6" s="25">
+      <c r="D20" s="21" t="s">
+        <v>617</v>
+      </c>
+      <c r="E20" s="24" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B21" s="23" t="s">
+        <v>596</v>
+      </c>
+      <c r="C21" s="23">
         <v>2012</v>
       </c>
-      <c r="D6" s="22" t="s">
-        <v>610</v>
-      </c>
-      <c r="E6" s="25" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B7" s="25" t="s">
-        <v>599</v>
-      </c>
-      <c r="C7" s="25">
+      <c r="D21" s="21" t="s">
+        <v>617</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B22" s="23" t="s">
+        <v>596</v>
+      </c>
+      <c r="C22" s="23">
         <v>2012</v>
       </c>
-      <c r="D7" s="22" t="s">
-        <v>610</v>
-      </c>
-      <c r="E7" s="25" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B8" s="25" t="s">
-        <v>599</v>
-      </c>
-      <c r="C8" s="25">
+      <c r="D22" s="21" t="s">
+        <v>617</v>
+      </c>
+      <c r="E22" s="24" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B23" s="23" t="s">
+        <v>596</v>
+      </c>
+      <c r="C23" s="23">
         <v>2012</v>
       </c>
-      <c r="D8" s="22" t="s">
-        <v>610</v>
-      </c>
-      <c r="E8" s="25" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B9" s="25" t="s">
-        <v>599</v>
-      </c>
-      <c r="C9" s="25">
-        <v>2012</v>
-      </c>
-      <c r="D9" s="22" t="s">
-        <v>610</v>
-      </c>
-      <c r="E9" s="25" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B10" s="25" t="s">
-        <v>599</v>
-      </c>
-      <c r="C10" s="25">
-        <v>2012</v>
-      </c>
-      <c r="D10" s="22" t="s">
-        <v>610</v>
-      </c>
-      <c r="E10" s="25" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B11" s="25" t="s">
-        <v>599</v>
-      </c>
-      <c r="C11" s="25">
-        <v>2012</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>610</v>
-      </c>
-      <c r="E11" s="25" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B12" s="25" t="s">
-        <v>599</v>
-      </c>
-      <c r="C12" s="25">
-        <v>2012</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>610</v>
-      </c>
-      <c r="E12" s="25" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B13" s="25" t="s">
-        <v>599</v>
-      </c>
-      <c r="C13" s="25">
-        <v>2012</v>
-      </c>
-      <c r="D13" s="22" t="s">
-        <v>610</v>
-      </c>
-      <c r="E13" s="25" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B14" s="25" t="s">
-        <v>599</v>
-      </c>
-      <c r="C14" s="25">
-        <v>2012</v>
-      </c>
-      <c r="D14" s="22" t="s">
-        <v>610</v>
-      </c>
-      <c r="E14" s="25" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B15" s="25" t="s">
-        <v>599</v>
-      </c>
-      <c r="C15" s="25">
-        <v>2012</v>
-      </c>
-      <c r="D15" s="22" t="s">
-        <v>610</v>
-      </c>
-      <c r="E15" s="25" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B16" s="25" t="s">
-        <v>599</v>
-      </c>
-      <c r="C16" s="25">
-        <v>2012</v>
-      </c>
-      <c r="D16" s="22" t="s">
-        <v>610</v>
-      </c>
-      <c r="E16" s="25" t="s">
+      <c r="D23" s="21" t="s">
         <v>617</v>
       </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B17" s="25" t="s">
-        <v>599</v>
-      </c>
-      <c r="C17" s="25">
-        <v>2012</v>
-      </c>
-      <c r="D17" s="22" t="s">
-        <v>610</v>
-      </c>
-      <c r="E17" s="25" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B18" s="25" t="s">
-        <v>599</v>
-      </c>
-      <c r="C18" s="25">
-        <v>2012</v>
-      </c>
-      <c r="D18" s="22" t="s">
-        <v>610</v>
-      </c>
-      <c r="E18" s="26" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B19" s="25" t="s">
-        <v>599</v>
-      </c>
-      <c r="C19" s="25">
-        <v>2012</v>
-      </c>
-      <c r="D19" s="22" t="s">
-        <v>620</v>
-      </c>
-      <c r="E19" s="27" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B20" s="25" t="s">
-        <v>599</v>
-      </c>
-      <c r="C20" s="25">
-        <v>2012</v>
-      </c>
-      <c r="D20" s="22" t="s">
-        <v>620</v>
-      </c>
-      <c r="E20" s="27" t="s">
+      <c r="E23" s="24" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B21" s="25" t="s">
-        <v>599</v>
-      </c>
-      <c r="C21" s="25">
-        <v>2012</v>
-      </c>
-      <c r="D21" s="22" t="s">
-        <v>620</v>
-      </c>
-      <c r="E21" s="27" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B22" s="25" t="s">
-        <v>599</v>
-      </c>
-      <c r="C22" s="25">
-        <v>2012</v>
-      </c>
-      <c r="D22" s="22" t="s">
-        <v>620</v>
-      </c>
-      <c r="E22" s="27" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B23" s="25" t="s">
-        <v>599</v>
-      </c>
-      <c r="C23" s="25">
-        <v>2012</v>
-      </c>
-      <c r="D23" s="22" t="s">
-        <v>620</v>
-      </c>
-      <c r="E23" s="27" t="s">
-        <v>625</v>
-      </c>
-    </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="D24" s="22"/>
+      <c r="D24" s="21"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="D25" s="22"/>
+      <c r="D25" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/_data/pp_recs_all.xlsx
+++ b/_data/pp_recs_all.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mgrant/Documents/_projects/r/pp_recs/_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B78122B1-7D83-764C-B4E8-76785650C3B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DECB49AF-85CA-D64E-9528-ABB20C6AE0D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="500" windowWidth="43700" windowHeight="28160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1995,12 +1995,12 @@
     <t>subrec</t>
   </si>
   <si>
-    <t>Institutional Policies and Procedures for Providing Perioperative Pain Management</t>
-  </si>
-  <si>
-    <t>Anesthesiologists offering perioperative analgesia services should provide, in collaboration with other healthcare professionals as appropriate, ongoing education and training to ensure that hospital personnel are knowledgeable and skilled with regard to the effective and safe use of the available treatment options within the institution.&lt;br/&gt;&lt;br/&gt;
+    <t>Anesthesiologists offering perioperative analgesia services should provide, in collaboration with other healthcare professionals as appropriate, ongoing education and training to ensure that hospital personnel are knowledgeable and skilled with regard to the effective and safe use of the available treatment options within the institution.&lt;br/&gt;
 &amp;#9702; &lt;font size = 3&gt;  Educational content should range from basic bedside pain assessment to sophisticated pain management techniques (e.g., epidural analgesia, PCA, and various regional anesthesia techniques) and nonpharmacologic techniques (e.g., relaxation, imagery, hypnotic methods).&lt;br/&gt;
 &amp;#9702; For optimal pain management, ongoing education and training are essential for new personnel, to maintain skills, and whenever therapeutic approaches are modified.&lt;/font&gt;</t>
+  </si>
+  <si>
+    <t>Institutional Policies and Procedures for Providing Perioperative Pain Management</t>
   </si>
 </sst>
 </file>
@@ -8960,10 +8960,10 @@
         <v>2012</v>
       </c>
       <c r="D325" s="9" t="s">
+        <v>639</v>
+      </c>
+      <c r="E325" s="9" t="s">
         <v>638</v>
-      </c>
-      <c r="E325" s="9" t="s">
-        <v>639</v>
       </c>
       <c r="F325" s="11" t="s">
         <v>586</v>
@@ -8981,7 +8981,7 @@
         <v>2012</v>
       </c>
       <c r="D326" s="9" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="E326" s="9" t="s">
         <v>636</v>
@@ -9002,7 +9002,7 @@
         <v>2012</v>
       </c>
       <c r="D327" s="9" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="E327" s="9" t="s">
         <v>465</v>
@@ -9022,7 +9022,7 @@
         <v>2012</v>
       </c>
       <c r="D328" s="9" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="E328" s="9" t="s">
         <v>466</v>
@@ -9042,7 +9042,7 @@
         <v>2012</v>
       </c>
       <c r="D329" s="9" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="E329" s="9" t="s">
         <v>467</v>
@@ -9062,7 +9062,7 @@
         <v>2012</v>
       </c>
       <c r="D330" s="9" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="E330" s="9" t="s">
         <v>468</v>
@@ -9082,7 +9082,7 @@
         <v>2012</v>
       </c>
       <c r="D331" s="9" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="E331" s="9" t="s">
         <v>469</v>
@@ -9102,7 +9102,7 @@
         <v>2012</v>
       </c>
       <c r="D332" s="9" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="E332" s="9" t="s">
         <v>470</v>

--- a/_data/pp_recs_all.xlsx
+++ b/_data/pp_recs_all.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mgrant/Documents/_projects/r/pp_recs/_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DECB49AF-85CA-D64E-9528-ABB20C6AE0D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A61939CD-1980-1B4F-8FC6-7C182DCE0DDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="500" windowWidth="43700" windowHeight="28160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="500" windowWidth="43700" windowHeight="28160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Guidelines" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
-    <sheet name="Practice Advisory" sheetId="2" r:id="rId3"/>
+    <sheet name="Guidelines_new" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="Practice Advisory" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Guidelines!$A$1:$F$485</definedName>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1764" uniqueCount="640">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1825" uniqueCount="668">
   <si>
     <t xml:space="preserve">Guideline </t>
   </si>
@@ -2001,6 +2002,90 @@
   </si>
   <si>
     <t>Institutional Policies and Procedures for Providing Perioperative Pain Management</t>
+  </si>
+  <si>
+    <t>grade</t>
+  </si>
+  <si>
+    <t>Fasting</t>
+  </si>
+  <si>
+    <t>sor</t>
+  </si>
+  <si>
+    <t>Individuals without coexisting diseases or conditions that may increase the risk for aspiration, including esophageal disorders such as significant uncontrolled reflux disease, hiatal hernia, Zenker’s diverticulum, achalasia, stricture, previous gastric surgery (for example, gastric bypass), gastroparesis, diabetes mellitus, opioid use, gastrointestinal obstruction or acute intraabdominal processes, pregnancy, obesity, and emergency procedures. Exercise clinical judgement with this patient population. †Up to 400 mL of clear liquids is considered an appropriate volume. Trial participants ingested a median of 400 mL of carbohydrate-containing clear liquids (interquartile range, 300 to 400 mL) up to 2 h before anesthesia administration. ‡Chewing gum should be removed before any sedative/anesthetic is administered.</t>
+  </si>
+  <si>
+    <t>There is insufficient evidence to recommend protein-containing clear liquids preferentially over other clear liquids before elective procedures requiring general anesthesia, regional anesthesia, or procedural sedation (no recommendation).</t>
+  </si>
+  <si>
+    <t>Not applicable</t>
+  </si>
+  <si>
+    <t>Very low</t>
+  </si>
+  <si>
+    <t>Moderate</t>
+  </si>
+  <si>
+    <t>Chewing gum should be removed before any sedative/anesthetic is administered.</t>
+  </si>
+  <si>
+    <t>We recommend healthy adults drink carbohydrate-containing clear liquids until 2 h before elective procedures requiring general anesthesia, regional anesthesia, or procedural sedation. The carbohydrates may be simple or complex.</t>
+  </si>
+  <si>
+    <t>We suggest not delaying elective procedures requiring general anesthesia, regional anesthesia, or procedural sedation in healthy adults who are chewing gum.</t>
+  </si>
+  <si>
+    <t>Conditional</t>
+  </si>
+  <si>
+    <t>There is insufficient evidence concerning benefits and harms to recommend pediatric patients drink clear liquids until 1 h versus 2 h before procedures with general anesthesia, regional anesthesia, or procedural sedation (no recommendation).</t>
+  </si>
+  <si>
+    <t>To avoid prolonged fasting in children, efforts should be made to allow clear liquids in children at low risk of aspiration as close to 2 h before procedures as possible. In children with shorter clear liquid fasting duration, exercise clinical judgment.</t>
+  </si>
+  <si>
+    <t>Best practice statement</t>
+  </si>
+  <si>
+    <t>Not appplicable</t>
+  </si>
+  <si>
+    <t>NMB</t>
+  </si>
+  <si>
+    <t>When neuromuscular blocking drugs are administered, we recommend against clinical assessment alone to avoid residual neuromuscular blockade, due to the insensitivity of the assessment.</t>
+  </si>
+  <si>
+    <t>We recommend quantitative monitoring over qualitative assessment to avoid residual neuromuscular blockade.</t>
+  </si>
+  <si>
+    <t>When using quantitative monitoring, we recommend confirming a train-of-four ratio greater than or equal to 0.9 before extubation.</t>
+  </si>
+  <si>
+    <t>We recommend using the adductor pollicis muscle for neuromuscular monitoring.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We recommend against using eye muscles for neuromuscular monitoring.  </t>
+  </si>
+  <si>
+    <t>We suggest neostigmine as a reason-able alternative to sugammadex at mini-mal depth of neuromuscular blockade.</t>
+  </si>
+  <si>
+    <t>To avoid residual neuromuscular blockade when atracurium or cisatracurium are administered and qualitative assessment is used, we suggest antagonism with neostigmine at minimal neuromuscular blockade depth. In the absence of quantitative monitoring, at least 10 min should elapse from antagonism to extubation. When quantitative monitoring is utilized, extubation can be done as soon as a train-of-four ratio greater than or equal to 0.9 is confirmed before extubation.</t>
+  </si>
+  <si>
+    <t>Deep: posttetanic count greater than or equal to 1 and train-of-four count 0; mod-erate: train-of-four count 1 to 3; shallow: train-of-four count 4 and train-of-four ratio less than 0.4; minimal: train-of-four ratio 0.4 to less than 0.9.</t>
+  </si>
+  <si>
+    <t>We recommend sugammadex over neostigmine at deep, moderate, and shallow depths of neuromuscular blockade induced by rocuronium or vecuronium, to avoid residual neuro-muscular blockade.</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>foot_note</t>
   </si>
 </sst>
 </file>
@@ -2113,7 +2198,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2177,6 +2262,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2525,9 +2616,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:M485"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A325" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E325" sqref="E325"/>
+    <sheetView topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A117" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B117" sqref="B117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4829,7 +4920,7 @@
       </c>
       <c r="F116" s="15"/>
     </row>
-    <row r="117" spans="1:6" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:6" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A117" s="8">
         <v>1</v>
       </c>
@@ -4849,7 +4940,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="118" spans="1:6" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:6" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A118" s="8">
         <v>2</v>
       </c>
@@ -4869,7 +4960,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="119" spans="1:6" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:6" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A119" s="8">
         <v>3</v>
       </c>
@@ -4889,7 +4980,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="120" spans="1:6" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:6" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A120" s="8">
         <v>4</v>
       </c>
@@ -4909,7 +5000,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="121" spans="1:6" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:6" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A121" s="8">
         <v>5</v>
       </c>
@@ -4929,7 +5020,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="122" spans="1:6" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:6" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A122" s="8">
         <v>6</v>
       </c>
@@ -4949,7 +5040,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="123" spans="1:6" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:6" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A123" s="8">
         <v>7</v>
       </c>
@@ -4969,7 +5060,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="124" spans="1:6" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:6" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A124" s="8">
         <v>8</v>
       </c>
@@ -4989,7 +5080,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="125" spans="1:6" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:6" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A125" s="8">
         <v>9</v>
       </c>
@@ -5009,7 +5100,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="126" spans="1:6" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:6" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A126" s="8">
         <v>10</v>
       </c>
@@ -5029,7 +5120,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="127" spans="1:6" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:6" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A127" s="8">
         <v>11</v>
       </c>
@@ -5049,7 +5140,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="128" spans="1:6" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:6" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A128" s="8">
         <v>12</v>
       </c>
@@ -5069,7 +5160,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="129" spans="1:6" s="12" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:6" s="12" customFormat="1" ht="42" x14ac:dyDescent="0.15">
       <c r="A129" s="8">
         <v>13</v>
       </c>
@@ -5089,7 +5180,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="130" spans="1:6" s="12" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:6" s="12" customFormat="1" ht="42" x14ac:dyDescent="0.15">
       <c r="A130" s="8">
         <v>14</v>
       </c>
@@ -5109,7 +5200,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="131" spans="1:6" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:6" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A131" s="8">
         <v>15</v>
       </c>
@@ -5129,7 +5220,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="132" spans="1:6" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:6" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A132" s="8">
         <v>16</v>
       </c>
@@ -5149,7 +5240,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="133" spans="1:6" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:6" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A133" s="8">
         <v>17</v>
       </c>
@@ -5169,7 +5260,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="134" spans="1:6" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:6" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A134" s="8">
         <v>18</v>
       </c>
@@ -5189,7 +5280,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="135" spans="1:6" s="12" customFormat="1" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:6" s="12" customFormat="1" ht="70" x14ac:dyDescent="0.15">
       <c r="A135" s="8">
         <v>19</v>
       </c>
@@ -5209,7 +5300,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="136" spans="1:6" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:6" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A136" s="8">
         <v>20</v>
       </c>
@@ -5229,7 +5320,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="137" spans="1:6" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:6" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A137" s="8">
         <v>21</v>
       </c>
@@ -5249,7 +5340,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="138" spans="1:6" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:6" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A138" s="8">
         <v>22</v>
       </c>
@@ -5269,7 +5360,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="139" spans="1:6" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:6" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A139" s="8">
         <v>23</v>
       </c>
@@ -5289,7 +5380,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="140" spans="1:6" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:6" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A140" s="8">
         <v>24</v>
       </c>
@@ -5309,7 +5400,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="141" spans="1:6" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:6" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A141" s="8">
         <v>25</v>
       </c>
@@ -5329,7 +5420,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="142" spans="1:6" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:6" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A142" s="8">
         <v>26</v>
       </c>
@@ -5349,7 +5440,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="143" spans="1:6" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:6" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A143" s="8">
         <v>27</v>
       </c>
@@ -5369,7 +5460,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="144" spans="1:6" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:6" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A144" s="8">
         <v>28</v>
       </c>
@@ -5389,7 +5480,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="145" spans="1:6" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:6" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A145" s="8">
         <v>29</v>
       </c>
@@ -5409,7 +5500,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="146" spans="1:6" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:6" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A146" s="8">
         <v>30</v>
       </c>
@@ -5429,7 +5520,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="147" spans="1:6" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:6" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A147" s="8">
         <v>31</v>
       </c>
@@ -5449,7 +5540,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="148" spans="1:6" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:6" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A148" s="8">
         <v>32</v>
       </c>
@@ -5469,7 +5560,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="149" spans="1:6" s="12" customFormat="1" ht="56" hidden="1" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:6" s="12" customFormat="1" ht="56" x14ac:dyDescent="0.15">
       <c r="A149" s="8">
         <v>33</v>
       </c>
@@ -5489,7 +5580,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="150" spans="1:6" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:6" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A150" s="8">
         <v>34</v>
       </c>
@@ -5509,7 +5600,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="151" spans="1:6" s="12" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:6" s="12" customFormat="1" ht="42" x14ac:dyDescent="0.15">
       <c r="A151" s="8">
         <v>35</v>
       </c>
@@ -5529,7 +5620,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="152" spans="1:6" s="12" customFormat="1" ht="56" hidden="1" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:6" s="12" customFormat="1" ht="56" x14ac:dyDescent="0.15">
       <c r="A152" s="8">
         <v>36</v>
       </c>
@@ -5549,7 +5640,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="153" spans="1:6" s="12" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:6" s="12" customFormat="1" ht="42" x14ac:dyDescent="0.15">
       <c r="A153" s="8">
         <v>37</v>
       </c>
@@ -5569,7 +5660,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="154" spans="1:6" s="12" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:6" s="12" customFormat="1" ht="42" x14ac:dyDescent="0.15">
       <c r="A154" s="8">
         <v>38</v>
       </c>
@@ -5589,7 +5680,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="155" spans="1:6" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:6" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A155" s="8">
         <v>39</v>
       </c>
@@ -5609,7 +5700,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="156" spans="1:6" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:6" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A156" s="8">
         <v>40</v>
       </c>
@@ -5629,7 +5720,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="157" spans="1:6" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:6" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A157" s="8">
         <v>41</v>
       </c>
@@ -5649,7 +5740,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="158" spans="1:6" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:6" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A158" s="8">
         <v>42</v>
       </c>
@@ -5669,7 +5760,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="159" spans="1:6" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:6" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A159" s="8">
         <v>43</v>
       </c>
@@ -5689,7 +5780,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="160" spans="1:6" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:6" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A160" s="8">
         <v>44</v>
       </c>
@@ -5709,7 +5800,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="161" spans="1:10" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A161" s="8">
         <v>45</v>
       </c>
@@ -5730,7 +5821,7 @@
       </c>
       <c r="J161" s="12"/>
     </row>
-    <row r="162" spans="1:10" ht="14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A162" s="8">
         <v>46</v>
       </c>
@@ -7812,7 +7903,7 @@
       </c>
       <c r="F263" s="15"/>
     </row>
-    <row r="264" spans="1:6" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:6" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A264" s="13">
         <v>341</v>
       </c>
@@ -8550,7 +8641,7 @@
       <c r="F303" s="15"/>
       <c r="G303" s="25"/>
     </row>
-    <row r="304" spans="1:7" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="304" spans="1:7" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A304" s="13">
         <v>149</v>
       </c>
@@ -8949,7 +9040,7 @@
       <c r="F324" s="15"/>
       <c r="G324" s="25"/>
     </row>
-    <row r="325" spans="1:7" s="12" customFormat="1" ht="112" x14ac:dyDescent="0.15">
+    <row r="325" spans="1:7" s="12" customFormat="1" ht="112" hidden="1" x14ac:dyDescent="0.15">
       <c r="A325" s="8">
         <v>410</v>
       </c>
@@ -8970,7 +9061,7 @@
       </c>
       <c r="G325" s="25"/>
     </row>
-    <row r="326" spans="1:7" s="12" customFormat="1" ht="42" x14ac:dyDescent="0.15">
+    <row r="326" spans="1:7" s="12" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A326" s="8">
         <v>411</v>
       </c>
@@ -8991,7 +9082,7 @@
       </c>
       <c r="G326" s="25"/>
     </row>
-    <row r="327" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    <row r="327" spans="1:7" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A327" s="8">
         <v>412</v>
       </c>
@@ -9011,7 +9102,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="328" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    <row r="328" spans="1:7" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A328" s="8">
         <v>413</v>
       </c>
@@ -9031,7 +9122,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="329" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    <row r="329" spans="1:7" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A329" s="8">
         <v>414</v>
       </c>
@@ -9051,7 +9142,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="330" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    <row r="330" spans="1:7" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A330" s="8">
         <v>415</v>
       </c>
@@ -9071,7 +9162,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="331" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    <row r="331" spans="1:7" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A331" s="8">
         <v>416</v>
       </c>
@@ -9091,7 +9182,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="332" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    <row r="332" spans="1:7" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A332" s="8">
         <v>417</v>
       </c>
@@ -9111,7 +9202,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="333" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    <row r="333" spans="1:7" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A333" s="8">
         <v>418</v>
       </c>
@@ -9131,7 +9222,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="334" spans="1:7" s="12" customFormat="1" ht="42" x14ac:dyDescent="0.15">
+    <row r="334" spans="1:7" s="12" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A334" s="8">
         <v>419</v>
       </c>
@@ -9151,7 +9242,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="335" spans="1:7" s="12" customFormat="1" ht="42" x14ac:dyDescent="0.15">
+    <row r="335" spans="1:7" s="12" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A335" s="8">
         <v>420</v>
       </c>
@@ -9171,7 +9262,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="336" spans="1:7" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="336" spans="1:7" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A336" s="8">
         <v>421</v>
       </c>
@@ -9191,7 +9282,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="337" spans="1:6" s="12" customFormat="1" ht="42" x14ac:dyDescent="0.15">
+    <row r="337" spans="1:6" s="12" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A337" s="8">
         <v>422</v>
       </c>
@@ -9211,7 +9302,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="338" spans="1:6" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="338" spans="1:6" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A338" s="8">
         <v>423</v>
       </c>
@@ -9231,7 +9322,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="339" spans="1:6" s="12" customFormat="1" ht="42" x14ac:dyDescent="0.15">
+    <row r="339" spans="1:6" s="12" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A339" s="8">
         <v>424</v>
       </c>
@@ -9251,7 +9342,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="340" spans="1:6" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="340" spans="1:6" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A340" s="8">
         <v>425</v>
       </c>
@@ -9271,7 +9362,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="341" spans="1:6" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    <row r="341" spans="1:6" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A341" s="8">
         <v>426</v>
       </c>
@@ -9291,7 +9382,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="342" spans="1:6" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="342" spans="1:6" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A342" s="8">
         <v>427</v>
       </c>
@@ -9311,7 +9402,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="343" spans="1:6" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    <row r="343" spans="1:6" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A343" s="8">
         <v>428</v>
       </c>
@@ -9331,7 +9422,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="344" spans="1:6" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="344" spans="1:6" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A344" s="8">
         <v>429</v>
       </c>
@@ -9351,7 +9442,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="345" spans="1:6" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="345" spans="1:6" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A345" s="8">
         <v>430</v>
       </c>
@@ -9371,7 +9462,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="346" spans="1:6" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="346" spans="1:6" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A346" s="8">
         <v>431</v>
       </c>
@@ -9391,7 +9482,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="347" spans="1:6" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="347" spans="1:6" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A347" s="8">
         <v>432</v>
       </c>
@@ -9411,7 +9502,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="348" spans="1:6" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="348" spans="1:6" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A348" s="8">
         <v>433</v>
       </c>
@@ -9431,7 +9522,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="349" spans="1:6" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="349" spans="1:6" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A349" s="8">
         <v>434</v>
       </c>
@@ -9451,7 +9542,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="350" spans="1:6" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    <row r="350" spans="1:6" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A350" s="8">
         <v>435</v>
       </c>
@@ -9471,7 +9562,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="351" spans="1:6" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    <row r="351" spans="1:6" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A351" s="8">
         <v>436</v>
       </c>
@@ -9491,7 +9582,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="352" spans="1:6" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    <row r="352" spans="1:6" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A352" s="8">
         <v>437</v>
       </c>
@@ -9511,7 +9602,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="353" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    <row r="353" spans="1:7" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A353" s="8">
         <v>438</v>
       </c>
@@ -9531,7 +9622,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="354" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    <row r="354" spans="1:7" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A354" s="8">
         <v>439</v>
       </c>
@@ -9551,7 +9642,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="355" spans="1:7" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="355" spans="1:7" s="12" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A355" s="8">
         <v>440</v>
       </c>
@@ -9571,7 +9662,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="356" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    <row r="356" spans="1:7" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A356" s="8">
         <v>441</v>
       </c>
@@ -9591,7 +9682,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="357" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    <row r="357" spans="1:7" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A357" s="8">
         <v>442</v>
       </c>
@@ -9612,7 +9703,7 @@
       </c>
       <c r="G357" s="25"/>
     </row>
-    <row r="358" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    <row r="358" spans="1:7" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A358" s="8">
         <v>443</v>
       </c>
@@ -9633,7 +9724,7 @@
       </c>
       <c r="G358" s="25"/>
     </row>
-    <row r="359" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    <row r="359" spans="1:7" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A359" s="8">
         <v>444</v>
       </c>
@@ -9654,7 +9745,7 @@
       </c>
       <c r="G359" s="25"/>
     </row>
-    <row r="360" spans="1:7" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    <row r="360" spans="1:7" s="12" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A360" s="8">
         <v>445</v>
       </c>
@@ -12007,7 +12098,7 @@
   <autoFilter ref="A1:F485" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="1">
       <filters>
-        <filter val="Acute Pain Management in the Perioperative Setting"/>
+        <filter val="Perioperative Blood Management"/>
       </filters>
     </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F485">
@@ -12023,6 +12114,280 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E66F345-20DA-8A48-BF1A-CD4CF4B75669}">
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="10.83203125" style="28"/>
+    <col min="3" max="3" width="69.83203125" style="29" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" style="28" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="28"/>
+    <col min="6" max="6" width="67.1640625" style="29" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="28"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="28" t="s">
+        <v>631</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>632</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>634</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>642</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>640</v>
+      </c>
+      <c r="F1" s="29" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="160" x14ac:dyDescent="0.2">
+      <c r="A2" s="28" t="s">
+        <v>641</v>
+      </c>
+      <c r="B2" s="28">
+        <v>2023</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>649</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>625</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>647</v>
+      </c>
+      <c r="F2" s="29" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A3" s="28" t="s">
+        <v>641</v>
+      </c>
+      <c r="B3" s="28">
+        <v>2023</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>644</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>645</v>
+      </c>
+      <c r="E3" s="28" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A4" s="28" t="s">
+        <v>641</v>
+      </c>
+      <c r="B4" s="28">
+        <v>2023</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>650</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>651</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>646</v>
+      </c>
+      <c r="F4" s="29" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A5" s="28" t="s">
+        <v>641</v>
+      </c>
+      <c r="B5" s="28">
+        <v>2023</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>652</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>645</v>
+      </c>
+      <c r="E5" s="28" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A6" s="28" t="s">
+        <v>641</v>
+      </c>
+      <c r="B6" s="28">
+        <v>2023</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>653</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>654</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A7" s="28" t="s">
+        <v>656</v>
+      </c>
+      <c r="B7" s="28">
+        <v>2023</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>657</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>625</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A8" s="28" t="s">
+        <v>656</v>
+      </c>
+      <c r="B8" s="28">
+        <v>2023</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>658</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>625</v>
+      </c>
+      <c r="E8" s="28" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A9" s="28" t="s">
+        <v>656</v>
+      </c>
+      <c r="B9" s="28">
+        <v>2023</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>659</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>625</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="28" t="s">
+        <v>656</v>
+      </c>
+      <c r="B10" s="28">
+        <v>2023</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>660</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>625</v>
+      </c>
+      <c r="E10" s="28" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="28" t="s">
+        <v>656</v>
+      </c>
+      <c r="B11" s="28">
+        <v>2023</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>661</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>625</v>
+      </c>
+      <c r="E11" s="28" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A12" s="28" t="s">
+        <v>656</v>
+      </c>
+      <c r="B12" s="28">
+        <v>2023</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>665</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>625</v>
+      </c>
+      <c r="E12" s="28" t="s">
+        <v>647</v>
+      </c>
+      <c r="F12" s="29" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A13" s="28" t="s">
+        <v>656</v>
+      </c>
+      <c r="B13" s="28">
+        <v>2023</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>662</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>651</v>
+      </c>
+      <c r="E13" s="28" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="96" x14ac:dyDescent="0.2">
+      <c r="A14" s="28" t="s">
+        <v>656</v>
+      </c>
+      <c r="B14" s="28">
+        <v>2023</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>663</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>651</v>
+      </c>
+      <c r="E14" s="28" t="s">
+        <v>646</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A485"/>
   <sheetViews>
@@ -13521,7 +13886,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F25"/>
   <sheetViews>

--- a/_data/pp_recs_all.xlsx
+++ b/_data/pp_recs_all.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mgrant/Documents/_projects/r/pp_recs/_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A61939CD-1980-1B4F-8FC6-7C182DCE0DDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8226348E-72CB-B240-8316-0B9896D00638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="500" windowWidth="43700" windowHeight="28160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2070,22 +2070,22 @@
     <t xml:space="preserve">We recommend against using eye muscles for neuromuscular monitoring.  </t>
   </si>
   <si>
-    <t>We suggest neostigmine as a reason-able alternative to sugammadex at mini-mal depth of neuromuscular blockade.</t>
-  </si>
-  <si>
     <t>To avoid residual neuromuscular blockade when atracurium or cisatracurium are administered and qualitative assessment is used, we suggest antagonism with neostigmine at minimal neuromuscular blockade depth. In the absence of quantitative monitoring, at least 10 min should elapse from antagonism to extubation. When quantitative monitoring is utilized, extubation can be done as soon as a train-of-four ratio greater than or equal to 0.9 is confirmed before extubation.</t>
   </si>
   <si>
     <t>Deep: posttetanic count greater than or equal to 1 and train-of-four count 0; mod-erate: train-of-four count 1 to 3; shallow: train-of-four count 4 and train-of-four ratio less than 0.4; minimal: train-of-four ratio 0.4 to less than 0.9.</t>
   </si>
   <si>
-    <t>We recommend sugammadex over neostigmine at deep, moderate, and shallow depths of neuromuscular blockade induced by rocuronium or vecuronium, to avoid residual neuro-muscular blockade.</t>
-  </si>
-  <si>
     <t>Low</t>
   </si>
   <si>
     <t>foot_note</t>
+  </si>
+  <si>
+    <t>We suggest neostigmine as a reasonable alternative to sugammadex at mini-mal depth of neuromuscular blockade.</t>
+  </si>
+  <si>
+    <t>We recommend sugammadex over neostigmine at deep, moderate, and shallow depths of neuromuscular blockade induced by rocuronium or vecuronium, to avoid residual neuromuscular blockade.</t>
   </si>
 </sst>
 </file>
@@ -12118,7 +12118,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12148,7 +12148,7 @@
         <v>640</v>
       </c>
       <c r="F1" s="29" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="160" x14ac:dyDescent="0.2">
@@ -12335,7 +12335,7 @@
         <v>2023</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="D12" s="28" t="s">
         <v>625</v>
@@ -12344,7 +12344,7 @@
         <v>647</v>
       </c>
       <c r="F12" s="29" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -12355,13 +12355,13 @@
         <v>2023</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="D13" s="28" t="s">
         <v>651</v>
       </c>
       <c r="E13" s="28" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="96" x14ac:dyDescent="0.2">
@@ -12372,7 +12372,7 @@
         <v>2023</v>
       </c>
       <c r="C14" s="29" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D14" s="28" t="s">
         <v>651</v>
